--- a/salidas/latest-insiders-trading-Sale.xlsx
+++ b/salidas/latest-insiders-trading-Sale.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5533,50 +5533,6 @@
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>ULY</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Ben Volkow</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Jun 07</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H117" t="n">
-        <v>3531</v>
-      </c>
-      <c r="I117" t="n">
-        <v>516466</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Jun 11 05:04 PM</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/salidas/latest-insiders-trading-Sale.xlsx
+++ b/salidas/latest-insiders-trading-Sale.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5489,50 +5489,6 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>AGYS</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>MAK CAPITAL ONE LLC</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Affiliate of Director</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>91.59</v>
-      </c>
-      <c r="G116" t="n">
-        <v>14265</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1306568</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1542745</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Jun 11 05:04 PM</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/salidas/latest-insiders-trading-Sale.xlsx
+++ b/salidas/latest-insiders-trading-Sale.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>USNA</t>
+          <t>SOFI</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WENTZ MYRON W</t>
+          <t>Qatar Investment Authority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director by deputization</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,42 +500,42 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>48.61</v>
+        <v>6.78</v>
       </c>
       <c r="G2" t="n">
-        <v>3700</v>
+        <v>19840073</v>
       </c>
       <c r="H2" t="n">
-        <v>179857</v>
+        <v>134515695</v>
       </c>
       <c r="I2" t="n">
-        <v>7880043</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 11 09:56 PM</t>
+          <t>Jun 14 07:41 AM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WRBY</t>
+          <t>LSEA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Blumenthal Neil Harris</t>
+          <t>FRANK BRUCE D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Co-Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,32 +544,32 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>16.65</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>76582</v>
+        <v>11671</v>
       </c>
       <c r="H3" t="n">
-        <v>1275122</v>
+        <v>113209</v>
       </c>
       <c r="I3" t="n">
-        <v>12177</v>
+        <v>40752</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jun 11 09:54 PM</t>
+          <t>Jun 13 09:45 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AIP</t>
+          <t>LSEA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Viana Antonio J</t>
+          <t>FRANK BRUCE D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,42 +588,42 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8.1</v>
+        <v>10.21</v>
       </c>
       <c r="G4" t="n">
-        <v>2836</v>
+        <v>5491</v>
       </c>
       <c r="H4" t="n">
-        <v>22979</v>
+        <v>56063</v>
       </c>
       <c r="I4" t="n">
-        <v>200803</v>
+        <v>35261</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jun 11 09:49 PM</t>
+          <t>Jun 13 09:45 PM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WRBY</t>
+          <t>DYN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gilboa David Abraham</t>
+          <t>HIGH SUSANNA GATTI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Co-Chief Executive Officer</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -632,42 +632,42 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>16.67</v>
+        <v>33.36</v>
       </c>
       <c r="G5" t="n">
-        <v>26582</v>
+        <v>40000</v>
       </c>
       <c r="H5" t="n">
-        <v>443122</v>
+        <v>1334201</v>
       </c>
       <c r="I5" t="n">
-        <v>12306</v>
+        <v>148792</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jun 11 09:29 PM</t>
+          <t>Jun 13 09:45 PM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WRBY</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gilboa David Abraham</t>
+          <t>Andreessen Marc L</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Co-Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -676,42 +676,42 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>16.69</v>
+        <v>28.88</v>
       </c>
       <c r="G6" t="n">
-        <v>149034</v>
+        <v>277484</v>
       </c>
       <c r="H6" t="n">
-        <v>2487377</v>
+        <v>8013382</v>
       </c>
       <c r="I6" t="n">
-        <v>12306</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jun 11 09:29 PM</t>
+          <t>Jun 13 09:43 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HALL MARK J</t>
+          <t>Andreessen Horowitz LSV Fund I</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -720,42 +720,42 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>52.22</v>
+        <v>28.88</v>
       </c>
       <c r="G7" t="n">
-        <v>250000</v>
+        <v>277484</v>
       </c>
       <c r="H7" t="n">
-        <v>13055000</v>
+        <v>8013382</v>
       </c>
       <c r="I7" t="n">
-        <v>532754</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Jun 11 09:19 PM</t>
+          <t>Jun 13 09:38 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LIF</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Burke Russell John</t>
+          <t>AH Parallel Fund IV, L.P.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,42 +764,42 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>27</v>
+        <v>28.88</v>
       </c>
       <c r="G8" t="n">
-        <v>32433</v>
+        <v>277484</v>
       </c>
       <c r="H8" t="n">
-        <v>875691</v>
+        <v>8013382</v>
       </c>
       <c r="I8" t="n">
-        <v>155036</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jun 11 09:13 PM</t>
+          <t>Jun 13 09:37 PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LIF</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hulls Chris</t>
+          <t>Andreessen Horowitz LSV Fund I</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -808,42 +808,42 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>27</v>
+        <v>28.88</v>
       </c>
       <c r="G9" t="n">
-        <v>269335</v>
+        <v>277484</v>
       </c>
       <c r="H9" t="n">
-        <v>7272045</v>
+        <v>8013382</v>
       </c>
       <c r="I9" t="n">
-        <v>1939542</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Jun 11 09:11 PM</t>
+          <t>Jun 13 09:36 PM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LIF</t>
+          <t>PCOR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hulls Chris</t>
+          <t>O CONNOR KEVIN J</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,32 +852,32 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>27</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>19759</v>
+        <v>5128</v>
       </c>
       <c r="H10" t="n">
-        <v>533493</v>
+        <v>337217</v>
       </c>
       <c r="I10" t="n">
-        <v>10201</v>
+        <v>1473799</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jun 11 09:11 PM</t>
+          <t>Jun 13 09:33 PM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LIF</t>
+          <t>PCOR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Synge James</t>
+          <t>O CONNOR KEVIN J</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -896,32 +896,32 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>158396</v>
+        <v>5128</v>
       </c>
       <c r="H11" t="n">
-        <v>4276692</v>
+        <v>342089</v>
       </c>
       <c r="I11" t="n">
-        <v>358923</v>
+        <v>1468671</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Jun 11 09:10 PM</t>
+          <t>Jun 13 09:33 PM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LIF</t>
+          <t>PCOR</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Synge James</t>
+          <t>O CONNOR KEVIN J</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -940,32 +940,32 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>27</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>42458</v>
+        <v>5128</v>
       </c>
       <c r="H12" t="n">
-        <v>1146366</v>
+        <v>343935</v>
       </c>
       <c r="I12" t="n">
-        <v>21921</v>
+        <v>1463543</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Jun 11 09:10 PM</t>
+          <t>Jun 13 09:33 PM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LIF</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Prober Charles J.</t>
+          <t>VIDERGAUZ MARK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -984,42 +984,42 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>27</v>
+        <v>51.85</v>
       </c>
       <c r="G13" t="n">
-        <v>263803</v>
+        <v>15077</v>
       </c>
       <c r="H13" t="n">
-        <v>7122681</v>
+        <v>781801</v>
       </c>
       <c r="I13" t="n">
-        <v>224292</v>
+        <v>68167</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jun 11 09:08 PM</t>
+          <t>Jun 13 09:20 PM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LIF</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Haro Alex</t>
+          <t>Stein Kevin M</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1028,32 +1028,32 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>27</v>
+        <v>1308.52</v>
       </c>
       <c r="G14" t="n">
-        <v>857457</v>
+        <v>10000</v>
       </c>
       <c r="H14" t="n">
-        <v>23151339</v>
+        <v>13085187</v>
       </c>
       <c r="I14" t="n">
-        <v>1321181</v>
+        <v>8158</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 11 09:06 PM</t>
+          <t>Jun 13 09:20 PM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LIF</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Haro Alex</t>
+          <t>HALL MARK J</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1072,42 +1072,42 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>20204</v>
+        <v>235908</v>
       </c>
       <c r="H15" t="n">
-        <v>545508</v>
+        <v>12503124</v>
       </c>
       <c r="I15" t="n">
-        <v>10431</v>
+        <v>296846</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Jun 11 09:06 PM</t>
+          <t>Jun 13 09:20 PM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LIF</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Wiadrowski David</t>
+          <t>SCHLOSBERG HILTON H</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Vice Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,42 +1116,42 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G16" t="n">
-        <v>19785</v>
+        <v>42144</v>
       </c>
       <c r="H16" t="n">
-        <v>534195</v>
+        <v>2233632</v>
       </c>
       <c r="I16" t="n">
-        <v>29739</v>
+        <v>1875558</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jun 11 09:04 PM</t>
+          <t>Jun 13 09:19 PM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LIF</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Goines Mark</t>
+          <t>SCHLOSBERG HILTON H</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Vice Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,42 +1160,42 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G17" t="n">
-        <v>50122</v>
+        <v>331231</v>
       </c>
       <c r="H17" t="n">
-        <v>1353294</v>
+        <v>17555243</v>
       </c>
       <c r="I17" t="n">
-        <v>137467</v>
+        <v>43618</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 11 08:56 PM</t>
+          <t>Jun 13 09:19 PM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEUTSCHE TELEKOM AG</t>
+          <t>SACKS RODNEY C</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,37 +1204,37 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>180.75</v>
+        <v>53</v>
       </c>
       <c r="G18" t="n">
-        <v>227604</v>
+        <v>78679</v>
       </c>
       <c r="H18" t="n">
-        <v>41140313</v>
+        <v>4169987</v>
       </c>
       <c r="I18" t="n">
-        <v>672113469</v>
+        <v>387310</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jun 11 08:54 PM</t>
+          <t>Jun 13 09:18 PM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DEUTSCHE TELEKOM AG</t>
+          <t>SACKS RODNEY C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1248,42 +1248,42 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>179.15</v>
+        <v>53</v>
       </c>
       <c r="G19" t="n">
-        <v>227604</v>
+        <v>331231</v>
       </c>
       <c r="H19" t="n">
-        <v>40776284</v>
+        <v>17555243</v>
       </c>
       <c r="I19" t="n">
-        <v>671885865</v>
+        <v>43618</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jun 11 08:54 PM</t>
+          <t>Jun 13 09:18 PM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>EXPI</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SMALL ROBERT J</t>
+          <t>Sanford Glenn Darrel</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CEO and Chairman of the Board</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,42 +1292,42 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1323.86</v>
+        <v>12.02</v>
       </c>
       <c r="G20" t="n">
-        <v>30000</v>
+        <v>1005</v>
       </c>
       <c r="H20" t="n">
-        <v>39715912</v>
+        <v>12085</v>
       </c>
       <c r="I20" t="n">
-        <v>112381</v>
+        <v>41512388</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 11 08:53 PM</t>
+          <t>Jun 13 09:11 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>EXPI</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SMALL ROBERT J</t>
+          <t>Sanford Glenn Darrel</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CEO and Chairman of the Board</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1336,42 +1336,42 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1312.09</v>
+        <v>11.02</v>
       </c>
       <c r="G21" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="H21" t="n">
-        <v>16401125</v>
+        <v>275585</v>
       </c>
       <c r="I21" t="n">
-        <v>108712</v>
+        <v>41487388</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 11 08:53 PM</t>
+          <t>Jun 13 09:11 PM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ANY</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kalbfleisch Kurt L.</t>
+          <t>DEUTSCHE TELEKOM AG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SVP and CFO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1380,42 +1380,42 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.17</v>
+        <v>173.1</v>
       </c>
       <c r="G22" t="n">
-        <v>80000</v>
+        <v>133461</v>
       </c>
       <c r="H22" t="n">
-        <v>93200</v>
+        <v>23102139</v>
       </c>
       <c r="I22" t="n">
-        <v>124189</v>
+        <v>671752404</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jun 11 08:41 PM</t>
+          <t>Jun 13 09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ANY</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Trompeter Patricia</t>
+          <t>DEUTSCHE TELEKOM AG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1424,42 +1424,42 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.14</v>
+        <v>174.53</v>
       </c>
       <c r="G23" t="n">
-        <v>150000</v>
+        <v>137002</v>
       </c>
       <c r="H23" t="n">
-        <v>171450</v>
+        <v>23910493</v>
       </c>
       <c r="I23" t="n">
-        <v>549687</v>
+        <v>671615402</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 11 08:36 PM</t>
+          <t>Jun 13 09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>KRYS</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Krishnan Suma</t>
+          <t>O'Brien MaryJo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>President, R&amp;D</t>
+          <t>Ex VP, Chief Admin &amp; Secretary</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>May 14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1468,42 +1468,42 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>175.76</v>
+        <v>94.06</v>
       </c>
       <c r="G24" t="n">
-        <v>25000</v>
+        <v>19</v>
       </c>
       <c r="H24" t="n">
-        <v>4393901</v>
+        <v>1787</v>
       </c>
       <c r="I24" t="n">
-        <v>1525882</v>
+        <v>65686</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jun 11 08:33 PM</t>
+          <t>Jun 13 08:57 PM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KRYS</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Krishnan Suma</t>
+          <t>O'Brien MaryJo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>President, R&amp;D</t>
+          <t>Ex VP, Chief Admin &amp; Secretary</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1512,42 +1512,42 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>175.77</v>
+        <v>94.06</v>
       </c>
       <c r="G25" t="n">
-        <v>25000</v>
+        <v>1129</v>
       </c>
       <c r="H25" t="n">
-        <v>4394161</v>
+        <v>106194</v>
       </c>
       <c r="I25" t="n">
-        <v>1587262</v>
+        <v>64557</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 11 08:33 PM</t>
+          <t>Jun 13 08:57 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KRYS</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Krishnan Krish S</t>
+          <t>Tan Kwang Hooi</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Group President</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,42 +1556,42 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>175.77</v>
+        <v>32.13</v>
       </c>
       <c r="G26" t="n">
-        <v>25000</v>
+        <v>11570</v>
       </c>
       <c r="H26" t="n">
-        <v>4394161</v>
+        <v>371766</v>
       </c>
       <c r="I26" t="n">
-        <v>1587262</v>
+        <v>160976</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 11 08:31 PM</t>
+          <t>Jun 13 08:38 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KRYS</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Krishnan Krish S</t>
+          <t>OFFER DAVID SCOTT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>EVP, General Counsel</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1600,42 +1600,42 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>175.76</v>
+        <v>32.13</v>
       </c>
       <c r="G27" t="n">
-        <v>25000</v>
+        <v>27714</v>
       </c>
       <c r="H27" t="n">
-        <v>4393901</v>
+        <v>890440</v>
       </c>
       <c r="I27" t="n">
-        <v>1525882</v>
+        <v>150230</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 11 08:31 PM</t>
+          <t>Jun 13 08:37 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UCTT</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Savage Sheri</t>
+          <t>Lundstrom Paul</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1644,42 +1644,42 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>46</v>
+        <v>32.13</v>
       </c>
       <c r="G28" t="n">
-        <v>15319</v>
+        <v>29041</v>
       </c>
       <c r="H28" t="n">
-        <v>704719</v>
+        <v>933099</v>
       </c>
       <c r="I28" t="n">
-        <v>75044</v>
+        <v>316130</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 11 08:23 PM</t>
+          <t>Jun 13 08:36 PM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UCTT</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Savage Sheri</t>
+          <t>Hartung Michael P</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Group President</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1688,42 +1688,42 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>47.18</v>
+        <v>32.13</v>
       </c>
       <c r="G29" t="n">
-        <v>2708</v>
+        <v>25525</v>
       </c>
       <c r="H29" t="n">
-        <v>127763</v>
+        <v>820134</v>
       </c>
       <c r="I29" t="n">
-        <v>72336</v>
+        <v>188844</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jun 11 08:23 PM</t>
+          <t>Jun 13 08:35 PM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AMK</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Zyla Gary G.</t>
+          <t>Advaithi Revathi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EVP, Chief Financial Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1732,42 +1732,42 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>34.4</v>
+        <v>32.13</v>
       </c>
       <c r="G30" t="n">
-        <v>7786</v>
+        <v>130604</v>
       </c>
       <c r="H30" t="n">
-        <v>267817</v>
+        <v>4196241</v>
       </c>
       <c r="I30" t="n">
-        <v>92795</v>
+        <v>1930427</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Jun 11 08:17 PM</t>
+          <t>Jun 13 08:34 PM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AMK</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Minta-Jacobs Esi</t>
+          <t>Heraud Benjamin</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HR &amp; Digital Product Solutions</t>
+          <t>Co-CEO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>May 14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1776,42 +1776,42 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>34.4</v>
+        <v>94.06</v>
       </c>
       <c r="G31" t="n">
-        <v>2529</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>86998</v>
+        <v>282</v>
       </c>
       <c r="I31" t="n">
-        <v>66766</v>
+        <v>19677</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Jun 11 08:16 PM</t>
+          <t>Jun 13 08:33 PM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>AMK</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mehta Mukesh</t>
+          <t>Heraud Benjamin</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EVP, Chief Information Officer</t>
+          <t>Co-CEO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>May 28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1820,42 +1820,42 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>34.4</v>
+        <v>92.53</v>
       </c>
       <c r="G32" t="n">
-        <v>8880</v>
+        <v>1222</v>
       </c>
       <c r="H32" t="n">
-        <v>305461</v>
+        <v>113072</v>
       </c>
       <c r="I32" t="n">
-        <v>304791</v>
+        <v>18455</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Jun 11 08:16 PM</t>
+          <t>Jun 13 08:33 PM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JAZZ</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Carr Patricia</t>
+          <t>Horwath Matthew</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SVP, Chief Accounting Officer</t>
+          <t>SVP &amp; Chief Financial Officer</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1864,42 +1864,42 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>108.83</v>
+        <v>18.65</v>
       </c>
       <c r="G33" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="H33" t="n">
-        <v>17738</v>
+        <v>3264</v>
       </c>
       <c r="I33" t="n">
-        <v>6596</v>
+        <v>29974</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Jun 11 08:15 PM</t>
+          <t>Jun 13 08:29 PM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AMK</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>McNatt Joel David JR</t>
+          <t>SEXTON JEFFREY D</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EVP, Investment Solutions</t>
+          <t>Senior VP of Global Sales</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1908,42 +1908,42 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>34.4</v>
+        <v>18.65</v>
       </c>
       <c r="G34" t="n">
-        <v>5267</v>
+        <v>651</v>
       </c>
       <c r="H34" t="n">
-        <v>181203</v>
+        <v>12141</v>
       </c>
       <c r="I34" t="n">
-        <v>53926</v>
+        <v>27055</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Jun 11 08:14 PM</t>
+          <t>Jun 13 08:29 PM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AMK</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Kim Michael</t>
+          <t>WASSERMAN YUVAL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CEO and President</t>
+          <t>Executive Chairman</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1952,42 +1952,42 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>34.4</v>
+        <v>18.65</v>
       </c>
       <c r="G35" t="n">
-        <v>9445</v>
+        <v>8986</v>
       </c>
       <c r="H35" t="n">
-        <v>324893</v>
+        <v>167589</v>
       </c>
       <c r="I35" t="n">
-        <v>355332</v>
+        <v>202835</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Jun 11 08:13 PM</t>
+          <t>Jun 13 08:28 PM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AMK</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hansen Carrie E.</t>
+          <t>WASSERMAN YUVAL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EVP, Chief Operating Officer</t>
+          <t>Executive Chairman</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1996,42 +1996,42 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>34.4</v>
+        <v>17.57</v>
       </c>
       <c r="G36" t="n">
-        <v>10611</v>
+        <v>9539</v>
       </c>
       <c r="H36" t="n">
-        <v>365025</v>
+        <v>167600</v>
       </c>
       <c r="I36" t="n">
-        <v>134582</v>
+        <v>193296</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Jun 11 08:12 PM</t>
+          <t>Jun 13 08:28 PM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AMK</t>
+          <t>NET</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Angus Ted F.</t>
+          <t>Prince Matthew</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EVP, General Counsel</t>
+          <t>CEO &amp; Chair of the Board</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2040,42 +2040,42 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>34.4</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>9634</v>
+        <v>52384</v>
       </c>
       <c r="H37" t="n">
-        <v>331406</v>
+        <v>3773618</v>
       </c>
       <c r="I37" t="n">
-        <v>113811</v>
+        <v>8742</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Jun 11 08:12 PM</t>
+          <t>Jun 13 08:08 PM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EVCM</t>
+          <t>NET</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Thompson Marc Christopher</t>
+          <t>Prince Matthew</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>CEO &amp; Chair of the Board</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2084,42 +2084,42 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>9.52</v>
+        <v>75.06999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>4384</v>
+        <v>52384</v>
       </c>
       <c r="H38" t="n">
-        <v>41736</v>
+        <v>3932231</v>
       </c>
       <c r="I38" t="n">
-        <v>1191859</v>
+        <v>8742</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Jun 11 08:06 PM</t>
+          <t>Jun 13 08:08 PM</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EVCM</t>
+          <t>NET</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Berlin Evan</t>
+          <t>Prince Matthew</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>CEO &amp; Chair of the Board</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2128,42 +2128,42 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9.52</v>
+        <v>74.45999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>1299</v>
+        <v>52384</v>
       </c>
       <c r="H39" t="n">
-        <v>12366</v>
+        <v>3900705</v>
       </c>
       <c r="I39" t="n">
-        <v>259103</v>
+        <v>8742</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Jun 11 08:06 PM</t>
+          <t>Jun 13 08:08 PM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EVCM</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Remer Eric Richard</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2172,42 +2172,42 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>9.52</v>
+        <v>0.06</v>
       </c>
       <c r="G40" t="n">
-        <v>13522</v>
+        <v>772313</v>
       </c>
       <c r="H40" t="n">
-        <v>128729</v>
+        <v>43327</v>
       </c>
       <c r="I40" t="n">
-        <v>1258278</v>
+        <v>11078625</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Jun 11 08:06 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EVCM</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Feierstein Matthew David</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2216,42 +2216,42 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>9.52</v>
+        <v>0.08</v>
       </c>
       <c r="G41" t="n">
-        <v>4273</v>
+        <v>366853</v>
       </c>
       <c r="H41" t="n">
-        <v>40679</v>
+        <v>29715</v>
       </c>
       <c r="I41" t="n">
-        <v>2299519</v>
+        <v>10711772</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Jun 11 08:06 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EVCM</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Storey Lisa E</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Chief Legal Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2260,42 +2260,42 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>9.52</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>1171</v>
+        <v>42287</v>
       </c>
       <c r="H42" t="n">
-        <v>11148</v>
+        <v>3024</v>
       </c>
       <c r="I42" t="n">
-        <v>157344</v>
+        <v>10669485</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Jun 11 08:06 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>YMAB</t>
+          <t>RBT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ber Gerard</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2304,42 +2304,42 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>12</v>
+        <v>0.06</v>
       </c>
       <c r="G43" t="n">
-        <v>722</v>
+        <v>772313</v>
       </c>
       <c r="H43" t="n">
-        <v>8664</v>
+        <v>43327</v>
       </c>
       <c r="I43" t="n">
-        <v>1608</v>
+        <v>11078625</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jun 11 07:54 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>YMAB</t>
+          <t>RBT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gad Thomas</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CHIEF BUSINESS OFFICER</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2348,42 +2348,42 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>12.03</v>
+        <v>0.08</v>
       </c>
       <c r="G44" t="n">
-        <v>35000</v>
+        <v>366853</v>
       </c>
       <c r="H44" t="n">
-        <v>421050</v>
+        <v>29715</v>
       </c>
       <c r="I44" t="n">
-        <v>197681</v>
+        <v>10711772</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jun 11 07:53 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>YMAB</t>
+          <t>RBT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gad Thomas</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CHIEF BUSINESS OFFICER</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2392,42 +2392,42 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>35000</v>
+        <v>42287</v>
       </c>
       <c r="H45" t="n">
-        <v>420000</v>
+        <v>3024</v>
       </c>
       <c r="I45" t="n">
-        <v>162681</v>
+        <v>10669485</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Jun 11 07:53 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Crehan Shane</t>
+          <t>Taylor Ryan D.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chief Accounting Officer</t>
+          <t>See Remarks</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jun 09</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2436,37 +2436,37 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>62.42</v>
+        <v>23.09</v>
       </c>
       <c r="G46" t="n">
-        <v>1538</v>
+        <v>593</v>
       </c>
       <c r="H46" t="n">
-        <v>96003</v>
+        <v>13692</v>
       </c>
       <c r="I46" t="n">
-        <v>1475</v>
+        <v>264854</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Jun 11 07:51 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>TDW</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Crehan Shane</t>
+          <t>Kneen Quintin</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Chief Accounting Officer</t>
+          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2480,42 +2480,42 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>62.99</v>
+        <v>103.76</v>
       </c>
       <c r="G47" t="n">
-        <v>1475</v>
+        <v>166000</v>
       </c>
       <c r="H47" t="n">
-        <v>92910</v>
+        <v>17223496</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>335718</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Jun 11 07:51 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>TDW</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sankarlingam Velchamy</t>
+          <t>Kneen Quintin</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pres. of Engineering &amp; Product</t>
+          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Jun 09</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2524,42 +2524,42 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>62.42</v>
+        <v>105.86</v>
       </c>
       <c r="G48" t="n">
-        <v>3589</v>
+        <v>201094</v>
       </c>
       <c r="H48" t="n">
-        <v>224027</v>
+        <v>21288816</v>
       </c>
       <c r="I48" t="n">
-        <v>81287</v>
+        <v>134624</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Jun 11 07:49 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>TDW</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sankarlingam Velchamy</t>
+          <t>Traub Kenneth</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pres. of Engineering &amp; Product</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2568,42 +2568,42 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>62.99</v>
+        <v>106.38</v>
       </c>
       <c r="G49" t="n">
-        <v>1551</v>
+        <v>20000</v>
       </c>
       <c r="H49" t="n">
-        <v>97697</v>
+        <v>2127606</v>
       </c>
       <c r="I49" t="n">
-        <v>79736</v>
+        <v>68802</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Jun 11 07:49 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Klarich Lee</t>
+          <t>Correia Richard</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EVP, Chief Product Officer</t>
+          <t>President, CFO and Treasurer</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jun 06</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2612,37 +2612,37 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>300.21</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>800</v>
+        <v>28675</v>
       </c>
       <c r="H50" t="n">
-        <v>240169</v>
+        <v>2592256</v>
       </c>
       <c r="I50" t="n">
-        <v>166542</v>
+        <v>232325</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Jun 11 07:46 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DYN</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Beskrovnaya Oxana</t>
+          <t>DELL MICHAEL S</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Chief Scientific Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2656,42 +2656,42 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>31.34</v>
+        <v>133.04</v>
       </c>
       <c r="G51" t="n">
-        <v>2136</v>
+        <v>1001381</v>
       </c>
       <c r="H51" t="n">
-        <v>66942</v>
+        <v>133224349</v>
       </c>
       <c r="I51" t="n">
-        <v>147511</v>
+        <v>27930618</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Jun 11 07:42 PM</t>
+          <t>Jun 13 07:35 PM</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DYN</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Farwell Wildon</t>
+          <t>DELL MICHAEL S</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Chief Medical Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2700,42 +2700,42 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>31.27</v>
+        <v>131.96</v>
       </c>
       <c r="G52" t="n">
-        <v>2636</v>
+        <v>1205052</v>
       </c>
       <c r="H52" t="n">
-        <v>82428</v>
+        <v>159024464</v>
       </c>
       <c r="I52" t="n">
-        <v>145543</v>
+        <v>26725566</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jun 11 07:41 PM</t>
+          <t>Jun 13 07:35 PM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DYN</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>HIGH SUSANNA GATTI</t>
+          <t>DELL MICHAEL S</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2744,37 +2744,37 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>30.24</v>
+        <v>134.97</v>
       </c>
       <c r="G53" t="n">
-        <v>80000</v>
+        <v>3475496</v>
       </c>
       <c r="H53" t="n">
-        <v>2419200</v>
+        <v>469096968</v>
       </c>
       <c r="I53" t="n">
-        <v>154062</v>
+        <v>23250070</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Jun 11 07:34 PM</t>
+          <t>Jun 13 07:35 PM</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DYN</t>
+          <t>APPF</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HIGH SUSANNA GATTI</t>
+          <t>BLISS TIMOTHY K</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2788,42 +2788,42 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>31.23</v>
+        <v>233.41</v>
       </c>
       <c r="G54" t="n">
-        <v>5270</v>
+        <v>26100</v>
       </c>
       <c r="H54" t="n">
-        <v>164582</v>
+        <v>6091979</v>
       </c>
       <c r="I54" t="n">
-        <v>148792</v>
+        <v>12170</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Jun 11 07:34 PM</t>
+          <t>Jun 13 07:27 PM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DYN</t>
+          <t>APPF</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>McNeill Jonathan</t>
+          <t>BLISS TIMOTHY K</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Chief Business Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2832,42 +2832,42 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>31.34</v>
+        <v>241.31</v>
       </c>
       <c r="G55" t="n">
-        <v>1823</v>
+        <v>12170</v>
       </c>
       <c r="H55" t="n">
-        <v>57133</v>
+        <v>2936800</v>
       </c>
       <c r="I55" t="n">
-        <v>134811</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Jun 11 07:34 PM</t>
+          <t>Jun 13 07:27 PM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DYN</t>
+          <t>UDMY</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Scalzo Richard William</t>
+          <t>Bali Eren</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SVP, Head of Finance &amp; Admin.</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2876,42 +2876,42 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>30.23</v>
+        <v>9</v>
       </c>
       <c r="G56" t="n">
-        <v>1590</v>
+        <v>400</v>
       </c>
       <c r="H56" t="n">
-        <v>48066</v>
+        <v>3600</v>
       </c>
       <c r="I56" t="n">
-        <v>115105</v>
+        <v>1669077</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Jun 11 07:28 PM</t>
+          <t>Jun 13 07:10 PM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DYN</t>
+          <t>UDMY</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Scalzo Richard William</t>
+          <t>Bali Eren</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SVP, Head of Finance &amp; Admin.</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2920,42 +2920,42 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>31.34</v>
+        <v>9.06</v>
       </c>
       <c r="G57" t="n">
-        <v>1331</v>
+        <v>14600</v>
       </c>
       <c r="H57" t="n">
-        <v>41714</v>
+        <v>132276</v>
       </c>
       <c r="I57" t="n">
-        <v>113774</v>
+        <v>1654477</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Jun 11 07:28 PM</t>
+          <t>Jun 13 07:10 PM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ford Rollin L.</t>
+          <t>Codispoti Edward H</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2964,42 +2964,42 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>37.29</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>49998</v>
+        <v>760</v>
       </c>
       <c r="H58" t="n">
-        <v>1864420</v>
+        <v>69510</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>16929</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Jun 11 07:24 PM</t>
+          <t>Jun 13 07:07 PM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VECO</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KIERNAN JOHN P</t>
+          <t>Tong Richard</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SVP &amp; CHIEF FINANCIAL OFFICER</t>
+          <t>Exec VP and General Counsel</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3008,32 +3008,32 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>43.39</v>
+        <v>94</v>
       </c>
       <c r="G59" t="n">
-        <v>2500</v>
+        <v>3119</v>
       </c>
       <c r="H59" t="n">
-        <v>108474</v>
+        <v>293186</v>
       </c>
       <c r="I59" t="n">
-        <v>2167</v>
+        <v>16288</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Jun 11 07:14 PM</t>
+          <t>Jun 13 07:02 PM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>SNAP</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AFEYAN NOUBAR</t>
+          <t>Coles Joanna</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3052,42 +3052,42 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>148.34</v>
+        <v>15.17</v>
       </c>
       <c r="G60" t="n">
-        <v>202832</v>
+        <v>3950</v>
       </c>
       <c r="H60" t="n">
-        <v>30087339</v>
+        <v>59922</v>
       </c>
       <c r="I60" t="n">
-        <v>1528557</v>
+        <v>46492</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Jun 11 07:01 PM</t>
+          <t>Jun 13 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DIORIO CHRIS PH.D.</t>
+          <t>Richison Chad R.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CHIEF EXECUTIVE OFFICER</t>
+          <t>CEO, President and Chairman</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3096,42 +3096,42 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>146.49</v>
+        <v>145.55</v>
       </c>
       <c r="G61" t="n">
-        <v>5000</v>
+        <v>1950</v>
       </c>
       <c r="H61" t="n">
-        <v>732472</v>
+        <v>283819</v>
       </c>
       <c r="I61" t="n">
-        <v>286230</v>
+        <v>3058808</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Jun 11 06:56 PM</t>
+          <t>Jun 13 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DIORIO CHRIS PH.D.</t>
+          <t>Richison Chad R.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CHIEF EXECUTIVE OFFICER</t>
+          <t>CEO, President and Chairman</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3140,32 +3140,32 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>147.77</v>
+        <v>145.55</v>
       </c>
       <c r="G62" t="n">
-        <v>5000</v>
+        <v>1950</v>
       </c>
       <c r="H62" t="n">
-        <v>738831</v>
+        <v>283819</v>
       </c>
       <c r="I62" t="n">
-        <v>286230</v>
+        <v>3635899</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Jun 11 06:56 PM</t>
+          <t>Jun 13 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>FIBK</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WASHINGTON MIRON</t>
+          <t>Scott Jonathan R</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3184,42 +3184,42 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>148.04</v>
+        <v>25.29</v>
       </c>
       <c r="G63" t="n">
-        <v>1500</v>
+        <v>29499</v>
       </c>
       <c r="H63" t="n">
-        <v>222065</v>
+        <v>746030</v>
       </c>
       <c r="I63" t="n">
-        <v>571</v>
+        <v>1021663</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Jun 11 06:55 PM</t>
+          <t>Jun 13 06:46 PM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>USAC</t>
+          <t>FIBK</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>EIG VETERAN EQUITY AGGREGATOR,</t>
+          <t>Scott Jonathan R</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3228,42 +3228,42 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>24.04</v>
+        <v>26.14</v>
       </c>
       <c r="G64" t="n">
-        <v>11175</v>
+        <v>14403</v>
       </c>
       <c r="H64" t="n">
-        <v>268697</v>
+        <v>376494</v>
       </c>
       <c r="I64" t="n">
-        <v>5530950</v>
+        <v>1007260</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Jun 11 06:54 PM</t>
+          <t>Jun 13 06:46 PM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>USAC</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EIG VETERAN EQUITY AGGREGATOR,</t>
+          <t>Barkidjija John</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>HEAD OF CRE &amp; SPECIALTY FIN</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3272,42 +3272,42 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>24.03</v>
+        <v>22.64</v>
       </c>
       <c r="G65" t="n">
-        <v>252</v>
+        <v>10000</v>
       </c>
       <c r="H65" t="n">
-        <v>6056</v>
+        <v>226420</v>
       </c>
       <c r="I65" t="n">
-        <v>5530698</v>
+        <v>30691</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Jun 11 06:54 PM</t>
+          <t>Jun 13 06:44 PM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>NRIX</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Martha Geoffrey</t>
+          <t>Ring Christine</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chairman and CEO</t>
+          <t>Chief Legal Officer</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3316,32 +3316,32 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>83.77</v>
+        <v>17.02</v>
       </c>
       <c r="G66" t="n">
-        <v>19113</v>
+        <v>1864</v>
       </c>
       <c r="H66" t="n">
-        <v>1601001</v>
+        <v>31721</v>
       </c>
       <c r="I66" t="n">
-        <v>143348</v>
+        <v>19838</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Jun 11 06:53 PM</t>
+          <t>Jun 13 06:39 PM</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NVEC</t>
+          <t>NXST</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GLARNER TERRENCE</t>
+          <t>McMillen Charles Thomas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3360,42 +3360,42 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>75.75</v>
+        <v>154.99</v>
       </c>
       <c r="G67" t="n">
-        <v>200</v>
+        <v>1475</v>
       </c>
       <c r="H67" t="n">
-        <v>15150</v>
+        <v>228610</v>
       </c>
       <c r="I67" t="n">
-        <v>1000</v>
+        <v>8975</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Jun 11 06:45 PM</t>
+          <t>Jun 13 06:38 PM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SKYW</t>
+          <t>GTLB</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>WELCH JAMES L</t>
+          <t>ROBINS BRIAN G</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3404,42 +3404,42 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>78.68000000000001</v>
+        <v>45.46</v>
       </c>
       <c r="G68" t="n">
-        <v>7605</v>
+        <v>11667</v>
       </c>
       <c r="H68" t="n">
-        <v>598361</v>
+        <v>530382</v>
       </c>
       <c r="I68" t="n">
-        <v>48462</v>
+        <v>293508</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Jun 11 06:45 PM</t>
+          <t>Jun 13 06:36 PM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Myers Tessa M.</t>
+          <t>Storm Adam</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SVP, Intelligent Devices</t>
+          <t>Pres. &amp; Chief Product Off.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3448,42 +3448,42 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>253.78</v>
+        <v>1.51</v>
       </c>
       <c r="G69" t="n">
-        <v>528</v>
+        <v>7803</v>
       </c>
       <c r="H69" t="n">
-        <v>133996</v>
+        <v>11783</v>
       </c>
       <c r="I69" t="n">
-        <v>3718</v>
+        <v>1340214</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Jun 11 06:40 PM</t>
+          <t>Jun 13 06:35 PM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sylvain Jereme M</t>
+          <t>Storm Adam</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EVP Chief Financial Officer</t>
+          <t>Pres. &amp; Chief Product Off.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3492,42 +3492,42 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>115.05</v>
+        <v>1.51</v>
       </c>
       <c r="G70" t="n">
-        <v>745</v>
+        <v>3134</v>
       </c>
       <c r="H70" t="n">
-        <v>85713</v>
+        <v>4732</v>
       </c>
       <c r="I70" t="n">
-        <v>84948</v>
+        <v>1337080</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Jun 11 06:39 PM</t>
+          <t>Jun 13 06:35 PM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Stern Sadie</t>
+          <t>Newstead Jennifer</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EVP Chief HR Officer</t>
+          <t>Chief Legal Officer</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3536,42 +3536,42 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>115.05</v>
+        <v>500</v>
       </c>
       <c r="G71" t="n">
-        <v>427</v>
+        <v>905</v>
       </c>
       <c r="H71" t="n">
-        <v>49127</v>
+        <v>452500</v>
       </c>
       <c r="I71" t="n">
-        <v>75877</v>
+        <v>40560</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Jun 11 06:39 PM</t>
+          <t>Jun 13 06:33 PM</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>CLF</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Leach Jacob Steven</t>
+          <t>Taylor Douglas C</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EVP Chief Operating Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3580,42 +3580,42 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>115.05</v>
+        <v>14.87</v>
       </c>
       <c r="G72" t="n">
-        <v>745</v>
+        <v>36000</v>
       </c>
       <c r="H72" t="n">
-        <v>85713</v>
+        <v>535223</v>
       </c>
       <c r="I72" t="n">
-        <v>265577</v>
+        <v>100536</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Jun 11 06:38 PM</t>
+          <t>Jun 13 06:16 PM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>AMPH</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Petersen Floyd F.</t>
+          <t>RIKER LAUREN</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Senior Vice President, Finance</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3624,42 +3624,42 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>41.4</v>
+        <v>28.72</v>
       </c>
       <c r="G73" t="n">
-        <v>3000</v>
+        <v>3970</v>
       </c>
       <c r="H73" t="n">
-        <v>124200</v>
+        <v>114018</v>
       </c>
       <c r="I73" t="n">
-        <v>78409</v>
+        <v>38075</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Jun 11 06:32 PM</t>
+          <t>Jun 13 06:15 PM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TWLO</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Shipchandler Khozema</t>
+          <t>SLONIN JONATHAN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Chief Medical Officer</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3668,42 +3668,42 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>57</v>
+        <v>28.57</v>
       </c>
       <c r="G74" t="n">
-        <v>24657</v>
+        <v>5012</v>
       </c>
       <c r="H74" t="n">
-        <v>1405449</v>
+        <v>143193</v>
       </c>
       <c r="I74" t="n">
-        <v>311325</v>
+        <v>44569</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Jun 11 06:31 PM</t>
+          <t>Jun 13 06:15 PM</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FRSH</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Taylor Jennifer H</t>
+          <t>Young Jonathan</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3712,42 +3712,42 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>12.73</v>
+        <v>22.64</v>
       </c>
       <c r="G75" t="n">
-        <v>7035</v>
+        <v>2516</v>
       </c>
       <c r="H75" t="n">
-        <v>89556</v>
+        <v>56965</v>
       </c>
       <c r="I75" t="n">
-        <v>19991</v>
+        <v>250790</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Jun 11 06:29 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INSW</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pribor Jeffrey</t>
+          <t>GAUGLER DARYL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SVP, CFO &amp; Treasurer</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3756,42 +3756,42 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>62.37</v>
+        <v>28.38</v>
       </c>
       <c r="G76" t="n">
-        <v>35000</v>
+        <v>1000</v>
       </c>
       <c r="H76" t="n">
-        <v>2183076</v>
+        <v>28380</v>
       </c>
       <c r="I76" t="n">
-        <v>40849</v>
+        <v>116040</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Jun 11 06:29 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FRSH</t>
+          <t>WLDN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AUSTIN ROXANNE S</t>
+          <t>BIEBER MICHAEL A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3800,42 +3800,42 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>12.7</v>
+        <v>30.25</v>
       </c>
       <c r="G77" t="n">
-        <v>25207</v>
+        <v>4464</v>
       </c>
       <c r="H77" t="n">
-        <v>320129</v>
+        <v>135036</v>
       </c>
       <c r="I77" t="n">
-        <v>225554</v>
+        <v>165897</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Jun 11 06:28 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FRSH</t>
+          <t>WLDN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Flower Johanna</t>
+          <t>BIEBER MICHAEL A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3844,42 +3844,42 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12.71</v>
+        <v>30.98</v>
       </c>
       <c r="G78" t="n">
-        <v>4800</v>
+        <v>4394</v>
       </c>
       <c r="H78" t="n">
-        <v>61008</v>
+        <v>136126</v>
       </c>
       <c r="I78" t="n">
-        <v>23998</v>
+        <v>167503</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Jun 11 06:22 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Benioff Marc</t>
+          <t>HASTINGS PAUL J</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Chair and CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3888,42 +3888,42 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>241.74</v>
+        <v>28.38</v>
       </c>
       <c r="G79" t="n">
-        <v>15000</v>
+        <v>880</v>
       </c>
       <c r="H79" t="n">
-        <v>3626076</v>
+        <v>24974</v>
       </c>
       <c r="I79" t="n">
-        <v>12162457</v>
+        <v>12724</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Jun 11 06:15 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Reuss Mark L</t>
+          <t>WILLIAMS KRISTEN</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Chief Administrative Officer</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3932,42 +3932,42 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>46.01</v>
+        <v>28.38</v>
       </c>
       <c r="G80" t="n">
-        <v>14858</v>
+        <v>7452</v>
       </c>
       <c r="H80" t="n">
-        <v>683617</v>
+        <v>211488</v>
       </c>
       <c r="I80" t="n">
-        <v>162049</v>
+        <v>102912</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Jun 11 06:11 PM</t>
+          <t>Jun 13 06:12 PM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Reuss Mark L</t>
+          <t>Smallwood Garrett</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3976,42 +3976,42 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>46.34</v>
+        <v>1.51</v>
       </c>
       <c r="G81" t="n">
-        <v>35142</v>
+        <v>7832</v>
       </c>
       <c r="H81" t="n">
-        <v>1628480</v>
+        <v>11826</v>
       </c>
       <c r="I81" t="n">
-        <v>126907</v>
+        <v>1168213</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Jun 11 06:11 PM</t>
+          <t>Jun 13 06:11 PM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BXMT</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Marone Anthony F. JR</t>
+          <t>Smallwood Garrett</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4020,42 +4020,42 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>17.06</v>
+        <v>1.51</v>
       </c>
       <c r="G82" t="n">
-        <v>489</v>
+        <v>3121</v>
       </c>
       <c r="H82" t="n">
-        <v>8342</v>
+        <v>4713</v>
       </c>
       <c r="I82" t="n">
-        <v>59120</v>
+        <v>1165092</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Jun 11 06:05 PM</t>
+          <t>Jun 13 06:11 PM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ISPO</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Institutional Venture Partners</t>
+          <t>Yale Catriona</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Chief Development Officer</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4064,42 +4064,42 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3.92</v>
+        <v>22.64</v>
       </c>
       <c r="G83" t="n">
-        <v>12603</v>
+        <v>2825</v>
       </c>
       <c r="H83" t="n">
-        <v>49404</v>
+        <v>63961</v>
       </c>
       <c r="I83" t="n">
-        <v>393551</v>
+        <v>74867</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Jun 11 06:04 PM</t>
+          <t>Jun 13 06:11 PM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ISPO</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Institutional Venture Partners</t>
+          <t>White William Richard</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4108,37 +4108,37 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>3.92</v>
+        <v>22.64</v>
       </c>
       <c r="G84" t="n">
-        <v>5399</v>
+        <v>2831</v>
       </c>
       <c r="H84" t="n">
-        <v>21164</v>
+        <v>64094</v>
       </c>
       <c r="I84" t="n">
-        <v>388152</v>
+        <v>46799</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Jun 11 06:04 PM</t>
+          <t>Jun 13 06:09 PM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ISPO</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Institutional Venture Partners</t>
+          <t>Rolph Timothy</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Chief Scientific Officer</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4152,42 +4152,42 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3.91</v>
+        <v>22.64</v>
       </c>
       <c r="G85" t="n">
-        <v>7923</v>
+        <v>2380</v>
       </c>
       <c r="H85" t="n">
-        <v>30979</v>
+        <v>53886</v>
       </c>
       <c r="I85" t="n">
-        <v>380229</v>
+        <v>180178</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Jun 11 06:04 PM</t>
+          <t>Jun 13 06:06 PM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BXMT</t>
+          <t>GCT</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Keenan Katharine A</t>
+          <t>Lin Frank Hurst</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CEO &amp; President</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4196,42 +4196,42 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>17.04</v>
+        <v>33.16</v>
       </c>
       <c r="G86" t="n">
-        <v>2296</v>
+        <v>175178</v>
       </c>
       <c r="H86" t="n">
-        <v>39115</v>
+        <v>5808750</v>
       </c>
       <c r="I86" t="n">
-        <v>187468</v>
+        <v>5069889</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Jun 11 06:04 PM</t>
+          <t>Jun 13 06:06 PM</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>GCT</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Smallwood Garrett</t>
+          <t>Lin Frank Hurst</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4240,42 +4240,42 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.53</v>
+        <v>32.63</v>
       </c>
       <c r="G87" t="n">
-        <v>2327</v>
+        <v>91781</v>
       </c>
       <c r="H87" t="n">
-        <v>3560</v>
+        <v>2994442</v>
       </c>
       <c r="I87" t="n">
-        <v>1137349</v>
+        <v>4978108</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Jun 11 06:02 PM</t>
+          <t>Jun 13 06:06 PM</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Smallwood Garrett</t>
+          <t>Lamy Patrick</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Senior VP, Commercial Strategy</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4284,37 +4284,37 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.5</v>
+        <v>22.64</v>
       </c>
       <c r="G88" t="n">
-        <v>2619</v>
+        <v>569</v>
       </c>
       <c r="H88" t="n">
-        <v>3928</v>
+        <v>12883</v>
       </c>
       <c r="I88" t="n">
-        <v>1134730</v>
+        <v>18562</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Jun 11 06:02 PM</t>
+          <t>Jun 13 06:04 PM</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>OMF</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Smallwood Garrett</t>
+          <t>Hedlund Michael A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>pao, SVP and Group Controller</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -4328,42 +4328,42 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.48</v>
+        <v>48.1</v>
       </c>
       <c r="G89" t="n">
-        <v>8685</v>
+        <v>3000</v>
       </c>
       <c r="H89" t="n">
-        <v>12854</v>
+        <v>144300</v>
       </c>
       <c r="I89" t="n">
-        <v>1126045</v>
+        <v>28147</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Jun 11 06:02 PM</t>
+          <t>Jun 13 06:02 PM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ACAD</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Schneyer Mark C.</t>
+          <t>Cheng Andrew</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EVP, CHIEF FINANCIAL OFFICER</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4372,42 +4372,42 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>14.79</v>
+        <v>22.64</v>
       </c>
       <c r="G90" t="n">
-        <v>975</v>
+        <v>7894</v>
       </c>
       <c r="H90" t="n">
-        <v>14420</v>
+        <v>178728</v>
       </c>
       <c r="I90" t="n">
-        <v>34564</v>
+        <v>581553</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Jun 11 06:00 PM</t>
+          <t>Jun 13 06:01 PM</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CWBC</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>RAMOS ANTHONY KENNETH</t>
+          <t>Allread Dylan</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EXECUTIVE VICE PRESIDENT</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Apr 03</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4416,42 +4416,42 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>18.71</v>
+        <v>1.58</v>
       </c>
       <c r="G91" t="n">
-        <v>13400</v>
+        <v>564</v>
       </c>
       <c r="H91" t="n">
-        <v>250714</v>
+        <v>891</v>
       </c>
       <c r="I91" t="n">
-        <v>8981</v>
+        <v>650566</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Jun 11 05:44 PM</t>
+          <t>Jun 13 05:57 PM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PHIN</t>
+          <t>AVDX</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Boyle Robert</t>
+          <t>Praeger Michael</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>VP, GC and Secretary</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4460,42 +4460,42 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>43.77</v>
+        <v>10.85</v>
       </c>
       <c r="G92" t="n">
-        <v>1828</v>
+        <v>29192</v>
       </c>
       <c r="H92" t="n">
-        <v>79999</v>
+        <v>316675</v>
       </c>
       <c r="I92" t="n">
-        <v>36337</v>
+        <v>10440510</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Jun 11 05:36 PM</t>
+          <t>Jun 13 05:57 PM</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GTLB</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ROBINS BRIAN G</t>
+          <t>MEHROTRA SANJAY</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>CEO and President</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4504,42 +4504,42 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>43.56</v>
+        <v>134.57</v>
       </c>
       <c r="G93" t="n">
-        <v>11667</v>
+        <v>7000</v>
       </c>
       <c r="H93" t="n">
-        <v>508215</v>
+        <v>941956</v>
       </c>
       <c r="I93" t="n">
-        <v>305175</v>
+        <v>719049</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Jun 11 05:33 PM</t>
+          <t>Jun 13 05:54 PM</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MAPS</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Grazier Duncan</t>
+          <t>MEHROTRA SANJAY</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CHIEF TECHNOLOGY OFFICER</t>
+          <t>CEO and President</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4548,42 +4548,42 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.98</v>
+        <v>140</v>
       </c>
       <c r="G94" t="n">
-        <v>35272</v>
+        <v>30000</v>
       </c>
       <c r="H94" t="n">
-        <v>34549</v>
+        <v>4200000</v>
       </c>
       <c r="I94" t="n">
-        <v>694654</v>
+        <v>719049</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Jun 11 05:32 PM</t>
+          <t>Jun 13 05:54 PM</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MAPS</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Camire Brian</t>
+          <t>Kramer Thomas G.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GENERAL COUNSEL</t>
+          <t>CHIEF FINANCIAL OFFICER</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4592,42 +4592,42 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.98</v>
+        <v>7.89</v>
       </c>
       <c r="G95" t="n">
-        <v>70851</v>
+        <v>4610</v>
       </c>
       <c r="H95" t="n">
-        <v>69399</v>
+        <v>36357</v>
       </c>
       <c r="I95" t="n">
-        <v>696718</v>
+        <v>949614</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Jun 11 05:31 PM</t>
+          <t>Jun 13 05:53 PM</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EVER</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BLUNDIN DAVID B</t>
+          <t>Kramer Thomas G.</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF FINANCIAL OFFICER</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4636,42 +4636,42 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>23.16</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>5384</v>
+        <v>4967</v>
       </c>
       <c r="H96" t="n">
-        <v>124693</v>
+        <v>40391</v>
       </c>
       <c r="I96" t="n">
-        <v>1519511</v>
+        <v>944647</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Jun 11 05:27 PM</t>
+          <t>Jun 13 05:53 PM</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EVER</t>
+          <t>FROG</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>LINK VENTURES, LLLP</t>
+          <t>Landman Yoav</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>CHIEF TECHNOLOGY OFFICER</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4680,42 +4680,42 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>23.16</v>
+        <v>35.28</v>
       </c>
       <c r="G97" t="n">
-        <v>5384</v>
+        <v>2250</v>
       </c>
       <c r="H97" t="n">
-        <v>124693</v>
+        <v>79380</v>
       </c>
       <c r="I97" t="n">
-        <v>1519511</v>
+        <v>6744892</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Jun 11 05:26 PM</t>
+          <t>Jun 13 05:53 PM</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Storm Adam</t>
+          <t>Chapman Peter Hume</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Pres. &amp; Chief Product Off.</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4724,42 +4724,42 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.53</v>
+        <v>7.89</v>
       </c>
       <c r="G98" t="n">
-        <v>2269</v>
+        <v>5936</v>
       </c>
       <c r="H98" t="n">
-        <v>3472</v>
+        <v>46814</v>
       </c>
       <c r="I98" t="n">
-        <v>1259124</v>
+        <v>445297</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Jun 11 05:19 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Storm Adam</t>
+          <t>Chapman Peter Hume</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Pres. &amp; Chief Product Off.</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4768,37 +4768,37 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.51</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>2673</v>
+        <v>6394</v>
       </c>
       <c r="H99" t="n">
-        <v>4036</v>
+        <v>51995</v>
       </c>
       <c r="I99" t="n">
-        <v>1256451</v>
+        <v>438903</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Jun 11 05:19 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Storm Adam</t>
+          <t>STEVENS MARK A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Pres. &amp; Chief Product Off.</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4812,42 +4812,42 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.48</v>
+        <v>120.42</v>
       </c>
       <c r="G100" t="n">
-        <v>8434</v>
+        <v>150000</v>
       </c>
       <c r="H100" t="n">
-        <v>12482</v>
+        <v>18063285</v>
       </c>
       <c r="I100" t="n">
-        <v>1248017</v>
+        <v>9846240</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Jun 11 05:19 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ESTC</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Moorjani Janesh</t>
+          <t>STEVENS MARK A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CFO &amp; COO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4856,42 +4856,42 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>109.9</v>
+        <v>125.88</v>
       </c>
       <c r="G101" t="n">
-        <v>10011</v>
+        <v>320000</v>
       </c>
       <c r="H101" t="n">
-        <v>1100209</v>
+        <v>40280736</v>
       </c>
       <c r="I101" t="n">
-        <v>202491</v>
+        <v>9526240</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Jun 11 05:19 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ESTC</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Banon Shay</t>
+          <t>Alameddine Rima</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Chief Technology Officer</t>
+          <t>CHIEF REVENUE OFFICER</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4900,42 +4900,42 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>109.89</v>
+        <v>7.89</v>
       </c>
       <c r="G102" t="n">
-        <v>5260</v>
+        <v>9807</v>
       </c>
       <c r="H102" t="n">
-        <v>578021</v>
+        <v>77343</v>
       </c>
       <c r="I102" t="n">
-        <v>4545856</v>
+        <v>687840</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Jun 11 05:18 PM</t>
+          <t>Jun 13 05:51 PM</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ESTC</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Kulkarni Ashutosh</t>
+          <t>Alameddine Rima</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>CHIEF REVENUE OFFICER</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4944,42 +4944,42 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>109.9</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G103" t="n">
-        <v>18819</v>
+        <v>10565</v>
       </c>
       <c r="H103" t="n">
-        <v>2068208</v>
+        <v>85914</v>
       </c>
       <c r="I103" t="n">
-        <v>461961</v>
+        <v>677275</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Jun 11 05:18 PM</t>
+          <t>Jun 13 05:51 PM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ESTC</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Dodds Mark Eugene</t>
+          <t>Selleck Erin</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Chief Revenue Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4988,42 +4988,42 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>110.78</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>3457</v>
+        <v>2677</v>
       </c>
       <c r="H104" t="n">
-        <v>382966</v>
+        <v>23290</v>
       </c>
       <c r="I104" t="n">
-        <v>82498</v>
+        <v>57248</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Jun 11 05:18 PM</t>
+          <t>Jun 13 05:50 PM</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ESTC</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Dodds Mark Eugene</t>
+          <t>GRANMAYEH LANCE KIAN</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Chief Revenue Officer</t>
+          <t>EVP, CFO and Treasurer</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5032,42 +5032,42 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>109.9</v>
+        <v>29.31</v>
       </c>
       <c r="G105" t="n">
-        <v>2281</v>
+        <v>3282</v>
       </c>
       <c r="H105" t="n">
-        <v>250682</v>
+        <v>96181</v>
       </c>
       <c r="I105" t="n">
-        <v>106344</v>
+        <v>27880</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Jun 11 05:18 PM</t>
+          <t>Jun 13 05:42 PM</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ESTC</t>
+          <t>PRI</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Herzog Carolyn</t>
+          <t>Williams Glenn J.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Chief Legal Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5076,42 +5076,42 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>109.87</v>
+        <v>222.76</v>
       </c>
       <c r="G106" t="n">
-        <v>5820</v>
+        <v>3000</v>
       </c>
       <c r="H106" t="n">
-        <v>639428</v>
+        <v>668270</v>
       </c>
       <c r="I106" t="n">
-        <v>107448</v>
+        <v>48322</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Jun 11 05:17 PM</t>
+          <t>Jun 13 05:38 PM</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ESTC</t>
+          <t>RXRX</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Exner Ken</t>
+          <t>Borgeson Blake</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Chief Product Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5120,42 +5120,42 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>109.9</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G107" t="n">
-        <v>5950</v>
+        <v>11447</v>
       </c>
       <c r="H107" t="n">
-        <v>653905</v>
+        <v>96763</v>
       </c>
       <c r="I107" t="n">
-        <v>177032</v>
+        <v>7188563</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Jun 11 05:16 PM</t>
+          <t>Jun 13 05:36 PM</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DTIL</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Scimeca Dario</t>
+          <t>Granger Elder</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>General Counsel and Secretary</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5164,42 +5164,42 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>11.79</v>
+        <v>338.08</v>
       </c>
       <c r="G108" t="n">
-        <v>93</v>
+        <v>1000</v>
       </c>
       <c r="H108" t="n">
-        <v>1096</v>
+        <v>338080</v>
       </c>
       <c r="I108" t="n">
-        <v>6721</v>
+        <v>5471</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Jun 11 05:13 PM</t>
+          <t>Jun 13 05:35 PM</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>DFIN</t>
+          <t>HBCP</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Johnson Eric J</t>
+          <t>Kirkley David T.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>President, GIC</t>
+          <t>SEVP &amp; Chief Financial Officer</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5208,42 +5208,42 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>59.01</v>
+        <v>36.73</v>
       </c>
       <c r="G109" t="n">
-        <v>930</v>
+        <v>1180</v>
       </c>
       <c r="H109" t="n">
-        <v>54879</v>
+        <v>43338</v>
       </c>
       <c r="I109" t="n">
-        <v>155095</v>
+        <v>4631</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Jun 11 05:13 PM</t>
+          <t>Jun 13 05:34 PM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DTIL</t>
+          <t>MLYS</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SMITH J. JEFFERSON</t>
+          <t>Levy Adam Scott</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Chief Research Officer</t>
+          <t>CFO and Secretary</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5252,42 +5252,42 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>11.79</v>
+        <v>12.94</v>
       </c>
       <c r="G110" t="n">
-        <v>50</v>
+        <v>96815</v>
       </c>
       <c r="H110" t="n">
-        <v>590</v>
+        <v>1252718</v>
       </c>
       <c r="I110" t="n">
-        <v>68559</v>
+        <v>255462</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Jun 11 05:12 PM</t>
+          <t>Jun 13 05:33 PM</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NOTE</t>
+          <t>SGRY</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Resnik Josh</t>
+          <t>Burkhalter Danielle</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>President and COO</t>
+          <t>Chief Human Resources Officer</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5296,42 +5296,42 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.13</v>
+        <v>26.39</v>
       </c>
       <c r="G111" t="n">
-        <v>939</v>
+        <v>6000</v>
       </c>
       <c r="H111" t="n">
-        <v>1061</v>
+        <v>158310</v>
       </c>
       <c r="I111" t="n">
-        <v>449935</v>
+        <v>30354</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Jun 11 05:09 PM</t>
+          <t>Jun 13 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NOTE</t>
+          <t>DFIN</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Slabaugh Jon</t>
+          <t>Johnson Eric J</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CFO and SVP, Corp. Dev.</t>
+          <t>President, GIC</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5340,42 +5340,42 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.13</v>
+        <v>58.34</v>
       </c>
       <c r="G112" t="n">
-        <v>928</v>
+        <v>16757</v>
       </c>
       <c r="H112" t="n">
-        <v>1049</v>
+        <v>977630</v>
       </c>
       <c r="I112" t="n">
-        <v>138462</v>
+        <v>138338</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Jun 11 05:09 PM</t>
+          <t>Jun 13 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>DFIN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sandercock Brett</t>
+          <t>Johnson Eric J</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>President, GIC</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5384,42 +5384,42 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>209.81</v>
+        <v>59.25</v>
       </c>
       <c r="G113" t="n">
-        <v>1000</v>
+        <v>5329</v>
       </c>
       <c r="H113" t="n">
-        <v>209810</v>
+        <v>315720</v>
       </c>
       <c r="I113" t="n">
-        <v>91056</v>
+        <v>133009</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Jun 11 05:05 PM</t>
+          <t>Jun 13 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AGYS</t>
+          <t>RDNT</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MAK CAPITAL ONE LLC</t>
+          <t>Forthuber Stephen M</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Affiliate of Director</t>
+          <t>Pres &amp; COO-Eastern Operations</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Jun 07</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5428,42 +5428,42 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>93.8</v>
+        <v>62.33</v>
       </c>
       <c r="G114" t="n">
-        <v>66795</v>
+        <v>40000</v>
       </c>
       <c r="H114" t="n">
-        <v>6265037</v>
+        <v>2493200</v>
       </c>
       <c r="I114" t="n">
-        <v>1582757</v>
+        <v>523561</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Jun 11 05:04 PM</t>
+          <t>Jun 13 05:30 PM</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AGYS</t>
+          <t>RDNT</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MAK CAPITAL ONE LLC</t>
+          <t>Sorensen Alma Gregory</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Affiliate of Director</t>
+          <t>EVP, Chief Science Officer</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Jun 10</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5472,20 +5472,1120 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>92.88</v>
+        <v>61.24</v>
       </c>
       <c r="G115" t="n">
-        <v>25747</v>
+        <v>5000</v>
       </c>
       <c r="H115" t="n">
-        <v>2391497</v>
+        <v>306200</v>
       </c>
       <c r="I115" t="n">
-        <v>1557010</v>
+        <v>1249205</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Jun 11 05:04 PM</t>
+          <t>Jun 13 05:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>RDNT</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Sorensen Alma Gregory</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>EVP, Chief Science Officer</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>62.34</v>
+      </c>
+      <c r="G116" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H116" t="n">
+        <v>623400</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1239205</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Jun 13 05:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>EXFY</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Barrett David Michael</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G117" t="n">
+        <v>17496</v>
+      </c>
+      <c r="H117" t="n">
+        <v>24494</v>
+      </c>
+      <c r="I117" t="n">
+        <v>612477</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Jun 13 05:28 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>EXFY</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Barrett David Michael</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G118" t="n">
+        <v>16970</v>
+      </c>
+      <c r="H118" t="n">
+        <v>24606</v>
+      </c>
+      <c r="I118" t="n">
+        <v>595507</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Jun 13 05:28 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>EXFY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Barrett David Michael</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G119" t="n">
+        <v>18500</v>
+      </c>
+      <c r="H119" t="n">
+        <v>25900</v>
+      </c>
+      <c r="I119" t="n">
+        <v>577007</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Jun 13 05:28 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>WRBY</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Miller Steven Clive</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="G120" t="n">
+        <v>99816</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1657944</v>
+      </c>
+      <c r="I120" t="n">
+        <v>173012</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Jun 13 05:26 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>WRBY</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Miller Steven Clive</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="G121" t="n">
+        <v>9394</v>
+      </c>
+      <c r="H121" t="n">
+        <v>155846</v>
+      </c>
+      <c r="I121" t="n">
+        <v>173012</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Jun 13 05:26 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>PUMP</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Vion Michele</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>7778</v>
+      </c>
+      <c r="H122" t="n">
+        <v>71635</v>
+      </c>
+      <c r="I122" t="n">
+        <v>39006</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Jun 13 05:25 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Seshadri Raj</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Chief Commercial Pmts Officer</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>447.84</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3464</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1551318</v>
+      </c>
+      <c r="I123" t="n">
+        <v>13736</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Jun 13 05:23 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Seshadri Raj</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Chief Commercial Pmts Officer</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>451.49</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3458</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1561252</v>
+      </c>
+      <c r="I124" t="n">
+        <v>13736</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Jun 13 05:23 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CRVL</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>MICHAEL JEFFREY J</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>232.45</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H125" t="n">
+        <v>697338</v>
+      </c>
+      <c r="I125" t="n">
+        <v>192929</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Jun 13 05:21 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SCCO</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>PALOMINO BONILLA LUIS MIGUEL</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>110</v>
+      </c>
+      <c r="G126" t="n">
+        <v>100</v>
+      </c>
+      <c r="H126" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2114</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Jun 13 05:17 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CDNS</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Cunningham Paul</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Sr. Vice President</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>295</v>
+      </c>
+      <c r="G127" t="n">
+        <v>650</v>
+      </c>
+      <c r="H127" t="n">
+        <v>191750</v>
+      </c>
+      <c r="I127" t="n">
+        <v>66494</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Jun 13 05:10 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SMAR</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Branstetter Stephen Robert</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Chief Operating Officer</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>43.91</v>
+      </c>
+      <c r="G128" t="n">
+        <v>4174</v>
+      </c>
+      <c r="H128" t="n">
+        <v>183280</v>
+      </c>
+      <c r="I128" t="n">
+        <v>68067</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Jun 13 05:05 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SQSP</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Gubbay Paul</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Chief Product Officer</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H129" t="n">
+        <v>109550</v>
+      </c>
+      <c r="I129" t="n">
+        <v>42486</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Jun 13 05:02 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>IESC</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>GENDELL JEFFREY L ET AL</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Chief Executive Officer</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>133.18</v>
+      </c>
+      <c r="G130" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3329389</v>
+      </c>
+      <c r="I130" t="n">
+        <v>11184845</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Jun 13 05:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>MRTN</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Petit Douglas Paul</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>President</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4500</v>
+      </c>
+      <c r="H131" t="n">
+        <v>81999</v>
+      </c>
+      <c r="I131" t="n">
+        <v>31600</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Jun 13 04:59 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>UFPI</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Benton Patrick M.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Pres, UFP Construction, LLC</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>115.27</v>
+      </c>
+      <c r="G132" t="n">
+        <v>11725</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1351541</v>
+      </c>
+      <c r="I132" t="n">
+        <v>97729</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Jun 13 04:53 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>WLDN</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Forager Fund, L.P.</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>10% Owner</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="G133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H133" t="n">
+        <v>302324</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1465837</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Jun 13 04:51 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>WLDN</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Forager Fund, L.P.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>10% Owner</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>31.31</v>
+      </c>
+      <c r="G134" t="n">
+        <v>7941</v>
+      </c>
+      <c r="H134" t="n">
+        <v>248641</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1457896</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Jun 13 04:51 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>WLDN</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Forager Fund, L.P.</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>10% Owner</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Jun 13</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>30.57</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1100</v>
+      </c>
+      <c r="H135" t="n">
+        <v>33622</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1456796</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Jun 13 04:51 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>LFST</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Mullins Kevin Michael</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Chief Development Officer</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="G136" t="n">
+        <v>85093</v>
+      </c>
+      <c r="H136" t="n">
+        <v>470564</v>
+      </c>
+      <c r="I136" t="n">
+        <v>4650571</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Jun 13 04:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>AVT</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Arnold Ken E.</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>SVP, Chief People Officer</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="G137" t="n">
+        <v>8000</v>
+      </c>
+      <c r="H137" t="n">
+        <v>434720</v>
+      </c>
+      <c r="I137" t="n">
+        <v>40239</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Jun 13 04:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Niklason Laura E</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>President, CEO and Director</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="G138" t="n">
+        <v>358630</v>
+      </c>
+      <c r="H138" t="n">
+        <v>2537943</v>
+      </c>
+      <c r="I138" t="n">
+        <v>4830658</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Jun 13 04:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>HUMA</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Niklason Laura E</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>President, CEO and Director</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Jun 12</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G139" t="n">
+        <v>271518</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1982081</v>
+      </c>
+      <c r="I139" t="n">
+        <v>4559140</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Jun 13 04:48 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>DKS</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>COLOMBO WILLIAM J</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Jun 11</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Sale</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>215.64</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>154</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Jun 13 04:47 PM</t>
         </is>
       </c>
     </row>

--- a/salidas/latest-insiders-trading-Sale.xlsx
+++ b/salidas/latest-insiders-trading-Sale.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J140"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>INCY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qatar Investment Authority</t>
+          <t>Flannelly Barry P</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Director by deputization</t>
+          <t>EVP &amp; General Manager US</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,42 +500,42 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6.78</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
-        <v>19840073</v>
+        <v>19164</v>
       </c>
       <c r="H2" t="n">
-        <v>134515695</v>
+        <v>1149840</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>66377</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 14 07:41 AM</t>
+          <t>Jun 14 12:17 PM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LSEA</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FRANK BRUCE D</t>
+          <t>Mastercard Foundation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jun 04</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,37 +544,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9.699999999999999</v>
+        <v>442.03</v>
       </c>
       <c r="G3" t="n">
-        <v>11671</v>
+        <v>112000</v>
       </c>
       <c r="H3" t="n">
-        <v>113209</v>
+        <v>49507136</v>
       </c>
       <c r="I3" t="n">
-        <v>40752</v>
+        <v>93114308</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jun 13 09:45 PM</t>
+          <t>Jun 14 12:11 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LSEA</t>
+          <t>OSIS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRANK BRUCE D</t>
+          <t>Chandra Shalabh</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>PRES., SPACELABS HEALTHCARE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -588,42 +588,42 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10.21</v>
+        <v>139.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5491</v>
+        <v>676</v>
       </c>
       <c r="H4" t="n">
-        <v>56063</v>
+        <v>94302</v>
       </c>
       <c r="I4" t="n">
-        <v>35261</v>
+        <v>8192</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jun 13 09:45 PM</t>
+          <t>Jun 14 11:00 AM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DYN</t>
+          <t>PKOH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HIGH SUSANNA GATTI</t>
+          <t>ROMNEY RONNA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -632,32 +632,32 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>33.36</v>
+        <v>24.3</v>
       </c>
       <c r="G5" t="n">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="H5" t="n">
-        <v>1334201</v>
+        <v>121484</v>
       </c>
       <c r="I5" t="n">
-        <v>148792</v>
+        <v>30995</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jun 13 09:45 PM</t>
+          <t>Jun 14 10:28 AM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>MIDD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andreessen Marc L</t>
+          <t>Palisi Chapin Sarah</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -676,37 +676,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>28.88</v>
+        <v>128.38</v>
       </c>
       <c r="G6" t="n">
-        <v>277484</v>
+        <v>150</v>
       </c>
       <c r="H6" t="n">
-        <v>8013382</v>
+        <v>19257</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7061</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jun 13 09:43 PM</t>
+          <t>Jun 14 10:19 AM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Andreessen Horowitz LSV Fund I</t>
+          <t>Carey Charles P</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -720,42 +720,42 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>28.88</v>
+        <v>195.44</v>
       </c>
       <c r="G7" t="n">
-        <v>277484</v>
+        <v>3000</v>
       </c>
       <c r="H7" t="n">
-        <v>8013382</v>
+        <v>586320</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>7163</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Jun 13 09:38 PM</t>
+          <t>Jun 14 10:19 AM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>CWAN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AH Parallel Fund IV, L.P.</t>
+          <t>Das Souvik</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Chief Technology Officer</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,42 +764,42 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>28.88</v>
+        <v>19.96</v>
       </c>
       <c r="G8" t="n">
-        <v>277484</v>
+        <v>50000</v>
       </c>
       <c r="H8" t="n">
-        <v>8013382</v>
+        <v>998230</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>33142</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jun 13 09:37 PM</t>
+          <t>Jun 14 10:09 AM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>FRPH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Andreessen Horowitz LSV Fund I</t>
+          <t>MILTON JOHN D JR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Executive Vice President</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -808,42 +808,42 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>28.88</v>
+        <v>30.4</v>
       </c>
       <c r="G9" t="n">
-        <v>277484</v>
+        <v>1500</v>
       </c>
       <c r="H9" t="n">
-        <v>8013382</v>
+        <v>45600</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Jun 13 09:36 PM</t>
+          <t>Jun 14 09:53 AM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>KMT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>O CONNOR KEVIN J</t>
+          <t>Witt John Wayne</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Vice President</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,42 +852,42 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>65.76000000000001</v>
+        <v>24.37</v>
       </c>
       <c r="G10" t="n">
-        <v>5128</v>
+        <v>579</v>
       </c>
       <c r="H10" t="n">
-        <v>337217</v>
+        <v>14111</v>
       </c>
       <c r="I10" t="n">
-        <v>1473799</v>
+        <v>764</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jun 13 09:33 PM</t>
+          <t>Jun 14 09:40 AM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>ALTR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O CONNOR KEVIN J</t>
+          <t>Gayle Brian</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Accounting Officer</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -896,37 +896,37 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>66.70999999999999</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>5128</v>
+        <v>1866</v>
       </c>
       <c r="H11" t="n">
-        <v>342089</v>
+        <v>180200</v>
       </c>
       <c r="I11" t="n">
-        <v>1468671</v>
+        <v>16557</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Jun 13 09:33 PM</t>
+          <t>Jun 14 09:03 AM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>SOFI</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>O CONNOR KEVIN J</t>
+          <t>Qatar Investment Authority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Director by deputization</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -940,32 +940,32 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>67.06999999999999</v>
+        <v>6.78</v>
       </c>
       <c r="G12" t="n">
-        <v>5128</v>
+        <v>19840073</v>
       </c>
       <c r="H12" t="n">
-        <v>343935</v>
+        <v>134515695</v>
       </c>
       <c r="I12" t="n">
-        <v>1463543</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Jun 13 09:33 PM</t>
+          <t>Jun 14 07:41 AM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>LSEA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VIDERGAUZ MARK</t>
+          <t>FRANK BRUCE D</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -984,37 +984,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>51.85</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>15077</v>
+        <v>11671</v>
       </c>
       <c r="H13" t="n">
-        <v>781801</v>
+        <v>113209</v>
       </c>
       <c r="I13" t="n">
-        <v>68167</v>
+        <v>40752</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jun 13 09:20 PM</t>
+          <t>Jun 13 09:45 PM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>LSEA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Stein Kevin M</t>
+          <t>FRANK BRUCE D</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1028,42 +1028,42 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1308.52</v>
+        <v>10.21</v>
       </c>
       <c r="G14" t="n">
-        <v>10000</v>
+        <v>5491</v>
       </c>
       <c r="H14" t="n">
-        <v>13085187</v>
+        <v>56063</v>
       </c>
       <c r="I14" t="n">
-        <v>8158</v>
+        <v>35261</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 13 09:20 PM</t>
+          <t>Jun 13 09:45 PM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>DYN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HALL MARK J</t>
+          <t>HIGH SUSANNA GATTI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1072,42 +1072,42 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>53</v>
+        <v>33.36</v>
       </c>
       <c r="G15" t="n">
-        <v>235908</v>
+        <v>40000</v>
       </c>
       <c r="H15" t="n">
-        <v>12503124</v>
+        <v>1334201</v>
       </c>
       <c r="I15" t="n">
-        <v>296846</v>
+        <v>148792</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Jun 13 09:20 PM</t>
+          <t>Jun 13 09:45 PM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SCHLOSBERG HILTON H</t>
+          <t>Andreessen Marc L</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Vice Chairman and Co-CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,42 +1116,42 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>53</v>
+        <v>28.88</v>
       </c>
       <c r="G16" t="n">
-        <v>42144</v>
+        <v>277484</v>
       </c>
       <c r="H16" t="n">
-        <v>2233632</v>
+        <v>8013382</v>
       </c>
       <c r="I16" t="n">
-        <v>1875558</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jun 13 09:19 PM</t>
+          <t>Jun 13 09:43 PM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SCHLOSBERG HILTON H</t>
+          <t>Andreessen Horowitz LSV Fund I</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Vice Chairman and Co-CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,42 +1160,42 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>53</v>
+        <v>28.88</v>
       </c>
       <c r="G17" t="n">
-        <v>331231</v>
+        <v>277484</v>
       </c>
       <c r="H17" t="n">
-        <v>17555243</v>
+        <v>8013382</v>
       </c>
       <c r="I17" t="n">
-        <v>43618</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 13 09:19 PM</t>
+          <t>Jun 13 09:38 PM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SACKS RODNEY C</t>
+          <t>AH Parallel Fund IV, L.P.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chairman and Co-CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,42 +1204,42 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>53</v>
+        <v>28.88</v>
       </c>
       <c r="G18" t="n">
-        <v>78679</v>
+        <v>277484</v>
       </c>
       <c r="H18" t="n">
-        <v>4169987</v>
+        <v>8013382</v>
       </c>
       <c r="I18" t="n">
-        <v>387310</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jun 13 09:18 PM</t>
+          <t>Jun 13 09:37 PM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SACKS RODNEY C</t>
+          <t>Andreessen Horowitz LSV Fund I</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chairman and Co-CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1248,42 +1248,42 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>53</v>
+        <v>28.88</v>
       </c>
       <c r="G19" t="n">
-        <v>331231</v>
+        <v>277484</v>
       </c>
       <c r="H19" t="n">
-        <v>17555243</v>
+        <v>8013382</v>
       </c>
       <c r="I19" t="n">
-        <v>43618</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jun 13 09:18 PM</t>
+          <t>Jun 13 09:36 PM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EXPI</t>
+          <t>PCOR</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sanford Glenn Darrel</t>
+          <t>O CONNOR KEVIN J</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CEO and Chairman of the Board</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,42 +1292,42 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12.02</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>1005</v>
+        <v>5128</v>
       </c>
       <c r="H20" t="n">
-        <v>12085</v>
+        <v>337217</v>
       </c>
       <c r="I20" t="n">
-        <v>41512388</v>
+        <v>1473799</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 13 09:11 PM</t>
+          <t>Jun 13 09:33 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EXPI</t>
+          <t>PCOR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sanford Glenn Darrel</t>
+          <t>O CONNOR KEVIN J</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CEO and Chairman of the Board</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1336,32 +1336,32 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>11.02</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>25000</v>
+        <v>5128</v>
       </c>
       <c r="H21" t="n">
-        <v>275585</v>
+        <v>342089</v>
       </c>
       <c r="I21" t="n">
-        <v>41487388</v>
+        <v>1468671</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 13 09:11 PM</t>
+          <t>Jun 13 09:33 PM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>PCOR</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DEUTSCHE TELEKOM AG</t>
+          <t>O CONNOR KEVIN J</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1380,32 +1380,32 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>173.1</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>133461</v>
+        <v>5128</v>
       </c>
       <c r="H22" t="n">
-        <v>23102139</v>
+        <v>343935</v>
       </c>
       <c r="I22" t="n">
-        <v>671752404</v>
+        <v>1463543</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jun 13 09:00 PM</t>
+          <t>Jun 13 09:33 PM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DEUTSCHE TELEKOM AG</t>
+          <t>VIDERGAUZ MARK</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1424,42 +1424,42 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>174.53</v>
+        <v>51.85</v>
       </c>
       <c r="G23" t="n">
-        <v>137002</v>
+        <v>15077</v>
       </c>
       <c r="H23" t="n">
-        <v>23910493</v>
+        <v>781801</v>
       </c>
       <c r="I23" t="n">
-        <v>671615402</v>
+        <v>68167</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 13 09:00 PM</t>
+          <t>Jun 13 09:20 PM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O'Brien MaryJo</t>
+          <t>Stein Kevin M</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ex VP, Chief Admin &amp; Secretary</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>May 14</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1468,42 +1468,42 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>94.06</v>
+        <v>1308.52</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>10000</v>
       </c>
       <c r="H24" t="n">
-        <v>1787</v>
+        <v>13085187</v>
       </c>
       <c r="I24" t="n">
-        <v>65686</v>
+        <v>8158</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jun 13 08:57 PM</t>
+          <t>Jun 13 09:20 PM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O'Brien MaryJo</t>
+          <t>HALL MARK J</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ex VP, Chief Admin &amp; Secretary</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1512,42 +1512,42 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>94.06</v>
+        <v>53</v>
       </c>
       <c r="G25" t="n">
-        <v>1129</v>
+        <v>235908</v>
       </c>
       <c r="H25" t="n">
-        <v>106194</v>
+        <v>12503124</v>
       </c>
       <c r="I25" t="n">
-        <v>64557</v>
+        <v>296846</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 13 08:57 PM</t>
+          <t>Jun 13 09:20 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tan Kwang Hooi</t>
+          <t>SCHLOSBERG HILTON H</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Group President</t>
+          <t>Vice Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,42 +1556,42 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>32.13</v>
+        <v>53</v>
       </c>
       <c r="G26" t="n">
-        <v>11570</v>
+        <v>42144</v>
       </c>
       <c r="H26" t="n">
-        <v>371766</v>
+        <v>2233632</v>
       </c>
       <c r="I26" t="n">
-        <v>160976</v>
+        <v>1875558</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 13 08:38 PM</t>
+          <t>Jun 13 09:19 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OFFER DAVID SCOTT</t>
+          <t>SCHLOSBERG HILTON H</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EVP, General Counsel</t>
+          <t>Vice Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1600,42 +1600,42 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>32.13</v>
+        <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>27714</v>
+        <v>331231</v>
       </c>
       <c r="H27" t="n">
-        <v>890440</v>
+        <v>17555243</v>
       </c>
       <c r="I27" t="n">
-        <v>150230</v>
+        <v>43618</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 13 08:37 PM</t>
+          <t>Jun 13 09:19 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lundstrom Paul</t>
+          <t>SACKS RODNEY C</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1644,42 +1644,42 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>32.13</v>
+        <v>53</v>
       </c>
       <c r="G28" t="n">
-        <v>29041</v>
+        <v>78679</v>
       </c>
       <c r="H28" t="n">
-        <v>933099</v>
+        <v>4169987</v>
       </c>
       <c r="I28" t="n">
-        <v>316130</v>
+        <v>387310</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 13 08:36 PM</t>
+          <t>Jun 13 09:18 PM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hartung Michael P</t>
+          <t>SACKS RODNEY C</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Group President</t>
+          <t>Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1688,37 +1688,37 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>32.13</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
-        <v>25525</v>
+        <v>331231</v>
       </c>
       <c r="H29" t="n">
-        <v>820134</v>
+        <v>17555243</v>
       </c>
       <c r="I29" t="n">
-        <v>188844</v>
+        <v>43618</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jun 13 08:35 PM</t>
+          <t>Jun 13 09:18 PM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>EXPI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Advaithi Revathi</t>
+          <t>Sanford Glenn Darrel</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>CEO and Chairman of the Board</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1732,42 +1732,42 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>32.13</v>
+        <v>12.02</v>
       </c>
       <c r="G30" t="n">
-        <v>130604</v>
+        <v>1005</v>
       </c>
       <c r="H30" t="n">
-        <v>4196241</v>
+        <v>12085</v>
       </c>
       <c r="I30" t="n">
-        <v>1930427</v>
+        <v>41512388</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Jun 13 08:34 PM</t>
+          <t>Jun 13 09:11 PM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>EXPI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Heraud Benjamin</t>
+          <t>Sanford Glenn Darrel</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Co-CEO</t>
+          <t>CEO and Chairman of the Board</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>May 14</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1776,42 +1776,42 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>94.06</v>
+        <v>11.02</v>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>25000</v>
       </c>
       <c r="H31" t="n">
-        <v>282</v>
+        <v>275585</v>
       </c>
       <c r="I31" t="n">
-        <v>19677</v>
+        <v>41487388</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Jun 13 08:33 PM</t>
+          <t>Jun 13 09:11 PM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Heraud Benjamin</t>
+          <t>DEUTSCHE TELEKOM AG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Co-CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>May 28</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1820,42 +1820,42 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>92.53</v>
+        <v>173.1</v>
       </c>
       <c r="G32" t="n">
-        <v>1222</v>
+        <v>133461</v>
       </c>
       <c r="H32" t="n">
-        <v>113072</v>
+        <v>23102139</v>
       </c>
       <c r="I32" t="n">
-        <v>18455</v>
+        <v>671752404</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Jun 13 08:33 PM</t>
+          <t>Jun 13 09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Horwath Matthew</t>
+          <t>DEUTSCHE TELEKOM AG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SVP &amp; Chief Financial Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1864,42 +1864,42 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>18.65</v>
+        <v>174.53</v>
       </c>
       <c r="G33" t="n">
-        <v>175</v>
+        <v>137002</v>
       </c>
       <c r="H33" t="n">
-        <v>3264</v>
+        <v>23910493</v>
       </c>
       <c r="I33" t="n">
-        <v>29974</v>
+        <v>671615402</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Jun 13 08:29 PM</t>
+          <t>Jun 13 09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SEXTON JEFFREY D</t>
+          <t>O'Brien MaryJo</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Senior VP of Global Sales</t>
+          <t>Ex VP, Chief Admin &amp; Secretary</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>May 14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1908,37 +1908,37 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>18.65</v>
+        <v>94.06</v>
       </c>
       <c r="G34" t="n">
-        <v>651</v>
+        <v>19</v>
       </c>
       <c r="H34" t="n">
-        <v>12141</v>
+        <v>1787</v>
       </c>
       <c r="I34" t="n">
-        <v>27055</v>
+        <v>65686</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Jun 13 08:29 PM</t>
+          <t>Jun 13 08:57 PM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WASSERMAN YUVAL</t>
+          <t>O'Brien MaryJo</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Executive Chairman</t>
+          <t>Ex VP, Chief Admin &amp; Secretary</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1952,42 +1952,42 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>18.65</v>
+        <v>94.06</v>
       </c>
       <c r="G35" t="n">
-        <v>8986</v>
+        <v>1129</v>
       </c>
       <c r="H35" t="n">
-        <v>167589</v>
+        <v>106194</v>
       </c>
       <c r="I35" t="n">
-        <v>202835</v>
+        <v>64557</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Jun 13 08:28 PM</t>
+          <t>Jun 13 08:57 PM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>WASSERMAN YUVAL</t>
+          <t>Tan Kwang Hooi</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Executive Chairman</t>
+          <t>Group President</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1996,42 +1996,42 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>17.57</v>
+        <v>32.13</v>
       </c>
       <c r="G36" t="n">
-        <v>9539</v>
+        <v>11570</v>
       </c>
       <c r="H36" t="n">
-        <v>167600</v>
+        <v>371766</v>
       </c>
       <c r="I36" t="n">
-        <v>193296</v>
+        <v>160976</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Jun 13 08:28 PM</t>
+          <t>Jun 13 08:38 PM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Prince Matthew</t>
+          <t>OFFER DAVID SCOTT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CEO &amp; Chair of the Board</t>
+          <t>EVP, General Counsel</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2040,37 +2040,37 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>72.04000000000001</v>
+        <v>32.13</v>
       </c>
       <c r="G37" t="n">
-        <v>52384</v>
+        <v>27714</v>
       </c>
       <c r="H37" t="n">
-        <v>3773618</v>
+        <v>890440</v>
       </c>
       <c r="I37" t="n">
-        <v>8742</v>
+        <v>150230</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Jun 13 08:08 PM</t>
+          <t>Jun 13 08:37 PM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Prince Matthew</t>
+          <t>Lundstrom Paul</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CEO &amp; Chair of the Board</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2084,42 +2084,42 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>75.06999999999999</v>
+        <v>32.13</v>
       </c>
       <c r="G38" t="n">
-        <v>52384</v>
+        <v>29041</v>
       </c>
       <c r="H38" t="n">
-        <v>3932231</v>
+        <v>933099</v>
       </c>
       <c r="I38" t="n">
-        <v>8742</v>
+        <v>316130</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Jun 13 08:08 PM</t>
+          <t>Jun 13 08:36 PM</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Prince Matthew</t>
+          <t>Hartung Michael P</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CEO &amp; Chair of the Board</t>
+          <t>Group President</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2128,42 +2128,42 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>74.45999999999999</v>
+        <v>32.13</v>
       </c>
       <c r="G39" t="n">
-        <v>52384</v>
+        <v>25525</v>
       </c>
       <c r="H39" t="n">
-        <v>3900705</v>
+        <v>820134</v>
       </c>
       <c r="I39" t="n">
-        <v>8742</v>
+        <v>188844</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Jun 13 08:08 PM</t>
+          <t>Jun 13 08:35 PM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Advaithi Revathi</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2172,42 +2172,42 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.06</v>
+        <v>32.13</v>
       </c>
       <c r="G40" t="n">
-        <v>772313</v>
+        <v>130604</v>
       </c>
       <c r="H40" t="n">
-        <v>43327</v>
+        <v>4196241</v>
       </c>
       <c r="I40" t="n">
-        <v>11078625</v>
+        <v>1930427</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:34 PM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Heraud Benjamin</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Co-CEO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>May 14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2216,42 +2216,42 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.08</v>
+        <v>94.06</v>
       </c>
       <c r="G41" t="n">
-        <v>366853</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>29715</v>
+        <v>282</v>
       </c>
       <c r="I41" t="n">
-        <v>10711772</v>
+        <v>19677</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:33 PM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Heraud Benjamin</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Co-CEO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>May 28</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2260,42 +2260,42 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.07000000000000001</v>
+        <v>92.53</v>
       </c>
       <c r="G42" t="n">
-        <v>42287</v>
+        <v>1222</v>
       </c>
       <c r="H42" t="n">
-        <v>3024</v>
+        <v>113072</v>
       </c>
       <c r="I42" t="n">
-        <v>10669485</v>
+        <v>18455</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:33 PM</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RBT</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Horwath Matthew</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>SVP &amp; Chief Financial Officer</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2304,37 +2304,37 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.06</v>
+        <v>18.65</v>
       </c>
       <c r="G43" t="n">
-        <v>772313</v>
+        <v>175</v>
       </c>
       <c r="H43" t="n">
-        <v>43327</v>
+        <v>3264</v>
       </c>
       <c r="I43" t="n">
-        <v>11078625</v>
+        <v>29974</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:29 PM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RBT</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>SEXTON JEFFREY D</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Senior VP of Global Sales</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2348,42 +2348,42 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.08</v>
+        <v>18.65</v>
       </c>
       <c r="G44" t="n">
-        <v>366853</v>
+        <v>651</v>
       </c>
       <c r="H44" t="n">
-        <v>29715</v>
+        <v>12141</v>
       </c>
       <c r="I44" t="n">
-        <v>10711772</v>
+        <v>27055</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:29 PM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RBT</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>WASSERMAN YUVAL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Executive Chairman</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2392,42 +2392,42 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.07000000000000001</v>
+        <v>18.65</v>
       </c>
       <c r="G45" t="n">
-        <v>42287</v>
+        <v>8986</v>
       </c>
       <c r="H45" t="n">
-        <v>3024</v>
+        <v>167589</v>
       </c>
       <c r="I45" t="n">
-        <v>10669485</v>
+        <v>202835</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:28 PM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Taylor Ryan D.</t>
+          <t>WASSERMAN YUVAL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>See Remarks</t>
+          <t>Executive Chairman</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2436,37 +2436,37 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>23.09</v>
+        <v>17.57</v>
       </c>
       <c r="G46" t="n">
-        <v>593</v>
+        <v>9539</v>
       </c>
       <c r="H46" t="n">
-        <v>13692</v>
+        <v>167600</v>
       </c>
       <c r="I46" t="n">
-        <v>264854</v>
+        <v>193296</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 13 08:28 PM</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>TDW</t>
+          <t>NET</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Kneen Quintin</t>
+          <t>Prince Matthew</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
+          <t>CEO &amp; Chair of the Board</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2480,37 +2480,37 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>103.76</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>166000</v>
+        <v>52384</v>
       </c>
       <c r="H47" t="n">
-        <v>17223496</v>
+        <v>3773618</v>
       </c>
       <c r="I47" t="n">
-        <v>335718</v>
+        <v>8742</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 13 08:08 PM</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TDW</t>
+          <t>NET</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Kneen Quintin</t>
+          <t>Prince Matthew</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
+          <t>CEO &amp; Chair of the Board</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2524,42 +2524,42 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>105.86</v>
+        <v>75.06999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>201094</v>
+        <v>52384</v>
       </c>
       <c r="H48" t="n">
-        <v>21288816</v>
+        <v>3932231</v>
       </c>
       <c r="I48" t="n">
-        <v>134624</v>
+        <v>8742</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 13 08:08 PM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TDW</t>
+          <t>NET</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Traub Kenneth</t>
+          <t>Prince Matthew</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CEO &amp; Chair of the Board</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2568,42 +2568,42 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>106.38</v>
+        <v>74.45999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>20000</v>
+        <v>52384</v>
       </c>
       <c r="H49" t="n">
-        <v>2127606</v>
+        <v>3900705</v>
       </c>
       <c r="I49" t="n">
-        <v>68802</v>
+        <v>8742</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 13 08:08 PM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Correia Richard</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>President, CFO and Treasurer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2612,42 +2612,42 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>90.40000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G50" t="n">
-        <v>28675</v>
+        <v>772313</v>
       </c>
       <c r="H50" t="n">
-        <v>2592256</v>
+        <v>43327</v>
       </c>
       <c r="I50" t="n">
-        <v>232325</v>
+        <v>11078625</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DELL MICHAEL S</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2656,42 +2656,42 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>133.04</v>
+        <v>0.08</v>
       </c>
       <c r="G51" t="n">
-        <v>1001381</v>
+        <v>366853</v>
       </c>
       <c r="H51" t="n">
-        <v>133224349</v>
+        <v>29715</v>
       </c>
       <c r="I51" t="n">
-        <v>27930618</v>
+        <v>10711772</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Jun 13 07:35 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DELL MICHAEL S</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2700,42 +2700,42 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>131.96</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>1205052</v>
+        <v>42287</v>
       </c>
       <c r="H52" t="n">
-        <v>159024464</v>
+        <v>3024</v>
       </c>
       <c r="I52" t="n">
-        <v>26725566</v>
+        <v>10669485</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jun 13 07:35 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>RBT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DELL MICHAEL S</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2744,42 +2744,42 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>134.97</v>
+        <v>0.06</v>
       </c>
       <c r="G53" t="n">
-        <v>3475496</v>
+        <v>772313</v>
       </c>
       <c r="H53" t="n">
-        <v>469096968</v>
+        <v>43327</v>
       </c>
       <c r="I53" t="n">
-        <v>23250070</v>
+        <v>11078625</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Jun 13 07:35 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>APPF</t>
+          <t>RBT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BLISS TIMOTHY K</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2788,42 +2788,42 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>233.41</v>
+        <v>0.08</v>
       </c>
       <c r="G54" t="n">
-        <v>26100</v>
+        <v>366853</v>
       </c>
       <c r="H54" t="n">
-        <v>6091979</v>
+        <v>29715</v>
       </c>
       <c r="I54" t="n">
-        <v>12170</v>
+        <v>10711772</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Jun 13 07:27 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>APPF</t>
+          <t>RBT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BLISS TIMOTHY K</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2832,37 +2832,37 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>241.31</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>12170</v>
+        <v>42287</v>
       </c>
       <c r="H55" t="n">
-        <v>2936800</v>
+        <v>3024</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>10669485</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Jun 13 07:27 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UDMY</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Bali Eren</t>
+          <t>Taylor Ryan D.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>See Remarks</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2876,42 +2876,42 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>23.09</v>
       </c>
       <c r="G56" t="n">
-        <v>400</v>
+        <v>593</v>
       </c>
       <c r="H56" t="n">
-        <v>3600</v>
+        <v>13692</v>
       </c>
       <c r="I56" t="n">
-        <v>1669077</v>
+        <v>264854</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Jun 13 07:10 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>UDMY</t>
+          <t>TDW</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Bali Eren</t>
+          <t>Kneen Quintin</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2920,42 +2920,42 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>9.06</v>
+        <v>103.76</v>
       </c>
       <c r="G57" t="n">
-        <v>14600</v>
+        <v>166000</v>
       </c>
       <c r="H57" t="n">
-        <v>132276</v>
+        <v>17223496</v>
       </c>
       <c r="I57" t="n">
-        <v>1654477</v>
+        <v>335718</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Jun 13 07:10 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>TDW</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Codispoti Edward H</t>
+          <t>Kneen Quintin</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2964,37 +2964,37 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>91.45999999999999</v>
+        <v>105.86</v>
       </c>
       <c r="G58" t="n">
-        <v>760</v>
+        <v>201094</v>
       </c>
       <c r="H58" t="n">
-        <v>69510</v>
+        <v>21288816</v>
       </c>
       <c r="I58" t="n">
-        <v>16929</v>
+        <v>134624</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Jun 13 07:07 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>TDW</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tong Richard</t>
+          <t>Traub Kenneth</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Exec VP and General Counsel</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3008,42 +3008,42 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>94</v>
+        <v>106.38</v>
       </c>
       <c r="G59" t="n">
-        <v>3119</v>
+        <v>20000</v>
       </c>
       <c r="H59" t="n">
-        <v>293186</v>
+        <v>2127606</v>
       </c>
       <c r="I59" t="n">
-        <v>16288</v>
+        <v>68802</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Jun 13 07:02 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Coles Joanna</t>
+          <t>Correia Richard</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President, CFO and Treasurer</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3052,42 +3052,42 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>15.17</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>3950</v>
+        <v>28675</v>
       </c>
       <c r="H60" t="n">
-        <v>59922</v>
+        <v>2592256</v>
       </c>
       <c r="I60" t="n">
-        <v>46492</v>
+        <v>232325</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Jun 13 07:00 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Richison Chad R.</t>
+          <t>DELL MICHAEL S</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CEO, President and Chairman</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3096,37 +3096,37 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>145.55</v>
+        <v>133.04</v>
       </c>
       <c r="G61" t="n">
-        <v>1950</v>
+        <v>1001381</v>
       </c>
       <c r="H61" t="n">
-        <v>283819</v>
+        <v>133224349</v>
       </c>
       <c r="I61" t="n">
-        <v>3058808</v>
+        <v>27930618</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Jun 13 07:00 PM</t>
+          <t>Jun 13 07:35 PM</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Richison Chad R.</t>
+          <t>DELL MICHAEL S</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CEO, President and Chairman</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3140,42 +3140,42 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>145.55</v>
+        <v>131.96</v>
       </c>
       <c r="G62" t="n">
-        <v>1950</v>
+        <v>1205052</v>
       </c>
       <c r="H62" t="n">
-        <v>283819</v>
+        <v>159024464</v>
       </c>
       <c r="I62" t="n">
-        <v>3635899</v>
+        <v>26725566</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Jun 13 07:00 PM</t>
+          <t>Jun 13 07:35 PM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>FIBK</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Scott Jonathan R</t>
+          <t>DELL MICHAEL S</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3184,32 +3184,32 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>25.29</v>
+        <v>134.97</v>
       </c>
       <c r="G63" t="n">
-        <v>29499</v>
+        <v>3475496</v>
       </c>
       <c r="H63" t="n">
-        <v>746030</v>
+        <v>469096968</v>
       </c>
       <c r="I63" t="n">
-        <v>1021663</v>
+        <v>23250070</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Jun 13 06:46 PM</t>
+          <t>Jun 13 07:35 PM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FIBK</t>
+          <t>APPF</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Scott Jonathan R</t>
+          <t>BLISS TIMOTHY K</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3228,42 +3228,42 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26.14</v>
+        <v>233.41</v>
       </c>
       <c r="G64" t="n">
-        <v>14403</v>
+        <v>26100</v>
       </c>
       <c r="H64" t="n">
-        <v>376494</v>
+        <v>6091979</v>
       </c>
       <c r="I64" t="n">
-        <v>1007260</v>
+        <v>12170</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Jun 13 06:46 PM</t>
+          <t>Jun 13 07:27 PM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>APPF</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Barkidjija John</t>
+          <t>BLISS TIMOTHY K</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HEAD OF CRE &amp; SPECIALTY FIN</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3272,42 +3272,42 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>22.64</v>
+        <v>241.31</v>
       </c>
       <c r="G65" t="n">
-        <v>10000</v>
+        <v>12170</v>
       </c>
       <c r="H65" t="n">
-        <v>226420</v>
+        <v>2936800</v>
       </c>
       <c r="I65" t="n">
-        <v>30691</v>
+        <v>0</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Jun 13 06:44 PM</t>
+          <t>Jun 13 07:27 PM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NRIX</t>
+          <t>UDMY</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ring Christine</t>
+          <t>Bali Eren</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chief Legal Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3316,32 +3316,32 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>17.02</v>
+        <v>9</v>
       </c>
       <c r="G66" t="n">
-        <v>1864</v>
+        <v>400</v>
       </c>
       <c r="H66" t="n">
-        <v>31721</v>
+        <v>3600</v>
       </c>
       <c r="I66" t="n">
-        <v>19838</v>
+        <v>1669077</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Jun 13 06:39 PM</t>
+          <t>Jun 13 07:10 PM</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NXST</t>
+          <t>UDMY</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>McMillen Charles Thomas</t>
+          <t>Bali Eren</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3360,42 +3360,42 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>154.99</v>
+        <v>9.06</v>
       </c>
       <c r="G67" t="n">
-        <v>1475</v>
+        <v>14600</v>
       </c>
       <c r="H67" t="n">
-        <v>228610</v>
+        <v>132276</v>
       </c>
       <c r="I67" t="n">
-        <v>8975</v>
+        <v>1654477</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Jun 13 06:38 PM</t>
+          <t>Jun 13 07:10 PM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GTLB</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ROBINS BRIAN G</t>
+          <t>Codispoti Edward H</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3404,37 +3404,37 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>45.46</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="G68" t="n">
-        <v>11667</v>
+        <v>760</v>
       </c>
       <c r="H68" t="n">
-        <v>530382</v>
+        <v>69510</v>
       </c>
       <c r="I68" t="n">
-        <v>293508</v>
+        <v>16929</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Jun 13 06:36 PM</t>
+          <t>Jun 13 07:07 PM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Storm Adam</t>
+          <t>Tong Richard</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Pres. &amp; Chief Product Off.</t>
+          <t>Exec VP and General Counsel</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3448,42 +3448,42 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.51</v>
+        <v>94</v>
       </c>
       <c r="G69" t="n">
-        <v>7803</v>
+        <v>3119</v>
       </c>
       <c r="H69" t="n">
-        <v>11783</v>
+        <v>293186</v>
       </c>
       <c r="I69" t="n">
-        <v>1340214</v>
+        <v>16288</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Jun 13 06:35 PM</t>
+          <t>Jun 13 07:02 PM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>SNAP</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Storm Adam</t>
+          <t>Coles Joanna</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Pres. &amp; Chief Product Off.</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3492,42 +3492,42 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.51</v>
+        <v>15.17</v>
       </c>
       <c r="G70" t="n">
-        <v>3134</v>
+        <v>3950</v>
       </c>
       <c r="H70" t="n">
-        <v>4732</v>
+        <v>59922</v>
       </c>
       <c r="I70" t="n">
-        <v>1337080</v>
+        <v>46492</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Jun 13 06:35 PM</t>
+          <t>Jun 13 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Newstead Jennifer</t>
+          <t>Richison Chad R.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Chief Legal Officer</t>
+          <t>CEO, President and Chairman</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3536,42 +3536,42 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>145.55</v>
       </c>
       <c r="G71" t="n">
-        <v>905</v>
+        <v>1950</v>
       </c>
       <c r="H71" t="n">
-        <v>452500</v>
+        <v>283819</v>
       </c>
       <c r="I71" t="n">
-        <v>40560</v>
+        <v>3058808</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Jun 13 06:33 PM</t>
+          <t>Jun 13 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CLF</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Taylor Douglas C</t>
+          <t>Richison Chad R.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CEO, President and Chairman</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3580,42 +3580,42 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>14.87</v>
+        <v>145.55</v>
       </c>
       <c r="G72" t="n">
-        <v>36000</v>
+        <v>1950</v>
       </c>
       <c r="H72" t="n">
-        <v>535223</v>
+        <v>283819</v>
       </c>
       <c r="I72" t="n">
-        <v>100536</v>
+        <v>3635899</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Jun 13 06:16 PM</t>
+          <t>Jun 13 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>FIBK</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>RIKER LAUREN</t>
+          <t>Scott Jonathan R</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Senior Vice President, Finance</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3624,42 +3624,42 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>28.72</v>
+        <v>25.29</v>
       </c>
       <c r="G73" t="n">
-        <v>3970</v>
+        <v>29499</v>
       </c>
       <c r="H73" t="n">
-        <v>114018</v>
+        <v>746030</v>
       </c>
       <c r="I73" t="n">
-        <v>38075</v>
+        <v>1021663</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Jun 13 06:15 PM</t>
+          <t>Jun 13 06:46 PM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>FIBK</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SLONIN JONATHAN</t>
+          <t>Scott Jonathan R</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Chief Medical Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3668,42 +3668,42 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>28.57</v>
+        <v>26.14</v>
       </c>
       <c r="G74" t="n">
-        <v>5012</v>
+        <v>14403</v>
       </c>
       <c r="H74" t="n">
-        <v>143193</v>
+        <v>376494</v>
       </c>
       <c r="I74" t="n">
-        <v>44569</v>
+        <v>1007260</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Jun 13 06:15 PM</t>
+          <t>Jun 13 06:46 PM</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Young Jonathan</t>
+          <t>Barkidjija John</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>HEAD OF CRE &amp; SPECIALTY FIN</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3715,34 +3715,34 @@
         <v>22.64</v>
       </c>
       <c r="G75" t="n">
-        <v>2516</v>
+        <v>10000</v>
       </c>
       <c r="H75" t="n">
-        <v>56965</v>
+        <v>226420</v>
       </c>
       <c r="I75" t="n">
-        <v>250790</v>
+        <v>30691</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 13 06:44 PM</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>NRIX</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GAUGLER DARYL</t>
+          <t>Ring Christine</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Chief Legal Officer</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3756,42 +3756,42 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>28.38</v>
+        <v>17.02</v>
       </c>
       <c r="G76" t="n">
-        <v>1000</v>
+        <v>1864</v>
       </c>
       <c r="H76" t="n">
-        <v>28380</v>
+        <v>31721</v>
       </c>
       <c r="I76" t="n">
-        <v>116040</v>
+        <v>19838</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 13 06:39 PM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WLDN</t>
+          <t>NXST</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BIEBER MICHAEL A</t>
+          <t>McMillen Charles Thomas</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PRESIDENT AND CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3800,37 +3800,37 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>30.25</v>
+        <v>154.99</v>
       </c>
       <c r="G77" t="n">
-        <v>4464</v>
+        <v>1475</v>
       </c>
       <c r="H77" t="n">
-        <v>135036</v>
+        <v>228610</v>
       </c>
       <c r="I77" t="n">
-        <v>165897</v>
+        <v>8975</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 13 06:38 PM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>WLDN</t>
+          <t>GTLB</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BIEBER MICHAEL A</t>
+          <t>ROBINS BRIAN G</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PRESIDENT AND CEO</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3844,42 +3844,42 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>30.98</v>
+        <v>45.46</v>
       </c>
       <c r="G78" t="n">
-        <v>4394</v>
+        <v>11667</v>
       </c>
       <c r="H78" t="n">
-        <v>136126</v>
+        <v>530382</v>
       </c>
       <c r="I78" t="n">
-        <v>167503</v>
+        <v>293508</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 13 06:36 PM</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>HASTINGS PAUL J</t>
+          <t>Storm Adam</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Pres. &amp; Chief Product Off.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3888,37 +3888,37 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>28.38</v>
+        <v>1.51</v>
       </c>
       <c r="G79" t="n">
-        <v>880</v>
+        <v>7803</v>
       </c>
       <c r="H79" t="n">
-        <v>24974</v>
+        <v>11783</v>
       </c>
       <c r="I79" t="n">
-        <v>12724</v>
+        <v>1340214</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 13 06:35 PM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>WILLIAMS KRISTEN</t>
+          <t>Storm Adam</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Chief Administrative Officer</t>
+          <t>Pres. &amp; Chief Product Off.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3932,42 +3932,42 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>28.38</v>
+        <v>1.51</v>
       </c>
       <c r="G80" t="n">
-        <v>7452</v>
+        <v>3134</v>
       </c>
       <c r="H80" t="n">
-        <v>211488</v>
+        <v>4732</v>
       </c>
       <c r="I80" t="n">
-        <v>102912</v>
+        <v>1337080</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Jun 13 06:12 PM</t>
+          <t>Jun 13 06:35 PM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Smallwood Garrett</t>
+          <t>Newstead Jennifer</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Chief Legal Officer</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3976,42 +3976,42 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.51</v>
+        <v>500</v>
       </c>
       <c r="G81" t="n">
-        <v>7832</v>
+        <v>905</v>
       </c>
       <c r="H81" t="n">
-        <v>11826</v>
+        <v>452500</v>
       </c>
       <c r="I81" t="n">
-        <v>1168213</v>
+        <v>40560</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Jun 13 06:11 PM</t>
+          <t>Jun 13 06:33 PM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>CLF</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Smallwood Garrett</t>
+          <t>Taylor Douglas C</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4020,42 +4020,42 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.51</v>
+        <v>14.87</v>
       </c>
       <c r="G82" t="n">
-        <v>3121</v>
+        <v>36000</v>
       </c>
       <c r="H82" t="n">
-        <v>4713</v>
+        <v>535223</v>
       </c>
       <c r="I82" t="n">
-        <v>1165092</v>
+        <v>100536</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Jun 13 06:11 PM</t>
+          <t>Jun 13 06:16 PM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Yale Catriona</t>
+          <t>RIKER LAUREN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Chief Development Officer</t>
+          <t>Senior Vice President, Finance</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4064,37 +4064,37 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>22.64</v>
+        <v>28.72</v>
       </c>
       <c r="G83" t="n">
-        <v>2825</v>
+        <v>3970</v>
       </c>
       <c r="H83" t="n">
-        <v>63961</v>
+        <v>114018</v>
       </c>
       <c r="I83" t="n">
-        <v>74867</v>
+        <v>38075</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Jun 13 06:11 PM</t>
+          <t>Jun 13 06:15 PM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>White William Richard</t>
+          <t>SLONIN JONATHAN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Chief Medical Officer</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4108,20 +4108,20 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>22.64</v>
+        <v>28.57</v>
       </c>
       <c r="G84" t="n">
-        <v>2831</v>
+        <v>5012</v>
       </c>
       <c r="H84" t="n">
-        <v>64094</v>
+        <v>143193</v>
       </c>
       <c r="I84" t="n">
-        <v>46799</v>
+        <v>44569</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Jun 13 06:09 PM</t>
+          <t>Jun 13 06:15 PM</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Rolph Timothy</t>
+          <t>Young Jonathan</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Chief Scientific Officer</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -4155,39 +4155,39 @@
         <v>22.64</v>
       </c>
       <c r="G85" t="n">
-        <v>2380</v>
+        <v>2516</v>
       </c>
       <c r="H85" t="n">
-        <v>53886</v>
+        <v>56965</v>
       </c>
       <c r="I85" t="n">
-        <v>180178</v>
+        <v>250790</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Jun 13 06:06 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GCT</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lin Frank Hurst</t>
+          <t>GAUGLER DARYL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4196,42 +4196,42 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>33.16</v>
+        <v>28.38</v>
       </c>
       <c r="G86" t="n">
-        <v>175178</v>
+        <v>1000</v>
       </c>
       <c r="H86" t="n">
-        <v>5808750</v>
+        <v>28380</v>
       </c>
       <c r="I86" t="n">
-        <v>5069889</v>
+        <v>116040</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Jun 13 06:06 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GCT</t>
+          <t>WLDN</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lin Frank Hurst</t>
+          <t>BIEBER MICHAEL A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4240,42 +4240,42 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>32.63</v>
+        <v>30.25</v>
       </c>
       <c r="G87" t="n">
-        <v>91781</v>
+        <v>4464</v>
       </c>
       <c r="H87" t="n">
-        <v>2994442</v>
+        <v>135036</v>
       </c>
       <c r="I87" t="n">
-        <v>4978108</v>
+        <v>165897</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Jun 13 06:06 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>WLDN</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Lamy Patrick</t>
+          <t>BIEBER MICHAEL A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Senior VP, Commercial Strategy</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4284,42 +4284,42 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>22.64</v>
+        <v>30.98</v>
       </c>
       <c r="G88" t="n">
-        <v>569</v>
+        <v>4394</v>
       </c>
       <c r="H88" t="n">
-        <v>12883</v>
+        <v>136126</v>
       </c>
       <c r="I88" t="n">
-        <v>18562</v>
+        <v>167503</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Jun 13 06:04 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>OMF</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hedlund Michael A</t>
+          <t>HASTINGS PAUL J</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>pao, SVP and Group Controller</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4328,42 +4328,42 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>48.1</v>
+        <v>28.38</v>
       </c>
       <c r="G89" t="n">
-        <v>3000</v>
+        <v>880</v>
       </c>
       <c r="H89" t="n">
-        <v>144300</v>
+        <v>24974</v>
       </c>
       <c r="I89" t="n">
-        <v>28147</v>
+        <v>12724</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Jun 13 06:02 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cheng Andrew</t>
+          <t>WILLIAMS KRISTEN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Chief Administrative Officer</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4372,20 +4372,20 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>22.64</v>
+        <v>28.38</v>
       </c>
       <c r="G90" t="n">
-        <v>7894</v>
+        <v>7452</v>
       </c>
       <c r="H90" t="n">
-        <v>178728</v>
+        <v>211488</v>
       </c>
       <c r="I90" t="n">
-        <v>581553</v>
+        <v>102912</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Jun 13 06:01 PM</t>
+          <t>Jun 13 06:12 PM</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Allread Dylan</t>
+          <t>Smallwood Garrett</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4416,32 +4416,32 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="G91" t="n">
-        <v>564</v>
+        <v>7832</v>
       </c>
       <c r="H91" t="n">
-        <v>891</v>
+        <v>11826</v>
       </c>
       <c r="I91" t="n">
-        <v>650566</v>
+        <v>1168213</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Jun 13 05:57 PM</t>
+          <t>Jun 13 06:11 PM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AVDX</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Praeger Michael</t>
+          <t>Smallwood Garrett</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4460,37 +4460,37 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>10.85</v>
+        <v>1.51</v>
       </c>
       <c r="G92" t="n">
-        <v>29192</v>
+        <v>3121</v>
       </c>
       <c r="H92" t="n">
-        <v>316675</v>
+        <v>4713</v>
       </c>
       <c r="I92" t="n">
-        <v>10440510</v>
+        <v>1165092</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Jun 13 05:57 PM</t>
+          <t>Jun 13 06:11 PM</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MEHROTRA SANJAY</t>
+          <t>Yale Catriona</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CEO and President</t>
+          <t>Chief Development Officer</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4504,42 +4504,42 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>134.57</v>
+        <v>22.64</v>
       </c>
       <c r="G93" t="n">
-        <v>7000</v>
+        <v>2825</v>
       </c>
       <c r="H93" t="n">
-        <v>941956</v>
+        <v>63961</v>
       </c>
       <c r="I93" t="n">
-        <v>719049</v>
+        <v>74867</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Jun 13 05:54 PM</t>
+          <t>Jun 13 06:11 PM</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MEHROTRA SANJAY</t>
+          <t>White William Richard</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CEO and President</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4548,37 +4548,37 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>140</v>
+        <v>22.64</v>
       </c>
       <c r="G94" t="n">
-        <v>30000</v>
+        <v>2831</v>
       </c>
       <c r="H94" t="n">
-        <v>4200000</v>
+        <v>64094</v>
       </c>
       <c r="I94" t="n">
-        <v>719049</v>
+        <v>46799</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Jun 13 05:54 PM</t>
+          <t>Jun 13 06:09 PM</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kramer Thomas G.</t>
+          <t>Rolph Timothy</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CHIEF FINANCIAL OFFICER</t>
+          <t>Chief Scientific Officer</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4592,42 +4592,42 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>7.89</v>
+        <v>22.64</v>
       </c>
       <c r="G95" t="n">
-        <v>4610</v>
+        <v>2380</v>
       </c>
       <c r="H95" t="n">
-        <v>36357</v>
+        <v>53886</v>
       </c>
       <c r="I95" t="n">
-        <v>949614</v>
+        <v>180178</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Jun 13 05:53 PM</t>
+          <t>Jun 13 06:06 PM</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>GCT</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kramer Thomas G.</t>
+          <t>Lin Frank Hurst</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>CHIEF FINANCIAL OFFICER</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4636,37 +4636,37 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>8.130000000000001</v>
+        <v>33.16</v>
       </c>
       <c r="G96" t="n">
-        <v>4967</v>
+        <v>175178</v>
       </c>
       <c r="H96" t="n">
-        <v>40391</v>
+        <v>5808750</v>
       </c>
       <c r="I96" t="n">
-        <v>944647</v>
+        <v>5069889</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Jun 13 05:53 PM</t>
+          <t>Jun 13 06:06 PM</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FROG</t>
+          <t>GCT</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Landman Yoav</t>
+          <t>Lin Frank Hurst</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CHIEF TECHNOLOGY OFFICER</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4680,37 +4680,37 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>35.28</v>
+        <v>32.63</v>
       </c>
       <c r="G97" t="n">
-        <v>2250</v>
+        <v>91781</v>
       </c>
       <c r="H97" t="n">
-        <v>79380</v>
+        <v>2994442</v>
       </c>
       <c r="I97" t="n">
-        <v>6744892</v>
+        <v>4978108</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Jun 13 05:53 PM</t>
+          <t>Jun 13 06:06 PM</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chapman Peter Hume</t>
+          <t>Lamy Patrick</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>PRESIDENT AND CEO</t>
+          <t>Senior VP, Commercial Strategy</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4724,42 +4724,42 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>7.89</v>
+        <v>22.64</v>
       </c>
       <c r="G98" t="n">
-        <v>5936</v>
+        <v>569</v>
       </c>
       <c r="H98" t="n">
-        <v>46814</v>
+        <v>12883</v>
       </c>
       <c r="I98" t="n">
-        <v>445297</v>
+        <v>18562</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Jun 13 05:52 PM</t>
+          <t>Jun 13 06:04 PM</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>OMF</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Chapman Peter Hume</t>
+          <t>Hedlund Michael A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>PRESIDENT AND CEO</t>
+          <t>pao, SVP and Group Controller</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4768,37 +4768,37 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>8.130000000000001</v>
+        <v>48.1</v>
       </c>
       <c r="G99" t="n">
-        <v>6394</v>
+        <v>3000</v>
       </c>
       <c r="H99" t="n">
-        <v>51995</v>
+        <v>144300</v>
       </c>
       <c r="I99" t="n">
-        <v>438903</v>
+        <v>28147</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Jun 13 05:52 PM</t>
+          <t>Jun 13 06:02 PM</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>STEVENS MARK A</t>
+          <t>Cheng Andrew</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4812,37 +4812,37 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>120.42</v>
+        <v>22.64</v>
       </c>
       <c r="G100" t="n">
-        <v>150000</v>
+        <v>7894</v>
       </c>
       <c r="H100" t="n">
-        <v>18063285</v>
+        <v>178728</v>
       </c>
       <c r="I100" t="n">
-        <v>9846240</v>
+        <v>581553</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Jun 13 05:52 PM</t>
+          <t>Jun 13 06:01 PM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>STEVENS MARK A</t>
+          <t>Allread Dylan</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4856,37 +4856,37 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>125.88</v>
+        <v>1.58</v>
       </c>
       <c r="G101" t="n">
-        <v>320000</v>
+        <v>564</v>
       </c>
       <c r="H101" t="n">
-        <v>40280736</v>
+        <v>891</v>
       </c>
       <c r="I101" t="n">
-        <v>9526240</v>
+        <v>650566</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Jun 13 05:52 PM</t>
+          <t>Jun 13 05:57 PM</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>AVDX</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Alameddine Rima</t>
+          <t>Praeger Michael</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CHIEF REVENUE OFFICER</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4900,42 +4900,42 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>7.89</v>
+        <v>10.85</v>
       </c>
       <c r="G102" t="n">
-        <v>9807</v>
+        <v>29192</v>
       </c>
       <c r="H102" t="n">
-        <v>77343</v>
+        <v>316675</v>
       </c>
       <c r="I102" t="n">
-        <v>687840</v>
+        <v>10440510</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Jun 13 05:51 PM</t>
+          <t>Jun 13 05:57 PM</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Alameddine Rima</t>
+          <t>MEHROTRA SANJAY</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CHIEF REVENUE OFFICER</t>
+          <t>CEO and President</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4944,37 +4944,37 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>8.130000000000001</v>
+        <v>134.57</v>
       </c>
       <c r="G103" t="n">
-        <v>10565</v>
+        <v>7000</v>
       </c>
       <c r="H103" t="n">
-        <v>85914</v>
+        <v>941956</v>
       </c>
       <c r="I103" t="n">
-        <v>677275</v>
+        <v>719049</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Jun 13 05:51 PM</t>
+          <t>Jun 13 05:54 PM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Selleck Erin</t>
+          <t>MEHROTRA SANJAY</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CEO and President</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4988,42 +4988,42 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>8.699999999999999</v>
+        <v>140</v>
       </c>
       <c r="G104" t="n">
-        <v>2677</v>
+        <v>30000</v>
       </c>
       <c r="H104" t="n">
-        <v>23290</v>
+        <v>4200000</v>
       </c>
       <c r="I104" t="n">
-        <v>57248</v>
+        <v>719049</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Jun 13 05:50 PM</t>
+          <t>Jun 13 05:54 PM</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GRANMAYEH LANCE KIAN</t>
+          <t>Kramer Thomas G.</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>EVP, CFO and Treasurer</t>
+          <t>CHIEF FINANCIAL OFFICER</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5032,42 +5032,42 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>29.31</v>
+        <v>7.89</v>
       </c>
       <c r="G105" t="n">
-        <v>3282</v>
+        <v>4610</v>
       </c>
       <c r="H105" t="n">
-        <v>96181</v>
+        <v>36357</v>
       </c>
       <c r="I105" t="n">
-        <v>27880</v>
+        <v>949614</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Jun 13 05:42 PM</t>
+          <t>Jun 13 05:53 PM</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PRI</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Williams Glenn J.</t>
+          <t>Kramer Thomas G.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>CHIEF FINANCIAL OFFICER</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5076,42 +5076,42 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>222.76</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>3000</v>
+        <v>4967</v>
       </c>
       <c r="H106" t="n">
-        <v>668270</v>
+        <v>40391</v>
       </c>
       <c r="I106" t="n">
-        <v>48322</v>
+        <v>944647</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Jun 13 05:38 PM</t>
+          <t>Jun 13 05:53 PM</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RXRX</t>
+          <t>FROG</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Borgeson Blake</t>
+          <t>Landman Yoav</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF TECHNOLOGY OFFICER</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5120,42 +5120,42 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>8.449999999999999</v>
+        <v>35.28</v>
       </c>
       <c r="G107" t="n">
-        <v>11447</v>
+        <v>2250</v>
       </c>
       <c r="H107" t="n">
-        <v>96763</v>
+        <v>79380</v>
       </c>
       <c r="I107" t="n">
-        <v>7188563</v>
+        <v>6744892</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Jun 13 05:36 PM</t>
+          <t>Jun 13 05:53 PM</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Granger Elder</t>
+          <t>Chapman Peter Hume</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5164,42 +5164,42 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>338.08</v>
+        <v>7.89</v>
       </c>
       <c r="G108" t="n">
-        <v>1000</v>
+        <v>5936</v>
       </c>
       <c r="H108" t="n">
-        <v>338080</v>
+        <v>46814</v>
       </c>
       <c r="I108" t="n">
-        <v>5471</v>
+        <v>445297</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Jun 13 05:35 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBCP</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Kirkley David T.</t>
+          <t>Chapman Peter Hume</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SEVP &amp; Chief Financial Officer</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5208,37 +5208,37 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>36.73</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>1180</v>
+        <v>6394</v>
       </c>
       <c r="H109" t="n">
-        <v>43338</v>
+        <v>51995</v>
       </c>
       <c r="I109" t="n">
-        <v>4631</v>
+        <v>438903</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Jun 13 05:34 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MLYS</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Levy Adam Scott</t>
+          <t>STEVENS MARK A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CFO and Secretary</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>12.94</v>
+        <v>120.42</v>
       </c>
       <c r="G110" t="n">
-        <v>96815</v>
+        <v>150000</v>
       </c>
       <c r="H110" t="n">
-        <v>1252718</v>
+        <v>18063285</v>
       </c>
       <c r="I110" t="n">
-        <v>255462</v>
+        <v>9846240</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Jun 13 05:33 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SGRY</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Burkhalter Danielle</t>
+          <t>STEVENS MARK A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Chief Human Resources Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5296,37 +5296,37 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>26.39</v>
+        <v>125.88</v>
       </c>
       <c r="G111" t="n">
-        <v>6000</v>
+        <v>320000</v>
       </c>
       <c r="H111" t="n">
-        <v>158310</v>
+        <v>40280736</v>
       </c>
       <c r="I111" t="n">
-        <v>30354</v>
+        <v>9526240</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Jun 13 05:31 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DFIN</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Johnson Eric J</t>
+          <t>Alameddine Rima</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>President, GIC</t>
+          <t>CHIEF REVENUE OFFICER</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -5340,37 +5340,37 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>58.34</v>
+        <v>7.89</v>
       </c>
       <c r="G112" t="n">
-        <v>16757</v>
+        <v>9807</v>
       </c>
       <c r="H112" t="n">
-        <v>977630</v>
+        <v>77343</v>
       </c>
       <c r="I112" t="n">
-        <v>138338</v>
+        <v>687840</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Jun 13 05:31 PM</t>
+          <t>Jun 13 05:51 PM</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DFIN</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Johnson Eric J</t>
+          <t>Alameddine Rima</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>President, GIC</t>
+          <t>CHIEF REVENUE OFFICER</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -5384,37 +5384,37 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>59.25</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>5329</v>
+        <v>10565</v>
       </c>
       <c r="H113" t="n">
-        <v>315720</v>
+        <v>85914</v>
       </c>
       <c r="I113" t="n">
-        <v>133009</v>
+        <v>677275</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Jun 13 05:31 PM</t>
+          <t>Jun 13 05:51 PM</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RDNT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Forthuber Stephen M</t>
+          <t>Selleck Erin</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Pres &amp; COO-Eastern Operations</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5428,42 +5428,42 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>62.33</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G114" t="n">
-        <v>40000</v>
+        <v>2677</v>
       </c>
       <c r="H114" t="n">
-        <v>2493200</v>
+        <v>23290</v>
       </c>
       <c r="I114" t="n">
-        <v>523561</v>
+        <v>57248</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Jun 13 05:30 PM</t>
+          <t>Jun 13 05:50 PM</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>RDNT</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Sorensen Alma Gregory</t>
+          <t>GRANMAYEH LANCE KIAN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EVP, Chief Science Officer</t>
+          <t>EVP, CFO and Treasurer</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5472,42 +5472,42 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>61.24</v>
+        <v>29.31</v>
       </c>
       <c r="G115" t="n">
-        <v>5000</v>
+        <v>3282</v>
       </c>
       <c r="H115" t="n">
-        <v>306200</v>
+        <v>96181</v>
       </c>
       <c r="I115" t="n">
-        <v>1249205</v>
+        <v>27880</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Jun 13 05:30 PM</t>
+          <t>Jun 13 05:42 PM</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>RDNT</t>
+          <t>PRI</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Sorensen Alma Gregory</t>
+          <t>Williams Glenn J.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EVP, Chief Science Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5516,37 +5516,37 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>62.34</v>
+        <v>222.76</v>
       </c>
       <c r="G116" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="H116" t="n">
-        <v>623400</v>
+        <v>668270</v>
       </c>
       <c r="I116" t="n">
-        <v>1239205</v>
+        <v>48322</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Jun 13 05:30 PM</t>
+          <t>Jun 13 05:38 PM</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EXFY</t>
+          <t>RXRX</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Barrett David Michael</t>
+          <t>Borgeson Blake</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5560,37 +5560,37 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.4</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>17496</v>
+        <v>11447</v>
       </c>
       <c r="H117" t="n">
-        <v>24494</v>
+        <v>96763</v>
       </c>
       <c r="I117" t="n">
-        <v>612477</v>
+        <v>7188563</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Jun 13 05:28 PM</t>
+          <t>Jun 13 05:36 PM</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EXFY</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Barrett David Michael</t>
+          <t>Granger Elder</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5604,37 +5604,37 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.45</v>
+        <v>338.08</v>
       </c>
       <c r="G118" t="n">
-        <v>16970</v>
+        <v>1000</v>
       </c>
       <c r="H118" t="n">
-        <v>24606</v>
+        <v>338080</v>
       </c>
       <c r="I118" t="n">
-        <v>595507</v>
+        <v>5471</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Jun 13 05:28 PM</t>
+          <t>Jun 13 05:35 PM</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EXFY</t>
+          <t>HBCP</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Barrett David Michael</t>
+          <t>Kirkley David T.</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>SEVP &amp; Chief Financial Officer</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -5648,42 +5648,42 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1.4</v>
+        <v>36.73</v>
       </c>
       <c r="G119" t="n">
-        <v>18500</v>
+        <v>1180</v>
       </c>
       <c r="H119" t="n">
-        <v>25900</v>
+        <v>43338</v>
       </c>
       <c r="I119" t="n">
-        <v>577007</v>
+        <v>4631</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Jun 13 05:28 PM</t>
+          <t>Jun 13 05:34 PM</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>WRBY</t>
+          <t>MLYS</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Miller Steven Clive</t>
+          <t>Levy Adam Scott</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>CFO and Secretary</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5692,42 +5692,42 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>16.61</v>
+        <v>12.94</v>
       </c>
       <c r="G120" t="n">
-        <v>99816</v>
+        <v>96815</v>
       </c>
       <c r="H120" t="n">
-        <v>1657944</v>
+        <v>1252718</v>
       </c>
       <c r="I120" t="n">
-        <v>173012</v>
+        <v>255462</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Jun 13 05:26 PM</t>
+          <t>Jun 13 05:33 PM</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WRBY</t>
+          <t>SGRY</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Miller Steven Clive</t>
+          <t>Burkhalter Danielle</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Chief Human Resources Officer</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5736,42 +5736,42 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>16.59</v>
+        <v>26.39</v>
       </c>
       <c r="G121" t="n">
-        <v>9394</v>
+        <v>6000</v>
       </c>
       <c r="H121" t="n">
-        <v>155846</v>
+        <v>158310</v>
       </c>
       <c r="I121" t="n">
-        <v>173012</v>
+        <v>30354</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Jun 13 05:26 PM</t>
+          <t>Jun 13 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PUMP</t>
+          <t>DFIN</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Vion Michele</t>
+          <t>Johnson Eric J</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President, GIC</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5780,42 +5780,42 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>9.210000000000001</v>
+        <v>58.34</v>
       </c>
       <c r="G122" t="n">
-        <v>7778</v>
+        <v>16757</v>
       </c>
       <c r="H122" t="n">
-        <v>71635</v>
+        <v>977630</v>
       </c>
       <c r="I122" t="n">
-        <v>39006</v>
+        <v>138338</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Jun 13 05:25 PM</t>
+          <t>Jun 13 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>DFIN</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Seshadri Raj</t>
+          <t>Johnson Eric J</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Chief Commercial Pmts Officer</t>
+          <t>President, GIC</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5824,37 +5824,37 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>447.84</v>
+        <v>59.25</v>
       </c>
       <c r="G123" t="n">
-        <v>3464</v>
+        <v>5329</v>
       </c>
       <c r="H123" t="n">
-        <v>1551318</v>
+        <v>315720</v>
       </c>
       <c r="I123" t="n">
-        <v>13736</v>
+        <v>133009</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Jun 13 05:23 PM</t>
+          <t>Jun 13 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>RDNT</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Seshadri Raj</t>
+          <t>Forthuber Stephen M</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Chief Commercial Pmts Officer</t>
+          <t>Pres &amp; COO-Eastern Operations</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5868,37 +5868,37 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>451.49</v>
+        <v>62.33</v>
       </c>
       <c r="G124" t="n">
-        <v>3458</v>
+        <v>40000</v>
       </c>
       <c r="H124" t="n">
-        <v>1561252</v>
+        <v>2493200</v>
       </c>
       <c r="I124" t="n">
-        <v>13736</v>
+        <v>523561</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Jun 13 05:23 PM</t>
+          <t>Jun 13 05:30 PM</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CRVL</t>
+          <t>RDNT</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MICHAEL JEFFREY J</t>
+          <t>Sorensen Alma Gregory</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>EVP, Chief Science Officer</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5912,37 +5912,37 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>232.45</v>
+        <v>61.24</v>
       </c>
       <c r="G125" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H125" t="n">
-        <v>697338</v>
+        <v>306200</v>
       </c>
       <c r="I125" t="n">
-        <v>192929</v>
+        <v>1249205</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Jun 13 05:21 PM</t>
+          <t>Jun 13 05:30 PM</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SCCO</t>
+          <t>RDNT</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PALOMINO BONILLA LUIS MIGUEL</t>
+          <t>Sorensen Alma Gregory</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>EVP, Chief Science Officer</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5956,37 +5956,37 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>110</v>
+        <v>62.34</v>
       </c>
       <c r="G126" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="H126" t="n">
-        <v>11000</v>
+        <v>623400</v>
       </c>
       <c r="I126" t="n">
-        <v>2114</v>
+        <v>1239205</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Jun 13 05:17 PM</t>
+          <t>Jun 13 05:30 PM</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>EXFY</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Cunningham Paul</t>
+          <t>Barrett David Michael</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sr. Vice President</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6000,42 +6000,42 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>295</v>
+        <v>1.4</v>
       </c>
       <c r="G127" t="n">
-        <v>650</v>
+        <v>17496</v>
       </c>
       <c r="H127" t="n">
-        <v>191750</v>
+        <v>24494</v>
       </c>
       <c r="I127" t="n">
-        <v>66494</v>
+        <v>612477</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Jun 13 05:10 PM</t>
+          <t>Jun 13 05:28 PM</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SMAR</t>
+          <t>EXFY</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Branstetter Stephen Robert</t>
+          <t>Barrett David Michael</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6044,42 +6044,42 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>43.91</v>
+        <v>1.45</v>
       </c>
       <c r="G128" t="n">
-        <v>4174</v>
+        <v>16970</v>
       </c>
       <c r="H128" t="n">
-        <v>183280</v>
+        <v>24606</v>
       </c>
       <c r="I128" t="n">
-        <v>68067</v>
+        <v>595507</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Jun 13 05:05 PM</t>
+          <t>Jun 13 05:28 PM</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SQSP</t>
+          <t>EXFY</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Gubbay Paul</t>
+          <t>Barrett David Michael</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Chief Product Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6088,37 +6088,37 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>43.82</v>
+        <v>1.4</v>
       </c>
       <c r="G129" t="n">
-        <v>2500</v>
+        <v>18500</v>
       </c>
       <c r="H129" t="n">
-        <v>109550</v>
+        <v>25900</v>
       </c>
       <c r="I129" t="n">
-        <v>42486</v>
+        <v>577007</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Jun 13 05:02 PM</t>
+          <t>Jun 13 05:28 PM</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IESC</t>
+          <t>WRBY</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GENDELL JEFFREY L ET AL</t>
+          <t>Miller Steven Clive</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -6132,42 +6132,42 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>133.18</v>
+        <v>16.61</v>
       </c>
       <c r="G130" t="n">
-        <v>25000</v>
+        <v>99816</v>
       </c>
       <c r="H130" t="n">
-        <v>3329389</v>
+        <v>1657944</v>
       </c>
       <c r="I130" t="n">
-        <v>11184845</v>
+        <v>173012</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Jun 13 05:00 PM</t>
+          <t>Jun 13 05:26 PM</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MRTN</t>
+          <t>WRBY</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Petit Douglas Paul</t>
+          <t>Miller Steven Clive</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6176,42 +6176,42 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>18.22</v>
+        <v>16.59</v>
       </c>
       <c r="G131" t="n">
-        <v>4500</v>
+        <v>9394</v>
       </c>
       <c r="H131" t="n">
-        <v>81999</v>
+        <v>155846</v>
       </c>
       <c r="I131" t="n">
-        <v>31600</v>
+        <v>173012</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Jun 13 04:59 PM</t>
+          <t>Jun 13 05:26 PM</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>UFPI</t>
+          <t>PUMP</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Benton Patrick M.</t>
+          <t>Vion Michele</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Pres, UFP Construction, LLC</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -6220,37 +6220,37 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>115.27</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G132" t="n">
-        <v>11725</v>
+        <v>7778</v>
       </c>
       <c r="H132" t="n">
-        <v>1351541</v>
+        <v>71635</v>
       </c>
       <c r="I132" t="n">
-        <v>97729</v>
+        <v>39006</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Jun 13 04:53 PM</t>
+          <t>Jun 13 05:25 PM</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>WLDN</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Forager Fund, L.P.</t>
+          <t>Seshadri Raj</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Chief Commercial Pmts Officer</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -6264,37 +6264,37 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>30.23</v>
+        <v>447.84</v>
       </c>
       <c r="G133" t="n">
-        <v>10000</v>
+        <v>3464</v>
       </c>
       <c r="H133" t="n">
-        <v>302324</v>
+        <v>1551318</v>
       </c>
       <c r="I133" t="n">
-        <v>1465837</v>
+        <v>13736</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Jun 13 04:51 PM</t>
+          <t>Jun 13 05:23 PM</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>WLDN</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Forager Fund, L.P.</t>
+          <t>Seshadri Raj</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Chief Commercial Pmts Officer</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -6308,284 +6308,20 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>31.31</v>
+        <v>451.49</v>
       </c>
       <c r="G134" t="n">
-        <v>7941</v>
+        <v>3458</v>
       </c>
       <c r="H134" t="n">
-        <v>248641</v>
+        <v>1561252</v>
       </c>
       <c r="I134" t="n">
-        <v>1457896</v>
+        <v>13736</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Jun 13 04:51 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>WLDN</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Forager Fund, L.P.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>10% Owner</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Jun 13</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>30.57</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1100</v>
-      </c>
-      <c r="H135" t="n">
-        <v>33622</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1456796</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Jun 13 04:51 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>LFST</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Mullins Kevin Michael</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Chief Development Officer</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="G136" t="n">
-        <v>85093</v>
-      </c>
-      <c r="H136" t="n">
-        <v>470564</v>
-      </c>
-      <c r="I136" t="n">
-        <v>4650571</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Jun 13 04:48 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>AVT</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Arnold Ken E.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>SVP, Chief People Officer</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>54.34</v>
-      </c>
-      <c r="G137" t="n">
-        <v>8000</v>
-      </c>
-      <c r="H137" t="n">
-        <v>434720</v>
-      </c>
-      <c r="I137" t="n">
-        <v>40239</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Jun 13 04:48 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Niklason Laura E</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>President, CEO and Director</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="G138" t="n">
-        <v>358630</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2537943</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4830658</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Jun 13 04:48 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>HUMA</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Niklason Laura E</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>President, CEO and Director</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G139" t="n">
-        <v>271518</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1982081</v>
-      </c>
-      <c r="I139" t="n">
-        <v>4559140</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Jun 13 04:48 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>DKS</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>COLOMBO WILLIAM J</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>215.64</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1</v>
-      </c>
-      <c r="H140" t="n">
-        <v>154</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Jun 13 04:47 PM</t>
+          <t>Jun 13 05:23 PM</t>
         </is>
       </c>
     </row>

--- a/salidas/latest-insiders-trading-Sale.xlsx
+++ b/salidas/latest-insiders-trading-Sale.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>RBA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flannelly Barry P</t>
+          <t>Watt Darren Jeffrey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EVP &amp; General Manager US</t>
+          <t>Chief Legal Officer</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,42 +500,42 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>80.66</v>
       </c>
       <c r="G2" t="n">
-        <v>19164</v>
+        <v>3637</v>
       </c>
       <c r="H2" t="n">
-        <v>1149840</v>
+        <v>293365</v>
       </c>
       <c r="I2" t="n">
-        <v>66377</v>
+        <v>17279</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 14 12:17 PM</t>
+          <t>Jun 14 02:41 PM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>IBCP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mastercard Foundation</t>
+          <t>Keller Christina</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,37 +544,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>442.03</v>
+        <v>23.62</v>
       </c>
       <c r="G3" t="n">
-        <v>112000</v>
+        <v>2400</v>
       </c>
       <c r="H3" t="n">
-        <v>49507136</v>
+        <v>56688</v>
       </c>
       <c r="I3" t="n">
-        <v>93114308</v>
+        <v>6563</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jun 14 12:11 PM</t>
+          <t>Jun 14 02:30 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OSIS</t>
+          <t>UNF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chandra Shalabh</t>
+          <t>Levenstein Cecelia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRES., SPACELABS HEALTHCARE</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -588,32 +588,32 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>139.5</v>
+        <v>155.76</v>
       </c>
       <c r="G4" t="n">
-        <v>676</v>
+        <v>5500</v>
       </c>
       <c r="H4" t="n">
-        <v>94302</v>
+        <v>856680</v>
       </c>
       <c r="I4" t="n">
-        <v>8192</v>
+        <v>68058</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jun 14 11:00 AM</t>
+          <t>Jun 14 02:19 PM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PKOH</t>
+          <t>SMBC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ROMNEY RONNA</t>
+          <t>Young William E</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -632,42 +632,42 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>24.3</v>
+        <v>41.76</v>
       </c>
       <c r="G5" t="n">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="H5" t="n">
-        <v>121484</v>
+        <v>626462</v>
       </c>
       <c r="I5" t="n">
-        <v>30995</v>
+        <v>224417</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jun 14 10:28 AM</t>
+          <t>Jun 14 01:53 PM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MIDD</t>
+          <t>BIO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Palisi Chapin Sarah</t>
+          <t>Crowley Michael</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>EVP, GBL Commercial Operations</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -676,42 +676,42 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>128.38</v>
+        <v>281.91</v>
       </c>
       <c r="G6" t="n">
-        <v>150</v>
+        <v>369</v>
       </c>
       <c r="H6" t="n">
-        <v>19257</v>
+        <v>104023</v>
       </c>
       <c r="I6" t="n">
-        <v>7061</v>
+        <v>6573</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jun 14 10:19 AM</t>
+          <t>Jun 14 01:42 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>INCY</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carey Charles P</t>
+          <t>Flannelly Barry P</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>EVP &amp; General Manager US</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -720,42 +720,42 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>195.44</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
-        <v>3000</v>
+        <v>19164</v>
       </c>
       <c r="H7" t="n">
-        <v>586320</v>
+        <v>1149840</v>
       </c>
       <c r="I7" t="n">
-        <v>7163</v>
+        <v>66377</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Jun 14 10:19 AM</t>
+          <t>Jun 14 12:17 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CWAN</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Das Souvik</t>
+          <t>Mastercard Foundation</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Chief Technology Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,37 +764,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>19.96</v>
+        <v>442.03</v>
       </c>
       <c r="G8" t="n">
-        <v>50000</v>
+        <v>112000</v>
       </c>
       <c r="H8" t="n">
-        <v>998230</v>
+        <v>49507136</v>
       </c>
       <c r="I8" t="n">
-        <v>33142</v>
+        <v>93114308</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jun 14 10:09 AM</t>
+          <t>Jun 14 12:11 PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FRPH</t>
+          <t>OSIS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MILTON JOHN D JR</t>
+          <t>Chandra Shalabh</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Executive Vice President</t>
+          <t>PRES., SPACELABS HEALTHCARE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -808,42 +808,42 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>30.4</v>
+        <v>139.5</v>
       </c>
       <c r="G9" t="n">
-        <v>1500</v>
+        <v>676</v>
       </c>
       <c r="H9" t="n">
-        <v>45600</v>
+        <v>94302</v>
       </c>
       <c r="I9" t="n">
-        <v>960</v>
+        <v>8192</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Jun 14 09:53 AM</t>
+          <t>Jun 14 11:00 AM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KMT</t>
+          <t>PKOH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Witt John Wayne</t>
+          <t>ROMNEY RONNA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vice President</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,42 +852,42 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>24.37</v>
+        <v>24.3</v>
       </c>
       <c r="G10" t="n">
-        <v>579</v>
+        <v>5000</v>
       </c>
       <c r="H10" t="n">
-        <v>14111</v>
+        <v>121484</v>
       </c>
       <c r="I10" t="n">
-        <v>764</v>
+        <v>30995</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jun 14 09:40 AM</t>
+          <t>Jun 14 10:28 AM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ALTR</t>
+          <t>MIDD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gayle Brian</t>
+          <t>Palisi Chapin Sarah</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Chief Accounting Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -896,37 +896,37 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>96.56999999999999</v>
+        <v>128.38</v>
       </c>
       <c r="G11" t="n">
-        <v>1866</v>
+        <v>150</v>
       </c>
       <c r="H11" t="n">
-        <v>180200</v>
+        <v>19257</v>
       </c>
       <c r="I11" t="n">
-        <v>16557</v>
+        <v>7061</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Jun 14 09:03 AM</t>
+          <t>Jun 14 10:19 AM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Qatar Investment Authority</t>
+          <t>Carey Charles P</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Director by deputization</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -940,42 +940,42 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6.78</v>
+        <v>195.44</v>
       </c>
       <c r="G12" t="n">
-        <v>19840073</v>
+        <v>3000</v>
       </c>
       <c r="H12" t="n">
-        <v>134515695</v>
+        <v>586320</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7163</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Jun 14 07:41 AM</t>
+          <t>Jun 14 10:19 AM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LSEA</t>
+          <t>CWAN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FRANK BRUCE D</t>
+          <t>Das Souvik</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Technology Officer</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jun 04</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -984,37 +984,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9.699999999999999</v>
+        <v>19.96</v>
       </c>
       <c r="G13" t="n">
-        <v>11671</v>
+        <v>50000</v>
       </c>
       <c r="H13" t="n">
-        <v>113209</v>
+        <v>998230</v>
       </c>
       <c r="I13" t="n">
-        <v>40752</v>
+        <v>33142</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jun 13 09:45 PM</t>
+          <t>Jun 14 10:09 AM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LSEA</t>
+          <t>FRPH</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FRANK BRUCE D</t>
+          <t>MILTON JOHN D JR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Executive Vice President</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1028,42 +1028,42 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10.21</v>
+        <v>30.4</v>
       </c>
       <c r="G14" t="n">
-        <v>5491</v>
+        <v>1500</v>
       </c>
       <c r="H14" t="n">
-        <v>56063</v>
+        <v>45600</v>
       </c>
       <c r="I14" t="n">
-        <v>35261</v>
+        <v>960</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 13 09:45 PM</t>
+          <t>Jun 14 09:53 AM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DYN</t>
+          <t>KMT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HIGH SUSANNA GATTI</t>
+          <t>Witt John Wayne</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Vice President</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1072,37 +1072,37 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>33.36</v>
+        <v>24.37</v>
       </c>
       <c r="G15" t="n">
-        <v>40000</v>
+        <v>579</v>
       </c>
       <c r="H15" t="n">
-        <v>1334201</v>
+        <v>14111</v>
       </c>
       <c r="I15" t="n">
-        <v>148792</v>
+        <v>764</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Jun 13 09:45 PM</t>
+          <t>Jun 14 09:40 AM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>ALTR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Andreessen Marc L</t>
+          <t>Gayle Brian</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Accounting Officer</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1116,37 +1116,37 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>28.88</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>277484</v>
+        <v>1866</v>
       </c>
       <c r="H16" t="n">
-        <v>8013382</v>
+        <v>180200</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>16557</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jun 13 09:43 PM</t>
+          <t>Jun 14 09:03 AM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>SOFI</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Andreessen Horowitz LSV Fund I</t>
+          <t>Qatar Investment Authority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director by deputization</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1160,42 +1160,42 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>28.88</v>
+        <v>6.78</v>
       </c>
       <c r="G17" t="n">
-        <v>277484</v>
+        <v>19840073</v>
       </c>
       <c r="H17" t="n">
-        <v>8013382</v>
+        <v>134515695</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 13 09:38 PM</t>
+          <t>Jun 14 07:41 AM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>LSEA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AH Parallel Fund IV, L.P.</t>
+          <t>FRANK BRUCE D</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 04</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,42 +1204,42 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>28.88</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>277484</v>
+        <v>11671</v>
       </c>
       <c r="H18" t="n">
-        <v>8013382</v>
+        <v>113209</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>40752</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jun 13 09:37 PM</t>
+          <t>Jun 13 09:45 PM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>LSEA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Andreessen Horowitz LSV Fund I</t>
+          <t>FRANK BRUCE D</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1248,42 +1248,42 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>28.88</v>
+        <v>10.21</v>
       </c>
       <c r="G19" t="n">
-        <v>277484</v>
+        <v>5491</v>
       </c>
       <c r="H19" t="n">
-        <v>8013382</v>
+        <v>56063</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>35261</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jun 13 09:36 PM</t>
+          <t>Jun 13 09:45 PM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>DYN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O CONNOR KEVIN J</t>
+          <t>HIGH SUSANNA GATTI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,32 +1292,32 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>65.76000000000001</v>
+        <v>33.36</v>
       </c>
       <c r="G20" t="n">
-        <v>5128</v>
+        <v>40000</v>
       </c>
       <c r="H20" t="n">
-        <v>337217</v>
+        <v>1334201</v>
       </c>
       <c r="I20" t="n">
-        <v>1473799</v>
+        <v>148792</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 13 09:33 PM</t>
+          <t>Jun 13 09:45 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>O CONNOR KEVIN J</t>
+          <t>Andreessen Marc L</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1336,37 +1336,37 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>66.70999999999999</v>
+        <v>28.88</v>
       </c>
       <c r="G21" t="n">
-        <v>5128</v>
+        <v>277484</v>
       </c>
       <c r="H21" t="n">
-        <v>342089</v>
+        <v>8013382</v>
       </c>
       <c r="I21" t="n">
-        <v>1468671</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 13 09:33 PM</t>
+          <t>Jun 13 09:43 PM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O CONNOR KEVIN J</t>
+          <t>Andreessen Horowitz LSV Fund I</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1380,42 +1380,42 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>67.06999999999999</v>
+        <v>28.88</v>
       </c>
       <c r="G22" t="n">
-        <v>5128</v>
+        <v>277484</v>
       </c>
       <c r="H22" t="n">
-        <v>343935</v>
+        <v>8013382</v>
       </c>
       <c r="I22" t="n">
-        <v>1463543</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jun 13 09:33 PM</t>
+          <t>Jun 13 09:38 PM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VIDERGAUZ MARK</t>
+          <t>AH Parallel Fund IV, L.P.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1424,42 +1424,42 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>51.85</v>
+        <v>28.88</v>
       </c>
       <c r="G23" t="n">
-        <v>15077</v>
+        <v>277484</v>
       </c>
       <c r="H23" t="n">
-        <v>781801</v>
+        <v>8013382</v>
       </c>
       <c r="I23" t="n">
-        <v>68167</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 13 09:20 PM</t>
+          <t>Jun 13 09:37 PM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>IOT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Stein Kevin M</t>
+          <t>Andreessen Horowitz LSV Fund I</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1468,32 +1468,32 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1308.52</v>
+        <v>28.88</v>
       </c>
       <c r="G24" t="n">
-        <v>10000</v>
+        <v>277484</v>
       </c>
       <c r="H24" t="n">
-        <v>13085187</v>
+        <v>8013382</v>
       </c>
       <c r="I24" t="n">
-        <v>8158</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jun 13 09:20 PM</t>
+          <t>Jun 13 09:36 PM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>PCOR</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HALL MARK J</t>
+          <t>O CONNOR KEVIN J</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1512,42 +1512,42 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>53</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>235908</v>
+        <v>5128</v>
       </c>
       <c r="H25" t="n">
-        <v>12503124</v>
+        <v>337217</v>
       </c>
       <c r="I25" t="n">
-        <v>296846</v>
+        <v>1473799</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 13 09:20 PM</t>
+          <t>Jun 13 09:33 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>PCOR</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SCHLOSBERG HILTON H</t>
+          <t>O CONNOR KEVIN J</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Vice Chairman and Co-CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,42 +1556,42 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>53</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>42144</v>
+        <v>5128</v>
       </c>
       <c r="H26" t="n">
-        <v>2233632</v>
+        <v>342089</v>
       </c>
       <c r="I26" t="n">
-        <v>1875558</v>
+        <v>1468671</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 13 09:19 PM</t>
+          <t>Jun 13 09:33 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>PCOR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SCHLOSBERG HILTON H</t>
+          <t>O CONNOR KEVIN J</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Vice Chairman and Co-CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1600,20 +1600,20 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>53</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>331231</v>
+        <v>5128</v>
       </c>
       <c r="H27" t="n">
-        <v>17555243</v>
+        <v>343935</v>
       </c>
       <c r="I27" t="n">
-        <v>43618</v>
+        <v>1463543</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 13 09:19 PM</t>
+          <t>Jun 13 09:33 PM</t>
         </is>
       </c>
     </row>
@@ -1625,12 +1625,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SACKS RODNEY C</t>
+          <t>VIDERGAUZ MARK</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Chairman and Co-CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1644,42 +1644,42 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>53</v>
+        <v>51.85</v>
       </c>
       <c r="G28" t="n">
-        <v>78679</v>
+        <v>15077</v>
       </c>
       <c r="H28" t="n">
-        <v>4169987</v>
+        <v>781801</v>
       </c>
       <c r="I28" t="n">
-        <v>387310</v>
+        <v>68167</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 13 09:18 PM</t>
+          <t>Jun 13 09:20 PM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SACKS RODNEY C</t>
+          <t>Stein Kevin M</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Chairman and Co-CEO</t>
+          <t>President &amp; CEO</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1688,42 +1688,42 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>53</v>
+        <v>1308.52</v>
       </c>
       <c r="G29" t="n">
-        <v>331231</v>
+        <v>10000</v>
       </c>
       <c r="H29" t="n">
-        <v>17555243</v>
+        <v>13085187</v>
       </c>
       <c r="I29" t="n">
-        <v>43618</v>
+        <v>8158</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jun 13 09:18 PM</t>
+          <t>Jun 13 09:20 PM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EXPI</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sanford Glenn Darrel</t>
+          <t>HALL MARK J</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CEO and Chairman of the Board</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1732,42 +1732,42 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>12.02</v>
+        <v>53</v>
       </c>
       <c r="G30" t="n">
-        <v>1005</v>
+        <v>235908</v>
       </c>
       <c r="H30" t="n">
-        <v>12085</v>
+        <v>12503124</v>
       </c>
       <c r="I30" t="n">
-        <v>41512388</v>
+        <v>296846</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Jun 13 09:11 PM</t>
+          <t>Jun 13 09:20 PM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EXPI</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sanford Glenn Darrel</t>
+          <t>SCHLOSBERG HILTON H</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CEO and Chairman of the Board</t>
+          <t>Vice Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1776,42 +1776,42 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>11.02</v>
+        <v>53</v>
       </c>
       <c r="G31" t="n">
-        <v>25000</v>
+        <v>42144</v>
       </c>
       <c r="H31" t="n">
-        <v>275585</v>
+        <v>2233632</v>
       </c>
       <c r="I31" t="n">
-        <v>41487388</v>
+        <v>1875558</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Jun 13 09:11 PM</t>
+          <t>Jun 13 09:19 PM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DEUTSCHE TELEKOM AG</t>
+          <t>SCHLOSBERG HILTON H</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Vice Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1820,42 +1820,42 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>173.1</v>
+        <v>53</v>
       </c>
       <c r="G32" t="n">
-        <v>133461</v>
+        <v>331231</v>
       </c>
       <c r="H32" t="n">
-        <v>23102139</v>
+        <v>17555243</v>
       </c>
       <c r="I32" t="n">
-        <v>671752404</v>
+        <v>43618</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Jun 13 09:00 PM</t>
+          <t>Jun 13 09:19 PM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DEUTSCHE TELEKOM AG</t>
+          <t>SACKS RODNEY C</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1864,42 +1864,42 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>174.53</v>
+        <v>53</v>
       </c>
       <c r="G33" t="n">
-        <v>137002</v>
+        <v>78679</v>
       </c>
       <c r="H33" t="n">
-        <v>23910493</v>
+        <v>4169987</v>
       </c>
       <c r="I33" t="n">
-        <v>671615402</v>
+        <v>387310</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Jun 13 09:00 PM</t>
+          <t>Jun 13 09:18 PM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>O'Brien MaryJo</t>
+          <t>SACKS RODNEY C</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Ex VP, Chief Admin &amp; Secretary</t>
+          <t>Chairman and Co-CEO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>May 14</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1908,37 +1908,37 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>94.06</v>
+        <v>53</v>
       </c>
       <c r="G34" t="n">
-        <v>19</v>
+        <v>331231</v>
       </c>
       <c r="H34" t="n">
-        <v>1787</v>
+        <v>17555243</v>
       </c>
       <c r="I34" t="n">
-        <v>65686</v>
+        <v>43618</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Jun 13 08:57 PM</t>
+          <t>Jun 13 09:18 PM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>EXPI</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>O'Brien MaryJo</t>
+          <t>Sanford Glenn Darrel</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ex VP, Chief Admin &amp; Secretary</t>
+          <t>CEO and Chairman of the Board</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1952,42 +1952,42 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>94.06</v>
+        <v>12.02</v>
       </c>
       <c r="G35" t="n">
-        <v>1129</v>
+        <v>1005</v>
       </c>
       <c r="H35" t="n">
-        <v>106194</v>
+        <v>12085</v>
       </c>
       <c r="I35" t="n">
-        <v>64557</v>
+        <v>41512388</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Jun 13 08:57 PM</t>
+          <t>Jun 13 09:11 PM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>EXPI</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tan Kwang Hooi</t>
+          <t>Sanford Glenn Darrel</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Group President</t>
+          <t>CEO and Chairman of the Board</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1996,37 +1996,37 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>32.13</v>
+        <v>11.02</v>
       </c>
       <c r="G36" t="n">
-        <v>11570</v>
+        <v>25000</v>
       </c>
       <c r="H36" t="n">
-        <v>371766</v>
+        <v>275585</v>
       </c>
       <c r="I36" t="n">
-        <v>160976</v>
+        <v>41487388</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Jun 13 08:38 PM</t>
+          <t>Jun 13 09:11 PM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OFFER DAVID SCOTT</t>
+          <t>DEUTSCHE TELEKOM AG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EVP, General Counsel</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2040,42 +2040,42 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>32.13</v>
+        <v>173.1</v>
       </c>
       <c r="G37" t="n">
-        <v>27714</v>
+        <v>133461</v>
       </c>
       <c r="H37" t="n">
-        <v>890440</v>
+        <v>23102139</v>
       </c>
       <c r="I37" t="n">
-        <v>150230</v>
+        <v>671752404</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Jun 13 08:37 PM</t>
+          <t>Jun 13 09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lundstrom Paul</t>
+          <t>DEUTSCHE TELEKOM AG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2084,42 +2084,42 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>32.13</v>
+        <v>174.53</v>
       </c>
       <c r="G38" t="n">
-        <v>29041</v>
+        <v>137002</v>
       </c>
       <c r="H38" t="n">
-        <v>933099</v>
+        <v>23910493</v>
       </c>
       <c r="I38" t="n">
-        <v>316130</v>
+        <v>671615402</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Jun 13 08:36 PM</t>
+          <t>Jun 13 09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hartung Michael P</t>
+          <t>O'Brien MaryJo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Group President</t>
+          <t>Ex VP, Chief Admin &amp; Secretary</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>May 14</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2128,37 +2128,37 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>32.13</v>
+        <v>94.06</v>
       </c>
       <c r="G39" t="n">
-        <v>25525</v>
+        <v>19</v>
       </c>
       <c r="H39" t="n">
-        <v>820134</v>
+        <v>1787</v>
       </c>
       <c r="I39" t="n">
-        <v>188844</v>
+        <v>65686</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Jun 13 08:35 PM</t>
+          <t>Jun 13 08:57 PM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Advaithi Revathi</t>
+          <t>O'Brien MaryJo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Ex VP, Chief Admin &amp; Secretary</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2172,42 +2172,42 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>32.13</v>
+        <v>94.06</v>
       </c>
       <c r="G40" t="n">
-        <v>130604</v>
+        <v>1129</v>
       </c>
       <c r="H40" t="n">
-        <v>4196241</v>
+        <v>106194</v>
       </c>
       <c r="I40" t="n">
-        <v>1930427</v>
+        <v>64557</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Jun 13 08:34 PM</t>
+          <t>Jun 13 08:57 PM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Heraud Benjamin</t>
+          <t>Tan Kwang Hooi</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Co-CEO</t>
+          <t>Group President</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>May 14</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2216,42 +2216,42 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>94.06</v>
+        <v>32.13</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>11570</v>
       </c>
       <c r="H41" t="n">
-        <v>282</v>
+        <v>371766</v>
       </c>
       <c r="I41" t="n">
-        <v>19677</v>
+        <v>160976</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Jun 13 08:33 PM</t>
+          <t>Jun 13 08:38 PM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Heraud Benjamin</t>
+          <t>OFFER DAVID SCOTT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Co-CEO</t>
+          <t>EVP, General Counsel</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>May 28</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2260,37 +2260,37 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>92.53</v>
+        <v>32.13</v>
       </c>
       <c r="G42" t="n">
-        <v>1222</v>
+        <v>27714</v>
       </c>
       <c r="H42" t="n">
-        <v>113072</v>
+        <v>890440</v>
       </c>
       <c r="I42" t="n">
-        <v>18455</v>
+        <v>150230</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Jun 13 08:33 PM</t>
+          <t>Jun 13 08:37 PM</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Horwath Matthew</t>
+          <t>Lundstrom Paul</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SVP &amp; Chief Financial Officer</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2304,37 +2304,37 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>18.65</v>
+        <v>32.13</v>
       </c>
       <c r="G43" t="n">
-        <v>175</v>
+        <v>29041</v>
       </c>
       <c r="H43" t="n">
-        <v>3264</v>
+        <v>933099</v>
       </c>
       <c r="I43" t="n">
-        <v>29974</v>
+        <v>316130</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jun 13 08:29 PM</t>
+          <t>Jun 13 08:36 PM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SEXTON JEFFREY D</t>
+          <t>Hartung Michael P</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Senior VP of Global Sales</t>
+          <t>Group President</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2348,37 +2348,37 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>18.65</v>
+        <v>32.13</v>
       </c>
       <c r="G44" t="n">
-        <v>651</v>
+        <v>25525</v>
       </c>
       <c r="H44" t="n">
-        <v>12141</v>
+        <v>820134</v>
       </c>
       <c r="I44" t="n">
-        <v>27055</v>
+        <v>188844</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jun 13 08:29 PM</t>
+          <t>Jun 13 08:35 PM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>FLEX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WASSERMAN YUVAL</t>
+          <t>Advaithi Revathi</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Executive Chairman</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2392,42 +2392,42 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>18.65</v>
+        <v>32.13</v>
       </c>
       <c r="G45" t="n">
-        <v>8986</v>
+        <v>130604</v>
       </c>
       <c r="H45" t="n">
-        <v>167589</v>
+        <v>4196241</v>
       </c>
       <c r="I45" t="n">
-        <v>202835</v>
+        <v>1930427</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Jun 13 08:28 PM</t>
+          <t>Jun 13 08:34 PM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>WASSERMAN YUVAL</t>
+          <t>Heraud Benjamin</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Executive Chairman</t>
+          <t>Co-CEO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>May 14</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2436,42 +2436,42 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>17.57</v>
+        <v>94.06</v>
       </c>
       <c r="G46" t="n">
-        <v>9539</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>167600</v>
+        <v>282</v>
       </c>
       <c r="I46" t="n">
-        <v>193296</v>
+        <v>19677</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Jun 13 08:28 PM</t>
+          <t>Jun 13 08:33 PM</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Prince Matthew</t>
+          <t>Heraud Benjamin</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CEO &amp; Chair of the Board</t>
+          <t>Co-CEO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>May 28</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2480,37 +2480,37 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>72.04000000000001</v>
+        <v>92.53</v>
       </c>
       <c r="G47" t="n">
-        <v>52384</v>
+        <v>1222</v>
       </c>
       <c r="H47" t="n">
-        <v>3773618</v>
+        <v>113072</v>
       </c>
       <c r="I47" t="n">
-        <v>8742</v>
+        <v>18455</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Jun 13 08:08 PM</t>
+          <t>Jun 13 08:33 PM</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Prince Matthew</t>
+          <t>Horwath Matthew</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CEO &amp; Chair of the Board</t>
+          <t>SVP &amp; Chief Financial Officer</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2524,42 +2524,42 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>75.06999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="G48" t="n">
-        <v>52384</v>
+        <v>175</v>
       </c>
       <c r="H48" t="n">
-        <v>3932231</v>
+        <v>3264</v>
       </c>
       <c r="I48" t="n">
-        <v>8742</v>
+        <v>29974</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Jun 13 08:08 PM</t>
+          <t>Jun 13 08:29 PM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Prince Matthew</t>
+          <t>SEXTON JEFFREY D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CEO &amp; Chair of the Board</t>
+          <t>Senior VP of Global Sales</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2568,42 +2568,42 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>74.45999999999999</v>
+        <v>18.65</v>
       </c>
       <c r="G49" t="n">
-        <v>52384</v>
+        <v>651</v>
       </c>
       <c r="H49" t="n">
-        <v>3900705</v>
+        <v>12141</v>
       </c>
       <c r="I49" t="n">
-        <v>8742</v>
+        <v>27055</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Jun 13 08:08 PM</t>
+          <t>Jun 13 08:29 PM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>WASSERMAN YUVAL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Executive Chairman</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2612,42 +2612,42 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.06</v>
+        <v>18.65</v>
       </c>
       <c r="G50" t="n">
-        <v>772313</v>
+        <v>8986</v>
       </c>
       <c r="H50" t="n">
-        <v>43327</v>
+        <v>167589</v>
       </c>
       <c r="I50" t="n">
-        <v>11078625</v>
+        <v>202835</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:28 PM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>WASSERMAN YUVAL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Executive Chairman</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2656,42 +2656,42 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.08</v>
+        <v>17.57</v>
       </c>
       <c r="G51" t="n">
-        <v>366853</v>
+        <v>9539</v>
       </c>
       <c r="H51" t="n">
-        <v>29715</v>
+        <v>167600</v>
       </c>
       <c r="I51" t="n">
-        <v>10711772</v>
+        <v>193296</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:28 PM</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>NET</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Prince Matthew</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>CEO &amp; Chair of the Board</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2700,42 +2700,42 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.07000000000000001</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>42287</v>
+        <v>52384</v>
       </c>
       <c r="H52" t="n">
-        <v>3024</v>
+        <v>3773618</v>
       </c>
       <c r="I52" t="n">
-        <v>10669485</v>
+        <v>8742</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:08 PM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RBT</t>
+          <t>NET</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Prince Matthew</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>CEO &amp; Chair of the Board</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2744,42 +2744,42 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.06</v>
+        <v>75.06999999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>772313</v>
+        <v>52384</v>
       </c>
       <c r="H53" t="n">
-        <v>43327</v>
+        <v>3932231</v>
       </c>
       <c r="I53" t="n">
-        <v>11078625</v>
+        <v>8742</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:08 PM</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RBT</t>
+          <t>NET</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Prince Matthew</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>CEO &amp; Chair of the Board</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2788,27 +2788,27 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.08</v>
+        <v>74.45999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>366853</v>
+        <v>52384</v>
       </c>
       <c r="H54" t="n">
-        <v>29715</v>
+        <v>3900705</v>
       </c>
       <c r="I54" t="n">
-        <v>10711772</v>
+        <v>8742</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 13 08:08 PM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RBT</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2832,16 +2832,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G55" t="n">
-        <v>42287</v>
+        <v>772313</v>
       </c>
       <c r="H55" t="n">
-        <v>3024</v>
+        <v>43327</v>
       </c>
       <c r="I55" t="n">
-        <v>10669485</v>
+        <v>11078625</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2857,17 +2857,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Taylor Ryan D.</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>See Remarks</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2876,42 +2876,42 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>23.09</v>
+        <v>0.08</v>
       </c>
       <c r="G56" t="n">
-        <v>593</v>
+        <v>366853</v>
       </c>
       <c r="H56" t="n">
-        <v>13692</v>
+        <v>29715</v>
       </c>
       <c r="I56" t="n">
-        <v>264854</v>
+        <v>10711772</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TDW</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Kneen Quintin</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2920,42 +2920,42 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>103.76</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>166000</v>
+        <v>42287</v>
       </c>
       <c r="H57" t="n">
-        <v>17223496</v>
+        <v>3024</v>
       </c>
       <c r="I57" t="n">
-        <v>335718</v>
+        <v>10669485</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TDW</t>
+          <t>RBT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Kneen Quintin</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2964,37 +2964,37 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>105.86</v>
+        <v>0.06</v>
       </c>
       <c r="G58" t="n">
-        <v>201094</v>
+        <v>772313</v>
       </c>
       <c r="H58" t="n">
-        <v>21288816</v>
+        <v>43327</v>
       </c>
       <c r="I58" t="n">
-        <v>134624</v>
+        <v>11078625</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TDW</t>
+          <t>RBT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Traub Kenneth</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3008,42 +3008,42 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>106.38</v>
+        <v>0.08</v>
       </c>
       <c r="G59" t="n">
-        <v>20000</v>
+        <v>366853</v>
       </c>
       <c r="H59" t="n">
-        <v>2127606</v>
+        <v>29715</v>
       </c>
       <c r="I59" t="n">
-        <v>68802</v>
+        <v>10711772</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>RBT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Correia Richard</t>
+          <t>Palantir Technologies Inc.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>President, CFO and Treasurer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3052,37 +3052,37 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>90.40000000000001</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>28675</v>
+        <v>42287</v>
       </c>
       <c r="H60" t="n">
-        <v>2592256</v>
+        <v>3024</v>
       </c>
       <c r="I60" t="n">
-        <v>232325</v>
+        <v>10669485</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 13 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DELL MICHAEL S</t>
+          <t>Taylor Ryan D.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>See Remarks</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3096,42 +3096,42 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>133.04</v>
+        <v>23.09</v>
       </c>
       <c r="G61" t="n">
-        <v>1001381</v>
+        <v>593</v>
       </c>
       <c r="H61" t="n">
-        <v>133224349</v>
+        <v>13692</v>
       </c>
       <c r="I61" t="n">
-        <v>27930618</v>
+        <v>264854</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Jun 13 07:35 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>TDW</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DELL MICHAEL S</t>
+          <t>Kneen Quintin</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3140,42 +3140,42 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>131.96</v>
+        <v>103.76</v>
       </c>
       <c r="G62" t="n">
-        <v>1205052</v>
+        <v>166000</v>
       </c>
       <c r="H62" t="n">
-        <v>159024464</v>
+        <v>17223496</v>
       </c>
       <c r="I62" t="n">
-        <v>26725566</v>
+        <v>335718</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Jun 13 07:35 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>TDW</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DELL MICHAEL S</t>
+          <t>Kneen Quintin</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3184,32 +3184,32 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>134.97</v>
+        <v>105.86</v>
       </c>
       <c r="G63" t="n">
-        <v>3475496</v>
+        <v>201094</v>
       </c>
       <c r="H63" t="n">
-        <v>469096968</v>
+        <v>21288816</v>
       </c>
       <c r="I63" t="n">
-        <v>23250070</v>
+        <v>134624</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Jun 13 07:35 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>APPF</t>
+          <t>TDW</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BLISS TIMOTHY K</t>
+          <t>Traub Kenneth</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3228,37 +3228,37 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>233.41</v>
+        <v>106.38</v>
       </c>
       <c r="G64" t="n">
-        <v>26100</v>
+        <v>20000</v>
       </c>
       <c r="H64" t="n">
-        <v>6091979</v>
+        <v>2127606</v>
       </c>
       <c r="I64" t="n">
-        <v>12170</v>
+        <v>68802</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Jun 13 07:27 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>APPF</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BLISS TIMOTHY K</t>
+          <t>Correia Richard</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President, CFO and Treasurer</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3272,37 +3272,37 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>241.31</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>12170</v>
+        <v>28675</v>
       </c>
       <c r="H65" t="n">
-        <v>2936800</v>
+        <v>2592256</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>232325</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Jun 13 07:27 PM</t>
+          <t>Jun 13 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>UDMY</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bali Eren</t>
+          <t>DELL MICHAEL S</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3316,37 +3316,37 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>9</v>
+        <v>133.04</v>
       </c>
       <c r="G66" t="n">
-        <v>400</v>
+        <v>1001381</v>
       </c>
       <c r="H66" t="n">
-        <v>3600</v>
+        <v>133224349</v>
       </c>
       <c r="I66" t="n">
-        <v>1669077</v>
+        <v>27930618</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Jun 13 07:10 PM</t>
+          <t>Jun 13 07:35 PM</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>UDMY</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Bali Eren</t>
+          <t>DELL MICHAEL S</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3360,37 +3360,37 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>9.06</v>
+        <v>131.96</v>
       </c>
       <c r="G67" t="n">
-        <v>14600</v>
+        <v>1205052</v>
       </c>
       <c r="H67" t="n">
-        <v>132276</v>
+        <v>159024464</v>
       </c>
       <c r="I67" t="n">
-        <v>1654477</v>
+        <v>26725566</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Jun 13 07:10 PM</t>
+          <t>Jun 13 07:35 PM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Codispoti Edward H</t>
+          <t>DELL MICHAEL S</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3404,42 +3404,42 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>91.45999999999999</v>
+        <v>134.97</v>
       </c>
       <c r="G68" t="n">
-        <v>760</v>
+        <v>3475496</v>
       </c>
       <c r="H68" t="n">
-        <v>69510</v>
+        <v>469096968</v>
       </c>
       <c r="I68" t="n">
-        <v>16929</v>
+        <v>23250070</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Jun 13 07:07 PM</t>
+          <t>Jun 13 07:35 PM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>APPF</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tong Richard</t>
+          <t>BLISS TIMOTHY K</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Exec VP and General Counsel</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3448,32 +3448,32 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>94</v>
+        <v>233.41</v>
       </c>
       <c r="G69" t="n">
-        <v>3119</v>
+        <v>26100</v>
       </c>
       <c r="H69" t="n">
-        <v>293186</v>
+        <v>6091979</v>
       </c>
       <c r="I69" t="n">
-        <v>16288</v>
+        <v>12170</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Jun 13 07:02 PM</t>
+          <t>Jun 13 07:27 PM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>APPF</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Coles Joanna</t>
+          <t>BLISS TIMOTHY K</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3492,42 +3492,42 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>15.17</v>
+        <v>241.31</v>
       </c>
       <c r="G70" t="n">
-        <v>3950</v>
+        <v>12170</v>
       </c>
       <c r="H70" t="n">
-        <v>59922</v>
+        <v>2936800</v>
       </c>
       <c r="I70" t="n">
-        <v>46492</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Jun 13 07:00 PM</t>
+          <t>Jun 13 07:27 PM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>UDMY</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Richison Chad R.</t>
+          <t>Bali Eren</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CEO, President and Chairman</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3536,37 +3536,37 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>145.55</v>
+        <v>9</v>
       </c>
       <c r="G71" t="n">
-        <v>1950</v>
+        <v>400</v>
       </c>
       <c r="H71" t="n">
-        <v>283819</v>
+        <v>3600</v>
       </c>
       <c r="I71" t="n">
-        <v>3058808</v>
+        <v>1669077</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Jun 13 07:00 PM</t>
+          <t>Jun 13 07:10 PM</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>UDMY</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Richison Chad R.</t>
+          <t>Bali Eren</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CEO, President and Chairman</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3580,42 +3580,42 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>145.55</v>
+        <v>9.06</v>
       </c>
       <c r="G72" t="n">
-        <v>1950</v>
+        <v>14600</v>
       </c>
       <c r="H72" t="n">
-        <v>283819</v>
+        <v>132276</v>
       </c>
       <c r="I72" t="n">
-        <v>3635899</v>
+        <v>1654477</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Jun 13 07:00 PM</t>
+          <t>Jun 13 07:10 PM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FIBK</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Scott Jonathan R</t>
+          <t>Codispoti Edward H</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CFO</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3624,37 +3624,37 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>25.29</v>
+        <v>91.45999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>29499</v>
+        <v>760</v>
       </c>
       <c r="H73" t="n">
-        <v>746030</v>
+        <v>69510</v>
       </c>
       <c r="I73" t="n">
-        <v>1021663</v>
+        <v>16929</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Jun 13 06:46 PM</t>
+          <t>Jun 13 07:07 PM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>FIBK</t>
+          <t>NVEE</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Scott Jonathan R</t>
+          <t>Tong Richard</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Exec VP and General Counsel</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3668,42 +3668,42 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>26.14</v>
+        <v>94</v>
       </c>
       <c r="G74" t="n">
-        <v>14403</v>
+        <v>3119</v>
       </c>
       <c r="H74" t="n">
-        <v>376494</v>
+        <v>293186</v>
       </c>
       <c r="I74" t="n">
-        <v>1007260</v>
+        <v>16288</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Jun 13 06:46 PM</t>
+          <t>Jun 13 07:02 PM</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>SNAP</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Barkidjija John</t>
+          <t>Coles Joanna</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HEAD OF CRE &amp; SPECIALTY FIN</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3712,42 +3712,42 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>22.64</v>
+        <v>15.17</v>
       </c>
       <c r="G75" t="n">
-        <v>10000</v>
+        <v>3950</v>
       </c>
       <c r="H75" t="n">
-        <v>226420</v>
+        <v>59922</v>
       </c>
       <c r="I75" t="n">
-        <v>30691</v>
+        <v>46492</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Jun 13 06:44 PM</t>
+          <t>Jun 13 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NRIX</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ring Christine</t>
+          <t>Richison Chad R.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Chief Legal Officer</t>
+          <t>CEO, President and Chairman</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3756,42 +3756,42 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>17.02</v>
+        <v>145.55</v>
       </c>
       <c r="G76" t="n">
-        <v>1864</v>
+        <v>1950</v>
       </c>
       <c r="H76" t="n">
-        <v>31721</v>
+        <v>283819</v>
       </c>
       <c r="I76" t="n">
-        <v>19838</v>
+        <v>3058808</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Jun 13 06:39 PM</t>
+          <t>Jun 13 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NXST</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>McMillen Charles Thomas</t>
+          <t>Richison Chad R.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CEO, President and Chairman</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3800,42 +3800,42 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>154.99</v>
+        <v>145.55</v>
       </c>
       <c r="G77" t="n">
-        <v>1475</v>
+        <v>1950</v>
       </c>
       <c r="H77" t="n">
-        <v>228610</v>
+        <v>283819</v>
       </c>
       <c r="I77" t="n">
-        <v>8975</v>
+        <v>3635899</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Jun 13 06:38 PM</t>
+          <t>Jun 13 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GTLB</t>
+          <t>FIBK</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ROBINS BRIAN G</t>
+          <t>Scott Jonathan R</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3844,37 +3844,37 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>45.46</v>
+        <v>25.29</v>
       </c>
       <c r="G78" t="n">
-        <v>11667</v>
+        <v>29499</v>
       </c>
       <c r="H78" t="n">
-        <v>530382</v>
+        <v>746030</v>
       </c>
       <c r="I78" t="n">
-        <v>293508</v>
+        <v>1021663</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Jun 13 06:36 PM</t>
+          <t>Jun 13 06:46 PM</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>FIBK</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Storm Adam</t>
+          <t>Scott Jonathan R</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Pres. &amp; Chief Product Off.</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3888,37 +3888,37 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.51</v>
+        <v>26.14</v>
       </c>
       <c r="G79" t="n">
-        <v>7803</v>
+        <v>14403</v>
       </c>
       <c r="H79" t="n">
-        <v>11783</v>
+        <v>376494</v>
       </c>
       <c r="I79" t="n">
-        <v>1340214</v>
+        <v>1007260</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Jun 13 06:35 PM</t>
+          <t>Jun 13 06:46 PM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Storm Adam</t>
+          <t>Barkidjija John</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Pres. &amp; Chief Product Off.</t>
+          <t>HEAD OF CRE &amp; SPECIALTY FIN</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3932,32 +3932,32 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.51</v>
+        <v>22.64</v>
       </c>
       <c r="G80" t="n">
-        <v>3134</v>
+        <v>10000</v>
       </c>
       <c r="H80" t="n">
-        <v>4732</v>
+        <v>226420</v>
       </c>
       <c r="I80" t="n">
-        <v>1337080</v>
+        <v>30691</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Jun 13 06:35 PM</t>
+          <t>Jun 13 06:44 PM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>NRIX</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Newstead Jennifer</t>
+          <t>Ring Christine</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3967,7 +3967,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3976,32 +3976,32 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>17.02</v>
       </c>
       <c r="G81" t="n">
-        <v>905</v>
+        <v>1864</v>
       </c>
       <c r="H81" t="n">
-        <v>452500</v>
+        <v>31721</v>
       </c>
       <c r="I81" t="n">
-        <v>40560</v>
+        <v>19838</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Jun 13 06:33 PM</t>
+          <t>Jun 13 06:39 PM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CLF</t>
+          <t>NXST</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Taylor Douglas C</t>
+          <t>McMillen Charles Thomas</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4020,37 +4020,37 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>14.87</v>
+        <v>154.99</v>
       </c>
       <c r="G82" t="n">
-        <v>36000</v>
+        <v>1475</v>
       </c>
       <c r="H82" t="n">
-        <v>535223</v>
+        <v>228610</v>
       </c>
       <c r="I82" t="n">
-        <v>100536</v>
+        <v>8975</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Jun 13 06:16 PM</t>
+          <t>Jun 13 06:38 PM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>GTLB</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RIKER LAUREN</t>
+          <t>ROBINS BRIAN G</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Senior Vice President, Finance</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4064,42 +4064,42 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>28.72</v>
+        <v>45.46</v>
       </c>
       <c r="G83" t="n">
-        <v>3970</v>
+        <v>11667</v>
       </c>
       <c r="H83" t="n">
-        <v>114018</v>
+        <v>530382</v>
       </c>
       <c r="I83" t="n">
-        <v>38075</v>
+        <v>293508</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Jun 13 06:15 PM</t>
+          <t>Jun 13 06:36 PM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SLONIN JONATHAN</t>
+          <t>Storm Adam</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Chief Medical Officer</t>
+          <t>Pres. &amp; Chief Product Off.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4108,42 +4108,42 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>28.57</v>
+        <v>1.51</v>
       </c>
       <c r="G84" t="n">
-        <v>5012</v>
+        <v>7803</v>
       </c>
       <c r="H84" t="n">
-        <v>143193</v>
+        <v>11783</v>
       </c>
       <c r="I84" t="n">
-        <v>44569</v>
+        <v>1340214</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Jun 13 06:15 PM</t>
+          <t>Jun 13 06:35 PM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Young Jonathan</t>
+          <t>Storm Adam</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Pres. &amp; Chief Product Off.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4152,42 +4152,42 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>22.64</v>
+        <v>1.51</v>
       </c>
       <c r="G85" t="n">
-        <v>2516</v>
+        <v>3134</v>
       </c>
       <c r="H85" t="n">
-        <v>56965</v>
+        <v>4732</v>
       </c>
       <c r="I85" t="n">
-        <v>250790</v>
+        <v>1337080</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 13 06:35 PM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GAUGLER DARYL</t>
+          <t>Newstead Jennifer</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Chief Legal Officer</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4196,37 +4196,37 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>28.38</v>
+        <v>500</v>
       </c>
       <c r="G86" t="n">
-        <v>1000</v>
+        <v>905</v>
       </c>
       <c r="H86" t="n">
-        <v>28380</v>
+        <v>452500</v>
       </c>
       <c r="I86" t="n">
-        <v>116040</v>
+        <v>40560</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 13 06:33 PM</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>WLDN</t>
+          <t>CLF</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BIEBER MICHAEL A</t>
+          <t>Taylor Douglas C</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PRESIDENT AND CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4240,37 +4240,37 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>30.25</v>
+        <v>14.87</v>
       </c>
       <c r="G87" t="n">
-        <v>4464</v>
+        <v>36000</v>
       </c>
       <c r="H87" t="n">
-        <v>135036</v>
+        <v>535223</v>
       </c>
       <c r="I87" t="n">
-        <v>165897</v>
+        <v>100536</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 13 06:16 PM</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>WLDN</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BIEBER MICHAEL A</t>
+          <t>RIKER LAUREN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PRESIDENT AND CEO</t>
+          <t>Senior Vice President, Finance</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4284,20 +4284,20 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>30.98</v>
+        <v>28.72</v>
       </c>
       <c r="G88" t="n">
-        <v>4394</v>
+        <v>3970</v>
       </c>
       <c r="H88" t="n">
-        <v>136126</v>
+        <v>114018</v>
       </c>
       <c r="I88" t="n">
-        <v>167503</v>
+        <v>38075</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 13 06:15 PM</t>
         </is>
       </c>
     </row>
@@ -4309,17 +4309,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HASTINGS PAUL J</t>
+          <t>SLONIN JONATHAN</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Medical Officer</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4328,42 +4328,42 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>28.38</v>
+        <v>28.57</v>
       </c>
       <c r="G89" t="n">
-        <v>880</v>
+        <v>5012</v>
       </c>
       <c r="H89" t="n">
-        <v>24974</v>
+        <v>143193</v>
       </c>
       <c r="I89" t="n">
-        <v>12724</v>
+        <v>44569</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 13 06:15 PM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>WILLIAMS KRISTEN</t>
+          <t>Young Jonathan</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Chief Administrative Officer</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4372,42 +4372,42 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>28.38</v>
+        <v>22.64</v>
       </c>
       <c r="G90" t="n">
-        <v>7452</v>
+        <v>2516</v>
       </c>
       <c r="H90" t="n">
-        <v>211488</v>
+        <v>56965</v>
       </c>
       <c r="I90" t="n">
-        <v>102912</v>
+        <v>250790</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Jun 13 06:12 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Smallwood Garrett</t>
+          <t>GAUGLER DARYL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4416,42 +4416,42 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.51</v>
+        <v>28.38</v>
       </c>
       <c r="G91" t="n">
-        <v>7832</v>
+        <v>1000</v>
       </c>
       <c r="H91" t="n">
-        <v>11826</v>
+        <v>28380</v>
       </c>
       <c r="I91" t="n">
-        <v>1168213</v>
+        <v>116040</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Jun 13 06:11 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>WLDN</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Smallwood Garrett</t>
+          <t>BIEBER MICHAEL A</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4460,42 +4460,42 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.51</v>
+        <v>30.25</v>
       </c>
       <c r="G92" t="n">
-        <v>3121</v>
+        <v>4464</v>
       </c>
       <c r="H92" t="n">
-        <v>4713</v>
+        <v>135036</v>
       </c>
       <c r="I92" t="n">
-        <v>1165092</v>
+        <v>165897</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Jun 13 06:11 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>WLDN</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Yale Catriona</t>
+          <t>BIEBER MICHAEL A</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Chief Development Officer</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4504,42 +4504,42 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>22.64</v>
+        <v>30.98</v>
       </c>
       <c r="G93" t="n">
-        <v>2825</v>
+        <v>4394</v>
       </c>
       <c r="H93" t="n">
-        <v>63961</v>
+        <v>136126</v>
       </c>
       <c r="I93" t="n">
-        <v>74867</v>
+        <v>167503</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Jun 13 06:11 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>White William Richard</t>
+          <t>HASTINGS PAUL J</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4548,42 +4548,42 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>22.64</v>
+        <v>28.38</v>
       </c>
       <c r="G94" t="n">
-        <v>2831</v>
+        <v>880</v>
       </c>
       <c r="H94" t="n">
-        <v>64094</v>
+        <v>24974</v>
       </c>
       <c r="I94" t="n">
-        <v>46799</v>
+        <v>12724</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Jun 13 06:09 PM</t>
+          <t>Jun 13 06:13 PM</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>PCRX</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Rolph Timothy</t>
+          <t>WILLIAMS KRISTEN</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Chief Scientific Officer</t>
+          <t>Chief Administrative Officer</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4592,42 +4592,42 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>22.64</v>
+        <v>28.38</v>
       </c>
       <c r="G95" t="n">
-        <v>2380</v>
+        <v>7452</v>
       </c>
       <c r="H95" t="n">
-        <v>53886</v>
+        <v>211488</v>
       </c>
       <c r="I95" t="n">
-        <v>180178</v>
+        <v>102912</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Jun 13 06:06 PM</t>
+          <t>Jun 13 06:12 PM</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GCT</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lin Frank Hurst</t>
+          <t>Smallwood Garrett</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4636,42 +4636,42 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>33.16</v>
+        <v>1.51</v>
       </c>
       <c r="G96" t="n">
-        <v>175178</v>
+        <v>7832</v>
       </c>
       <c r="H96" t="n">
-        <v>5808750</v>
+        <v>11826</v>
       </c>
       <c r="I96" t="n">
-        <v>5069889</v>
+        <v>1168213</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Jun 13 06:06 PM</t>
+          <t>Jun 13 06:11 PM</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GCT</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lin Frank Hurst</t>
+          <t>Smallwood Garrett</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4680,20 +4680,20 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>32.63</v>
+        <v>1.51</v>
       </c>
       <c r="G97" t="n">
-        <v>91781</v>
+        <v>3121</v>
       </c>
       <c r="H97" t="n">
-        <v>2994442</v>
+        <v>4713</v>
       </c>
       <c r="I97" t="n">
-        <v>4978108</v>
+        <v>1165092</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Jun 13 06:06 PM</t>
+          <t>Jun 13 06:11 PM</t>
         </is>
       </c>
     </row>
@@ -4705,12 +4705,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Lamy Patrick</t>
+          <t>Yale Catriona</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Senior VP, Commercial Strategy</t>
+          <t>Chief Development Officer</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4727,34 +4727,34 @@
         <v>22.64</v>
       </c>
       <c r="G98" t="n">
-        <v>569</v>
+        <v>2825</v>
       </c>
       <c r="H98" t="n">
-        <v>12883</v>
+        <v>63961</v>
       </c>
       <c r="I98" t="n">
-        <v>18562</v>
+        <v>74867</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Jun 13 06:04 PM</t>
+          <t>Jun 13 06:11 PM</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>OMF</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hedlund Michael A</t>
+          <t>White William Richard</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>pao, SVP and Group Controller</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4768,20 +4768,20 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>48.1</v>
+        <v>22.64</v>
       </c>
       <c r="G99" t="n">
-        <v>3000</v>
+        <v>2831</v>
       </c>
       <c r="H99" t="n">
-        <v>144300</v>
+        <v>64094</v>
       </c>
       <c r="I99" t="n">
-        <v>28147</v>
+        <v>46799</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Jun 13 06:02 PM</t>
+          <t>Jun 13 06:09 PM</t>
         </is>
       </c>
     </row>
@@ -4793,12 +4793,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cheng Andrew</t>
+          <t>Rolph Timothy</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>Chief Scientific Officer</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4815,39 +4815,39 @@
         <v>22.64</v>
       </c>
       <c r="G100" t="n">
-        <v>7894</v>
+        <v>2380</v>
       </c>
       <c r="H100" t="n">
-        <v>178728</v>
+        <v>53886</v>
       </c>
       <c r="I100" t="n">
-        <v>581553</v>
+        <v>180178</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Jun 13 06:01 PM</t>
+          <t>Jun 13 06:06 PM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>GCT</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Allread Dylan</t>
+          <t>Lin Frank Hurst</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4856,42 +4856,42 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.58</v>
+        <v>33.16</v>
       </c>
       <c r="G101" t="n">
-        <v>564</v>
+        <v>175178</v>
       </c>
       <c r="H101" t="n">
-        <v>891</v>
+        <v>5808750</v>
       </c>
       <c r="I101" t="n">
-        <v>650566</v>
+        <v>5069889</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Jun 13 05:57 PM</t>
+          <t>Jun 13 06:06 PM</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AVDX</t>
+          <t>GCT</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Praeger Michael</t>
+          <t>Lin Frank Hurst</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4900,37 +4900,37 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>10.85</v>
+        <v>32.63</v>
       </c>
       <c r="G102" t="n">
-        <v>29192</v>
+        <v>91781</v>
       </c>
       <c r="H102" t="n">
-        <v>316675</v>
+        <v>2994442</v>
       </c>
       <c r="I102" t="n">
-        <v>10440510</v>
+        <v>4978108</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Jun 13 05:57 PM</t>
+          <t>Jun 13 06:06 PM</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MEHROTRA SANJAY</t>
+          <t>Lamy Patrick</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CEO and President</t>
+          <t>Senior VP, Commercial Strategy</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4944,42 +4944,42 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>134.57</v>
+        <v>22.64</v>
       </c>
       <c r="G103" t="n">
-        <v>7000</v>
+        <v>569</v>
       </c>
       <c r="H103" t="n">
-        <v>941956</v>
+        <v>12883</v>
       </c>
       <c r="I103" t="n">
-        <v>719049</v>
+        <v>18562</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Jun 13 05:54 PM</t>
+          <t>Jun 13 06:04 PM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>OMF</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MEHROTRA SANJAY</t>
+          <t>Hedlund Michael A</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CEO and President</t>
+          <t>pao, SVP and Group Controller</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4988,37 +4988,37 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>140</v>
+        <v>48.1</v>
       </c>
       <c r="G104" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H104" t="n">
-        <v>4200000</v>
+        <v>144300</v>
       </c>
       <c r="I104" t="n">
-        <v>719049</v>
+        <v>28147</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Jun 13 05:54 PM</t>
+          <t>Jun 13 06:02 PM</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kramer Thomas G.</t>
+          <t>Cheng Andrew</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CHIEF FINANCIAL OFFICER</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -5032,37 +5032,37 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>7.89</v>
+        <v>22.64</v>
       </c>
       <c r="G105" t="n">
-        <v>4610</v>
+        <v>7894</v>
       </c>
       <c r="H105" t="n">
-        <v>36357</v>
+        <v>178728</v>
       </c>
       <c r="I105" t="n">
-        <v>949614</v>
+        <v>581553</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Jun 13 05:53 PM</t>
+          <t>Jun 13 06:01 PM</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Kramer Thomas G.</t>
+          <t>Allread Dylan</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CHIEF FINANCIAL OFFICER</t>
+          <t>Chief Operating Officer</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -5076,42 +5076,42 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>8.130000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="G106" t="n">
-        <v>4967</v>
+        <v>564</v>
       </c>
       <c r="H106" t="n">
-        <v>40391</v>
+        <v>891</v>
       </c>
       <c r="I106" t="n">
-        <v>944647</v>
+        <v>650566</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Jun 13 05:53 PM</t>
+          <t>Jun 13 05:57 PM</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FROG</t>
+          <t>AVDX</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Landman Yoav</t>
+          <t>Praeger Michael</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CHIEF TECHNOLOGY OFFICER</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5120,37 +5120,37 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>35.28</v>
+        <v>10.85</v>
       </c>
       <c r="G107" t="n">
-        <v>2250</v>
+        <v>29192</v>
       </c>
       <c r="H107" t="n">
-        <v>79380</v>
+        <v>316675</v>
       </c>
       <c r="I107" t="n">
-        <v>6744892</v>
+        <v>10440510</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Jun 13 05:53 PM</t>
+          <t>Jun 13 05:57 PM</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chapman Peter Hume</t>
+          <t>MEHROTRA SANJAY</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PRESIDENT AND CEO</t>
+          <t>CEO and President</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -5164,37 +5164,37 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>7.89</v>
+        <v>134.57</v>
       </c>
       <c r="G108" t="n">
-        <v>5936</v>
+        <v>7000</v>
       </c>
       <c r="H108" t="n">
-        <v>46814</v>
+        <v>941956</v>
       </c>
       <c r="I108" t="n">
-        <v>445297</v>
+        <v>719049</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Jun 13 05:52 PM</t>
+          <t>Jun 13 05:54 PM</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Chapman Peter Hume</t>
+          <t>MEHROTRA SANJAY</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>PRESIDENT AND CEO</t>
+          <t>CEO and President</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -5208,37 +5208,37 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>8.130000000000001</v>
+        <v>140</v>
       </c>
       <c r="G109" t="n">
-        <v>6394</v>
+        <v>30000</v>
       </c>
       <c r="H109" t="n">
-        <v>51995</v>
+        <v>4200000</v>
       </c>
       <c r="I109" t="n">
-        <v>438903</v>
+        <v>719049</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Jun 13 05:52 PM</t>
+          <t>Jun 13 05:54 PM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>STEVENS MARK A</t>
+          <t>Kramer Thomas G.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF FINANCIAL OFFICER</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>120.42</v>
+        <v>7.89</v>
       </c>
       <c r="G110" t="n">
-        <v>150000</v>
+        <v>4610</v>
       </c>
       <c r="H110" t="n">
-        <v>18063285</v>
+        <v>36357</v>
       </c>
       <c r="I110" t="n">
-        <v>9846240</v>
+        <v>949614</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Jun 13 05:52 PM</t>
+          <t>Jun 13 05:53 PM</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>STEVENS MARK A</t>
+          <t>Kramer Thomas G.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF FINANCIAL OFFICER</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -5296,42 +5296,42 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>125.88</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>320000</v>
+        <v>4967</v>
       </c>
       <c r="H111" t="n">
-        <v>40280736</v>
+        <v>40391</v>
       </c>
       <c r="I111" t="n">
-        <v>9526240</v>
+        <v>944647</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Jun 13 05:52 PM</t>
+          <t>Jun 13 05:53 PM</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>FROG</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Alameddine Rima</t>
+          <t>Landman Yoav</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CHIEF REVENUE OFFICER</t>
+          <t>CHIEF TECHNOLOGY OFFICER</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5340,20 +5340,20 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>7.89</v>
+        <v>35.28</v>
       </c>
       <c r="G112" t="n">
-        <v>9807</v>
+        <v>2250</v>
       </c>
       <c r="H112" t="n">
-        <v>77343</v>
+        <v>79380</v>
       </c>
       <c r="I112" t="n">
-        <v>687840</v>
+        <v>6744892</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Jun 13 05:51 PM</t>
+          <t>Jun 13 05:53 PM</t>
         </is>
       </c>
     </row>
@@ -5365,17 +5365,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Alameddine Rima</t>
+          <t>Chapman Peter Hume</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CHIEF REVENUE OFFICER</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5384,37 +5384,37 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>8.130000000000001</v>
+        <v>7.89</v>
       </c>
       <c r="G113" t="n">
-        <v>10565</v>
+        <v>5936</v>
       </c>
       <c r="H113" t="n">
-        <v>85914</v>
+        <v>46814</v>
       </c>
       <c r="I113" t="n">
-        <v>677275</v>
+        <v>445297</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Jun 13 05:51 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Selleck Erin</t>
+          <t>Chapman Peter Hume</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -5428,42 +5428,42 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>8.699999999999999</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G114" t="n">
-        <v>2677</v>
+        <v>6394</v>
       </c>
       <c r="H114" t="n">
-        <v>23290</v>
+        <v>51995</v>
       </c>
       <c r="I114" t="n">
-        <v>57248</v>
+        <v>438903</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Jun 13 05:50 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CSV</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>GRANMAYEH LANCE KIAN</t>
+          <t>STEVENS MARK A</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EVP, CFO and Treasurer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5472,42 +5472,42 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>29.31</v>
+        <v>120.42</v>
       </c>
       <c r="G115" t="n">
-        <v>3282</v>
+        <v>150000</v>
       </c>
       <c r="H115" t="n">
-        <v>96181</v>
+        <v>18063285</v>
       </c>
       <c r="I115" t="n">
-        <v>27880</v>
+        <v>9846240</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Jun 13 05:42 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PRI</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Williams Glenn J.</t>
+          <t>STEVENS MARK A</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5516,37 +5516,37 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>222.76</v>
+        <v>125.88</v>
       </c>
       <c r="G116" t="n">
-        <v>3000</v>
+        <v>320000</v>
       </c>
       <c r="H116" t="n">
-        <v>668270</v>
+        <v>40280736</v>
       </c>
       <c r="I116" t="n">
-        <v>48322</v>
+        <v>9526240</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Jun 13 05:38 PM</t>
+          <t>Jun 13 05:52 PM</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RXRX</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Borgeson Blake</t>
+          <t>Alameddine Rima</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF REVENUE OFFICER</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -5560,37 +5560,37 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>8.449999999999999</v>
+        <v>7.89</v>
       </c>
       <c r="G117" t="n">
-        <v>11447</v>
+        <v>9807</v>
       </c>
       <c r="H117" t="n">
-        <v>96763</v>
+        <v>77343</v>
       </c>
       <c r="I117" t="n">
-        <v>7188563</v>
+        <v>687840</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Jun 13 05:36 PM</t>
+          <t>Jun 13 05:51 PM</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Granger Elder</t>
+          <t>Alameddine Rima</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF REVENUE OFFICER</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -5604,42 +5604,42 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>338.08</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>1000</v>
+        <v>10565</v>
       </c>
       <c r="H118" t="n">
-        <v>338080</v>
+        <v>85914</v>
       </c>
       <c r="I118" t="n">
-        <v>5471</v>
+        <v>677275</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Jun 13 05:35 PM</t>
+          <t>Jun 13 05:51 PM</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBCP</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kirkley David T.</t>
+          <t>Selleck Erin</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SEVP &amp; Chief Financial Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5648,42 +5648,42 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>36.73</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>1180</v>
+        <v>2677</v>
       </c>
       <c r="H119" t="n">
-        <v>43338</v>
+        <v>23290</v>
       </c>
       <c r="I119" t="n">
-        <v>4631</v>
+        <v>57248</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Jun 13 05:34 PM</t>
+          <t>Jun 13 05:50 PM</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MLYS</t>
+          <t>CSV</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Levy Adam Scott</t>
+          <t>GRANMAYEH LANCE KIAN</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CFO and Secretary</t>
+          <t>EVP, CFO and Treasurer</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5692,42 +5692,42 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>12.94</v>
+        <v>29.31</v>
       </c>
       <c r="G120" t="n">
-        <v>96815</v>
+        <v>3282</v>
       </c>
       <c r="H120" t="n">
-        <v>1252718</v>
+        <v>96181</v>
       </c>
       <c r="I120" t="n">
-        <v>255462</v>
+        <v>27880</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Jun 13 05:33 PM</t>
+          <t>Jun 13 05:42 PM</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SGRY</t>
+          <t>PRI</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Burkhalter Danielle</t>
+          <t>Williams Glenn J.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Chief Human Resources Officer</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5736,37 +5736,37 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>26.39</v>
+        <v>222.76</v>
       </c>
       <c r="G121" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="H121" t="n">
-        <v>158310</v>
+        <v>668270</v>
       </c>
       <c r="I121" t="n">
-        <v>30354</v>
+        <v>48322</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Jun 13 05:31 PM</t>
+          <t>Jun 13 05:38 PM</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DFIN</t>
+          <t>RXRX</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Johnson Eric J</t>
+          <t>Borgeson Blake</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>President, GIC</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5780,37 +5780,37 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>58.34</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G122" t="n">
-        <v>16757</v>
+        <v>11447</v>
       </c>
       <c r="H122" t="n">
-        <v>977630</v>
+        <v>96763</v>
       </c>
       <c r="I122" t="n">
-        <v>138338</v>
+        <v>7188563</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Jun 13 05:31 PM</t>
+          <t>Jun 13 05:36 PM</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>DFIN</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Johnson Eric J</t>
+          <t>Granger Elder</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>President, GIC</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5824,42 +5824,42 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>59.25</v>
+        <v>338.08</v>
       </c>
       <c r="G123" t="n">
-        <v>5329</v>
+        <v>1000</v>
       </c>
       <c r="H123" t="n">
-        <v>315720</v>
+        <v>338080</v>
       </c>
       <c r="I123" t="n">
-        <v>133009</v>
+        <v>5471</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Jun 13 05:31 PM</t>
+          <t>Jun 13 05:35 PM</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RDNT</t>
+          <t>HBCP</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Forthuber Stephen M</t>
+          <t>Kirkley David T.</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Pres &amp; COO-Eastern Operations</t>
+          <t>SEVP &amp; Chief Financial Officer</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5868,37 +5868,37 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>62.33</v>
+        <v>36.73</v>
       </c>
       <c r="G124" t="n">
-        <v>40000</v>
+        <v>1180</v>
       </c>
       <c r="H124" t="n">
-        <v>2493200</v>
+        <v>43338</v>
       </c>
       <c r="I124" t="n">
-        <v>523561</v>
+        <v>4631</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Jun 13 05:30 PM</t>
+          <t>Jun 13 05:34 PM</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RDNT</t>
+          <t>MLYS</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sorensen Alma Gregory</t>
+          <t>Levy Adam Scott</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>EVP, Chief Science Officer</t>
+          <t>CFO and Secretary</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5912,37 +5912,37 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>61.24</v>
+        <v>12.94</v>
       </c>
       <c r="G125" t="n">
-        <v>5000</v>
+        <v>96815</v>
       </c>
       <c r="H125" t="n">
-        <v>306200</v>
+        <v>1252718</v>
       </c>
       <c r="I125" t="n">
-        <v>1249205</v>
+        <v>255462</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Jun 13 05:30 PM</t>
+          <t>Jun 13 05:33 PM</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RDNT</t>
+          <t>SGRY</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sorensen Alma Gregory</t>
+          <t>Burkhalter Danielle</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EVP, Chief Science Officer</t>
+          <t>Chief Human Resources Officer</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5956,37 +5956,37 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>62.34</v>
+        <v>26.39</v>
       </c>
       <c r="G126" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="H126" t="n">
-        <v>623400</v>
+        <v>158310</v>
       </c>
       <c r="I126" t="n">
-        <v>1239205</v>
+        <v>30354</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Jun 13 05:30 PM</t>
+          <t>Jun 13 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>EXFY</t>
+          <t>DFIN</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Barrett David Michael</t>
+          <t>Johnson Eric J</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>President, GIC</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6000,37 +6000,37 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.4</v>
+        <v>58.34</v>
       </c>
       <c r="G127" t="n">
-        <v>17496</v>
+        <v>16757</v>
       </c>
       <c r="H127" t="n">
-        <v>24494</v>
+        <v>977630</v>
       </c>
       <c r="I127" t="n">
-        <v>612477</v>
+        <v>138338</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Jun 13 05:28 PM</t>
+          <t>Jun 13 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>EXFY</t>
+          <t>DFIN</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Barrett David Michael</t>
+          <t>Johnson Eric J</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>President, GIC</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -6044,42 +6044,42 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.45</v>
+        <v>59.25</v>
       </c>
       <c r="G128" t="n">
-        <v>16970</v>
+        <v>5329</v>
       </c>
       <c r="H128" t="n">
-        <v>24606</v>
+        <v>315720</v>
       </c>
       <c r="I128" t="n">
-        <v>595507</v>
+        <v>133009</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Jun 13 05:28 PM</t>
+          <t>Jun 13 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>EXFY</t>
+          <t>RDNT</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Barrett David Michael</t>
+          <t>Forthuber Stephen M</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Pres &amp; COO-Eastern Operations</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6088,42 +6088,42 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.4</v>
+        <v>62.33</v>
       </c>
       <c r="G129" t="n">
-        <v>18500</v>
+        <v>40000</v>
       </c>
       <c r="H129" t="n">
-        <v>25900</v>
+        <v>2493200</v>
       </c>
       <c r="I129" t="n">
-        <v>577007</v>
+        <v>523561</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Jun 13 05:28 PM</t>
+          <t>Jun 13 05:30 PM</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>WRBY</t>
+          <t>RDNT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Miller Steven Clive</t>
+          <t>Sorensen Alma Gregory</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>EVP, Chief Science Officer</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 11</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6132,196 +6132,20 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>16.61</v>
+        <v>61.24</v>
       </c>
       <c r="G130" t="n">
-        <v>99816</v>
+        <v>5000</v>
       </c>
       <c r="H130" t="n">
-        <v>1657944</v>
+        <v>306200</v>
       </c>
       <c r="I130" t="n">
-        <v>173012</v>
+        <v>1249205</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Jun 13 05:26 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>WRBY</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Miller Steven Clive</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Chief Financial Officer</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="G131" t="n">
-        <v>9394</v>
-      </c>
-      <c r="H131" t="n">
-        <v>155846</v>
-      </c>
-      <c r="I131" t="n">
-        <v>173012</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Jun 13 05:26 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>PUMP</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Vion Michele</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="G132" t="n">
-        <v>7778</v>
-      </c>
-      <c r="H132" t="n">
-        <v>71635</v>
-      </c>
-      <c r="I132" t="n">
-        <v>39006</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Jun 13 05:25 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Seshadri Raj</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Chief Commercial Pmts Officer</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>447.84</v>
-      </c>
-      <c r="G133" t="n">
-        <v>3464</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1551318</v>
-      </c>
-      <c r="I133" t="n">
-        <v>13736</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Jun 13 05:23 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Seshadri Raj</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Chief Commercial Pmts Officer</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>451.49</v>
-      </c>
-      <c r="G134" t="n">
-        <v>3458</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1561252</v>
-      </c>
-      <c r="I134" t="n">
-        <v>13736</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Jun 13 05:23 PM</t>
+          <t>Jun 13 05:30 PM</t>
         </is>
       </c>
     </row>

--- a/salidas/latest-insiders-trading-Sale.xlsx
+++ b/salidas/latest-insiders-trading-Sale.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RBA</t>
+          <t>MDGL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Watt Darren Jeffrey</t>
+          <t>Waltermire Robert E.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chief Legal Officer</t>
+          <t>Senior VP, Chief Pharma Dev.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,42 +500,42 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>80.66</v>
+        <v>285</v>
       </c>
       <c r="G2" t="n">
-        <v>3637</v>
+        <v>2000</v>
       </c>
       <c r="H2" t="n">
-        <v>293365</v>
+        <v>570000</v>
       </c>
       <c r="I2" t="n">
-        <v>17279</v>
+        <v>5500</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Jun 14 02:41 PM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IBCP</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Keller Christina</t>
+          <t>Owen Robert Craig</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jun 14</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -544,42 +544,42 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>23.62</v>
+        <v>12.85</v>
       </c>
       <c r="G3" t="n">
-        <v>2400</v>
+        <v>5127</v>
       </c>
       <c r="H3" t="n">
-        <v>56688</v>
+        <v>65882</v>
       </c>
       <c r="I3" t="n">
-        <v>6563</v>
+        <v>242836</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Jun 14 02:30 PM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UNF</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Levenstein Cecelia</t>
+          <t>Owen Robert Craig</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -588,32 +588,32 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>155.76</v>
+        <v>10.98</v>
       </c>
       <c r="G4" t="n">
-        <v>5500</v>
+        <v>12286</v>
       </c>
       <c r="H4" t="n">
-        <v>856680</v>
+        <v>134900</v>
       </c>
       <c r="I4" t="n">
-        <v>68058</v>
+        <v>230550</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Jun 14 02:19 PM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SMBC</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Young William E</t>
+          <t>ABBAS GIZMAN I</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,42 +632,42 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>41.76</v>
+        <v>12.85</v>
       </c>
       <c r="G5" t="n">
-        <v>15000</v>
+        <v>179</v>
       </c>
       <c r="H5" t="n">
-        <v>626462</v>
+        <v>2300</v>
       </c>
       <c r="I5" t="n">
-        <v>224417</v>
+        <v>6684</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Jun 14 01:53 PM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BIO</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crowley Michael</t>
+          <t>ABBAS GIZMAN I</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EVP, GBL Commercial Operations</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -676,37 +676,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>281.91</v>
+        <v>10.98</v>
       </c>
       <c r="G6" t="n">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="H6" t="n">
-        <v>104023</v>
+        <v>4677</v>
       </c>
       <c r="I6" t="n">
-        <v>6573</v>
+        <v>6258</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Jun 14 01:42 PM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Flannelly Barry P</t>
+          <t>KESSLER PAUL L.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EVP &amp; General Manager US</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -720,42 +720,42 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>12.85</v>
       </c>
       <c r="G7" t="n">
-        <v>19164</v>
+        <v>179</v>
       </c>
       <c r="H7" t="n">
-        <v>1149840</v>
+        <v>2300</v>
       </c>
       <c r="I7" t="n">
-        <v>66377</v>
+        <v>9934</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Jun 14 12:17 PM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mastercard Foundation</t>
+          <t>KESSLER PAUL L.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -764,37 +764,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>442.03</v>
+        <v>10.98</v>
       </c>
       <c r="G8" t="n">
-        <v>112000</v>
+        <v>426</v>
       </c>
       <c r="H8" t="n">
-        <v>49507136</v>
+        <v>4677</v>
       </c>
       <c r="I8" t="n">
-        <v>93114308</v>
+        <v>9508</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Jun 14 12:11 PM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OSIS</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chandra Shalabh</t>
+          <t>Lee Stephen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PRES., SPACELABS HEALTHCARE</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -808,32 +808,32 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>139.5</v>
+        <v>12.85</v>
       </c>
       <c r="G9" t="n">
-        <v>676</v>
+        <v>179</v>
       </c>
       <c r="H9" t="n">
-        <v>94302</v>
+        <v>2300</v>
       </c>
       <c r="I9" t="n">
-        <v>8192</v>
+        <v>6684</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Jun 14 11:00 AM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PKOH</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ROMNEY RONNA</t>
+          <t>Lee Stephen</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -852,37 +852,37 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>24.3</v>
+        <v>10.98</v>
       </c>
       <c r="G10" t="n">
-        <v>5000</v>
+        <v>426</v>
       </c>
       <c r="H10" t="n">
-        <v>121484</v>
+        <v>4677</v>
       </c>
       <c r="I10" t="n">
-        <v>30995</v>
+        <v>6258</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Jun 14 10:28 AM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MIDD</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Palisi Chapin Sarah</t>
+          <t>Sweeney Daniel T.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>General Counsel &amp; Corp. Sec'y</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -896,42 +896,42 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>128.38</v>
+        <v>12.85</v>
       </c>
       <c r="G11" t="n">
-        <v>150</v>
+        <v>477</v>
       </c>
       <c r="H11" t="n">
-        <v>19257</v>
+        <v>6129</v>
       </c>
       <c r="I11" t="n">
-        <v>7061</v>
+        <v>97486</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Jun 14 10:19 AM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Carey Charles P</t>
+          <t>Sweeney Daniel T.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>General Counsel &amp; Corp. Sec'y</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -940,37 +940,37 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>195.44</v>
+        <v>10.98</v>
       </c>
       <c r="G12" t="n">
-        <v>3000</v>
+        <v>1137</v>
       </c>
       <c r="H12" t="n">
-        <v>586320</v>
+        <v>12484</v>
       </c>
       <c r="I12" t="n">
-        <v>7163</v>
+        <v>96349</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Jun 14 10:19 AM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CWAN</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Das Souvik</t>
+          <t>Freeman Bryan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Chief Technology Officer</t>
+          <t>Exec VP of Operations</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -984,42 +984,42 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>19.96</v>
+        <v>12.85</v>
       </c>
       <c r="G13" t="n">
-        <v>50000</v>
+        <v>852</v>
       </c>
       <c r="H13" t="n">
-        <v>998230</v>
+        <v>10948</v>
       </c>
       <c r="I13" t="n">
-        <v>33142</v>
+        <v>147111</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Jun 14 10:09 AM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FRPH</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MILTON JOHN D JR</t>
+          <t>Freeman Bryan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Executive Vice President</t>
+          <t>Exec VP of Operations</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1028,42 +1028,42 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>30.4</v>
+        <v>10.98</v>
       </c>
       <c r="G14" t="n">
-        <v>1500</v>
+        <v>1985</v>
       </c>
       <c r="H14" t="n">
-        <v>45600</v>
+        <v>21795</v>
       </c>
       <c r="I14" t="n">
-        <v>960</v>
+        <v>145126</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Jun 14 09:53 AM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KMT</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Witt John Wayne</t>
+          <t>Thoresen Erik</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vice President</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1072,42 +1072,42 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>24.37</v>
+        <v>12.86</v>
       </c>
       <c r="G15" t="n">
-        <v>579</v>
+        <v>179</v>
       </c>
       <c r="H15" t="n">
-        <v>14111</v>
+        <v>2302</v>
       </c>
       <c r="I15" t="n">
-        <v>764</v>
+        <v>6684</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Jun 14 09:40 AM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ALTR</t>
+          <t>PROP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gayle Brian</t>
+          <t>Thoresen Erik</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Chief Accounting Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1116,42 +1116,42 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>96.56999999999999</v>
+        <v>10.98</v>
       </c>
       <c r="G16" t="n">
-        <v>1866</v>
+        <v>426</v>
       </c>
       <c r="H16" t="n">
-        <v>180200</v>
+        <v>4677</v>
       </c>
       <c r="I16" t="n">
-        <v>16557</v>
+        <v>6258</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Jun 14 09:03 AM</t>
+          <t>Jun 14 09:44 PM</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOFI</t>
+          <t>MARA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Qatar Investment Authority</t>
+          <t>Ouissal Said</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Director by deputization</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1160,32 +1160,32 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6.78</v>
+        <v>20.5</v>
       </c>
       <c r="G17" t="n">
-        <v>19840073</v>
+        <v>10217</v>
       </c>
       <c r="H17" t="n">
-        <v>134515695</v>
+        <v>209448</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>60046</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Jun 14 07:41 AM</t>
+          <t>Jun 14 09:43 PM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LSEA</t>
+          <t>DRCT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FRANK BRUCE D</t>
+          <t>Leatherberry Antoinette Renee</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jun 04</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1204,32 +1204,32 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="G18" t="n">
-        <v>11671</v>
+        <v>2890</v>
       </c>
       <c r="H18" t="n">
-        <v>113209</v>
+        <v>14752</v>
       </c>
       <c r="I18" t="n">
-        <v>40752</v>
+        <v>38071</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jun 13 09:45 PM</t>
+          <t>Jun 14 09:22 PM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LSEA</t>
+          <t>DRCT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FRANK BRUCE D</t>
+          <t>Locke Mistelle</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1248,42 +1248,42 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10.21</v>
+        <v>5.22</v>
       </c>
       <c r="G19" t="n">
-        <v>5491</v>
+        <v>1098</v>
       </c>
       <c r="H19" t="n">
-        <v>56063</v>
+        <v>5732</v>
       </c>
       <c r="I19" t="n">
-        <v>35261</v>
+        <v>12634</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jun 13 09:45 PM</t>
+          <t>Jun 14 09:21 PM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DYN</t>
+          <t>DRCT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HIGH SUSANNA GATTI</t>
+          <t>Cohen Richard</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1292,32 +1292,32 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>33.36</v>
+        <v>5.31</v>
       </c>
       <c r="G20" t="n">
-        <v>40000</v>
+        <v>2778</v>
       </c>
       <c r="H20" t="n">
-        <v>1334201</v>
+        <v>14751</v>
       </c>
       <c r="I20" t="n">
-        <v>148792</v>
+        <v>38183</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Jun 13 09:45 PM</t>
+          <t>Jun 14 09:20 PM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>NCNO</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Andreessen Marc L</t>
+          <t>HORING JEFF</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1336,42 +1336,42 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>28.88</v>
+        <v>31.51</v>
       </c>
       <c r="G21" t="n">
-        <v>277484</v>
+        <v>1871828</v>
       </c>
       <c r="H21" t="n">
-        <v>8013382</v>
+        <v>58975685</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>27141639</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jun 13 09:43 PM</t>
+          <t>Jun 14 09:17 PM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>ADMA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Andreessen Horowitz LSV Fund I</t>
+          <t>Grossman Adam S</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>President,CEO, and Interim CFO</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1380,37 +1380,37 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28.88</v>
+        <v>10.72</v>
       </c>
       <c r="G22" t="n">
-        <v>277484</v>
+        <v>100000</v>
       </c>
       <c r="H22" t="n">
-        <v>8013382</v>
+        <v>1071980</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2081475</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Jun 13 09:38 PM</t>
+          <t>Jun 14 09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>ACEL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AH Parallel Fund IV, L.P.</t>
+          <t>Peterson Karl Mr.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1424,42 +1424,42 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>28.88</v>
+        <v>10.03</v>
       </c>
       <c r="G23" t="n">
-        <v>277484</v>
+        <v>30000</v>
       </c>
       <c r="H23" t="n">
-        <v>8013382</v>
+        <v>300957</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2438938</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jun 13 09:37 PM</t>
+          <t>Jun 14 09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>ACEL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Andreessen Horowitz LSV Fund I</t>
+          <t>Peterson Karl Mr.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1468,32 +1468,32 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>28.88</v>
+        <v>9.93</v>
       </c>
       <c r="G24" t="n">
-        <v>277484</v>
+        <v>34870</v>
       </c>
       <c r="H24" t="n">
-        <v>8013382</v>
+        <v>346357</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jun 13 09:36 PM</t>
+          <t>Jun 14 09:00 PM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>ACEL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>O CONNOR KEVIN J</t>
+          <t>Ruttenberg David W.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1512,42 +1512,42 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>65.76000000000001</v>
+        <v>10.52</v>
       </c>
       <c r="G25" t="n">
-        <v>5128</v>
+        <v>10511</v>
       </c>
       <c r="H25" t="n">
-        <v>337217</v>
+        <v>110597</v>
       </c>
       <c r="I25" t="n">
-        <v>1473799</v>
+        <v>436335</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Jun 13 09:33 PM</t>
+          <t>Jun 14 08:53 PM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>MITK</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>O CONNOR KEVIN J</t>
+          <t>Briggs Christopher H</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>SVP Identity</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1556,42 +1556,42 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>66.70999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="G26" t="n">
-        <v>5128</v>
+        <v>24000</v>
       </c>
       <c r="H26" t="n">
-        <v>342089</v>
+        <v>266400</v>
       </c>
       <c r="I26" t="n">
-        <v>1468671</v>
+        <v>68673</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Jun 13 09:33 PM</t>
+          <t>Jun 14 08:49 PM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PCOR</t>
+          <t>USNA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O CONNOR KEVIN J</t>
+          <t>WENTZ MYRON W</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1600,42 +1600,42 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>67.06999999999999</v>
+        <v>47.79</v>
       </c>
       <c r="G27" t="n">
-        <v>5128</v>
+        <v>2202</v>
       </c>
       <c r="H27" t="n">
-        <v>343935</v>
+        <v>105234</v>
       </c>
       <c r="I27" t="n">
-        <v>1463543</v>
+        <v>7877841</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Jun 13 09:33 PM</t>
+          <t>Jun 14 08:32 PM</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>USNA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VIDERGAUZ MARK</t>
+          <t>WENTZ MYRON W</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1644,37 +1644,37 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>51.85</v>
+        <v>45.03</v>
       </c>
       <c r="G28" t="n">
-        <v>15077</v>
+        <v>13496</v>
       </c>
       <c r="H28" t="n">
-        <v>781801</v>
+        <v>607725</v>
       </c>
       <c r="I28" t="n">
-        <v>68167</v>
+        <v>7864345</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Jun 13 09:20 PM</t>
+          <t>Jun 14 08:32 PM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>RUN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Stein Kevin M</t>
+          <t>Fenster Edward Harris</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>President &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1688,32 +1688,32 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1308.52</v>
+        <v>15.91</v>
       </c>
       <c r="G29" t="n">
-        <v>10000</v>
+        <v>44646</v>
       </c>
       <c r="H29" t="n">
-        <v>13085187</v>
+        <v>710179</v>
       </c>
       <c r="I29" t="n">
-        <v>8158</v>
+        <v>1207423</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Jun 13 09:20 PM</t>
+          <t>Jun 14 08:13 PM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>LMB</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HALL MARK J</t>
+          <t>Horowitz Joshua</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1732,42 +1732,42 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>53</v>
+        <v>57.07</v>
       </c>
       <c r="G30" t="n">
-        <v>235908</v>
+        <v>7000</v>
       </c>
       <c r="H30" t="n">
-        <v>12503124</v>
+        <v>399494</v>
       </c>
       <c r="I30" t="n">
-        <v>296846</v>
+        <v>249672</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Jun 13 09:20 PM</t>
+          <t>Jun 14 08:12 PM</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>INDI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SCHLOSBERG HILTON H</t>
+          <t>Aoki Ichiro</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Vice Chairman and Co-CEO</t>
+          <t>President</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1776,42 +1776,42 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>53</v>
+        <v>7.09</v>
       </c>
       <c r="G31" t="n">
-        <v>42144</v>
+        <v>75000</v>
       </c>
       <c r="H31" t="n">
-        <v>2233632</v>
+        <v>531750</v>
       </c>
       <c r="I31" t="n">
-        <v>1875558</v>
+        <v>36631</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Jun 13 09:19 PM</t>
+          <t>Jun 14 08:10 PM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>INDI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SCHLOSBERG HILTON H</t>
+          <t>Aoki Ichiro</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Vice Chairman and Co-CEO</t>
+          <t>President</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1820,42 +1820,42 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>53</v>
+        <v>7.31</v>
       </c>
       <c r="G32" t="n">
-        <v>331231</v>
+        <v>75000</v>
       </c>
       <c r="H32" t="n">
-        <v>17555243</v>
+        <v>548250</v>
       </c>
       <c r="I32" t="n">
-        <v>43618</v>
+        <v>36631</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Jun 13 09:19 PM</t>
+          <t>Jun 14 08:10 PM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>NCNO</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SACKS RODNEY C</t>
+          <t>Insight Holdings Group, LLC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Chairman and Co-CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1864,42 +1864,42 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>53</v>
+        <v>31.51</v>
       </c>
       <c r="G33" t="n">
-        <v>78679</v>
+        <v>692428</v>
       </c>
       <c r="H33" t="n">
-        <v>4169987</v>
+        <v>21816329</v>
       </c>
       <c r="I33" t="n">
-        <v>387310</v>
+        <v>2149453</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Jun 13 09:18 PM</t>
+          <t>Jun 14 08:10 PM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>NCNO</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SACKS RODNEY C</t>
+          <t>Insight Holdings Group, LLC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Chairman and Co-CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1908,37 +1908,37 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>53</v>
+        <v>31.51</v>
       </c>
       <c r="G34" t="n">
-        <v>331231</v>
+        <v>378645</v>
       </c>
       <c r="H34" t="n">
-        <v>17555243</v>
+        <v>11929968</v>
       </c>
       <c r="I34" t="n">
-        <v>43618</v>
+        <v>434923</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Jun 13 09:18 PM</t>
+          <t>Jun 14 08:08 PM</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EXPI</t>
+          <t>NCNO</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sanford Glenn Darrel</t>
+          <t>Insight Holdings Group, LLC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CEO and Chairman of the Board</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1952,42 +1952,42 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>12.02</v>
+        <v>31.51</v>
       </c>
       <c r="G35" t="n">
-        <v>1005</v>
+        <v>800755</v>
       </c>
       <c r="H35" t="n">
-        <v>12085</v>
+        <v>25229388</v>
       </c>
       <c r="I35" t="n">
-        <v>41512388</v>
+        <v>142820</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Jun 13 09:11 PM</t>
+          <t>Jun 14 08:07 PM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EXPI</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sanford Glenn Darrel</t>
+          <t>Woersching Eric H.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CEO and Chairman of the Board</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1996,42 +1996,42 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>11.02</v>
+        <v>24.24</v>
       </c>
       <c r="G36" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="H36" t="n">
-        <v>275585</v>
+        <v>72720</v>
       </c>
       <c r="I36" t="n">
-        <v>41487388</v>
+        <v>35843</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Jun 13 09:11 PM</t>
+          <t>Jun 14 08:06 PM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DEUTSCHE TELEKOM AG</t>
+          <t>West Tony</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>See Remarks</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2040,42 +2040,42 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>173.1</v>
+        <v>70.67</v>
       </c>
       <c r="G37" t="n">
-        <v>133461</v>
+        <v>28000</v>
       </c>
       <c r="H37" t="n">
-        <v>23102139</v>
+        <v>1978665</v>
       </c>
       <c r="I37" t="n">
-        <v>671752404</v>
+        <v>96945</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Jun 13 09:00 PM</t>
+          <t>Jun 14 08:04 PM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DEUTSCHE TELEKOM AG</t>
+          <t>Planishek Heather A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>See Remarks</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2084,42 +2084,42 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>174.53</v>
+        <v>23.91</v>
       </c>
       <c r="G38" t="n">
-        <v>137002</v>
+        <v>27690</v>
       </c>
       <c r="H38" t="n">
-        <v>23910493</v>
+        <v>662118</v>
       </c>
       <c r="I38" t="n">
-        <v>671615402</v>
+        <v>612006</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Jun 13 09:00 PM</t>
+          <t>Jun 14 08:03 PM</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>FLUX</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>O'Brien MaryJo</t>
+          <t>Johnson Michael</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ex VP, Chief Admin &amp; Secretary</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>May 14</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2128,42 +2128,42 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>94.06</v>
+        <v>2.98</v>
       </c>
       <c r="G39" t="n">
-        <v>19</v>
+        <v>134623</v>
       </c>
       <c r="H39" t="n">
-        <v>1787</v>
+        <v>401500</v>
       </c>
       <c r="I39" t="n">
-        <v>65686</v>
+        <v>4187934</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Jun 13 08:57 PM</t>
+          <t>Jun 14 08:03 PM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>DKNG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>O'Brien MaryJo</t>
+          <t>SLOAN HARRY</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ex VP, Chief Admin &amp; Secretary</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2172,42 +2172,42 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>94.06</v>
+        <v>38.15</v>
       </c>
       <c r="G40" t="n">
-        <v>1129</v>
+        <v>250000</v>
       </c>
       <c r="H40" t="n">
-        <v>106194</v>
+        <v>9537500</v>
       </c>
       <c r="I40" t="n">
-        <v>64557</v>
+        <v>250000</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Jun 13 08:57 PM</t>
+          <t>Jun 14 08:01 PM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tan Kwang Hooi</t>
+          <t>Hong Timmie</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Group President</t>
+          <t>Chief Product Officer</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2216,42 +2216,42 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>32.13</v>
+        <v>88.01000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>11570</v>
+        <v>7437</v>
       </c>
       <c r="H41" t="n">
-        <v>371766</v>
+        <v>654563</v>
       </c>
       <c r="I41" t="n">
-        <v>160976</v>
+        <v>119482</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Jun 13 08:38 PM</t>
+          <t>Jun 14 08:00 PM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>UVE</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>OFFER DAVID SCOTT</t>
+          <t>DOWNES SEAN P</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EVP, General Counsel</t>
+          <t>Executive Chairman</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2260,37 +2260,37 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>32.13</v>
+        <v>18.31</v>
       </c>
       <c r="G42" t="n">
-        <v>27714</v>
+        <v>20000</v>
       </c>
       <c r="H42" t="n">
-        <v>890440</v>
+        <v>366280</v>
       </c>
       <c r="I42" t="n">
-        <v>150230</v>
+        <v>1142262</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Jun 13 08:37 PM</t>
+          <t>Jun 14 07:54 PM</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>AMPX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lundstrom Paul</t>
+          <t>MIRRO JUSTIN E</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2304,42 +2304,42 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>32.13</v>
+        <v>1.3</v>
       </c>
       <c r="G43" t="n">
-        <v>29041</v>
+        <v>280000</v>
       </c>
       <c r="H43" t="n">
-        <v>933099</v>
+        <v>363496</v>
       </c>
       <c r="I43" t="n">
-        <v>316130</v>
+        <v>1715000</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Jun 13 08:36 PM</t>
+          <t>Jun 14 07:44 PM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>AMPX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hartung Michael P</t>
+          <t>MIRRO JUSTIN E</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Group President</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2348,42 +2348,42 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>32.13</v>
+        <v>1.21</v>
       </c>
       <c r="G44" t="n">
-        <v>25525</v>
+        <v>260000</v>
       </c>
       <c r="H44" t="n">
-        <v>820134</v>
+        <v>315653</v>
       </c>
       <c r="I44" t="n">
-        <v>188844</v>
+        <v>1650000</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Jun 13 08:35 PM</t>
+          <t>Jun 14 07:44 PM</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FLEX</t>
+          <t>AMPX</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Advaithi Revathi</t>
+          <t>MIRRO JUSTIN E</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2392,42 +2392,42 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>32.13</v>
+        <v>1.13</v>
       </c>
       <c r="G45" t="n">
-        <v>130604</v>
+        <v>260000</v>
       </c>
       <c r="H45" t="n">
-        <v>4196241</v>
+        <v>294060</v>
       </c>
       <c r="I45" t="n">
-        <v>1930427</v>
+        <v>1467142</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Jun 13 08:34 PM</t>
+          <t>Jun 14 07:44 PM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>INDI</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Heraud Benjamin</t>
+          <t>Parekh Sonalee Elizabeth</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Co-CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>May 14</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2436,42 +2436,42 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>94.06</v>
+        <v>7.58</v>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>10000</v>
       </c>
       <c r="H46" t="n">
-        <v>282</v>
+        <v>75800</v>
       </c>
       <c r="I46" t="n">
-        <v>19677</v>
+        <v>75185</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Jun 13 08:33 PM</t>
+          <t>Jun 14 07:40 PM</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Heraud Benjamin</t>
+          <t>MacLean Michael F</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Co-CEO</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>May 28</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2480,37 +2480,37 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>92.53</v>
+        <v>35.72</v>
       </c>
       <c r="G47" t="n">
-        <v>1222</v>
+        <v>104245</v>
       </c>
       <c r="H47" t="n">
-        <v>113072</v>
+        <v>3723141</v>
       </c>
       <c r="I47" t="n">
-        <v>18455</v>
+        <v>44093</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Jun 13 08:33 PM</t>
+          <t>Jun 14 07:07 PM</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>SCHW</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Horwath Matthew</t>
+          <t>Clark Bernard J.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SVP &amp; Chief Financial Officer</t>
+          <t>MD Head of Advisor Services</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2524,37 +2524,37 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>18.65</v>
+        <v>75</v>
       </c>
       <c r="G48" t="n">
-        <v>175</v>
+        <v>8164</v>
       </c>
       <c r="H48" t="n">
-        <v>3264</v>
+        <v>612300</v>
       </c>
       <c r="I48" t="n">
-        <v>29974</v>
+        <v>121666</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Jun 13 08:29 PM</t>
+          <t>Jun 14 07:07 PM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SEXTON JEFFREY D</t>
+          <t>LEVIN ARTHUR A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Senior VP of Global Sales</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2568,42 +2568,42 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>18.65</v>
+        <v>35.07</v>
       </c>
       <c r="G49" t="n">
-        <v>651</v>
+        <v>40000</v>
       </c>
       <c r="H49" t="n">
-        <v>12141</v>
+        <v>1402628</v>
       </c>
       <c r="I49" t="n">
-        <v>27055</v>
+        <v>213872</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Jun 13 08:29 PM</t>
+          <t>Jun 14 07:03 PM</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WASSERMAN YUVAL</t>
+          <t>LEVIN ARTHUR A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Executive Chairman</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2612,37 +2612,37 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>18.65</v>
+        <v>40.08</v>
       </c>
       <c r="G50" t="n">
-        <v>8986</v>
+        <v>60000</v>
       </c>
       <c r="H50" t="n">
-        <v>167589</v>
+        <v>2404782</v>
       </c>
       <c r="I50" t="n">
-        <v>202835</v>
+        <v>153872</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Jun 13 08:28 PM</t>
+          <t>Jun 14 07:03 PM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WASSERMAN YUVAL</t>
+          <t>Stahlkopf Deborah L</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Executive Chairman</t>
+          <t>EVP and Chief Legal Officer</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2656,42 +2656,42 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>17.57</v>
+        <v>45.34</v>
       </c>
       <c r="G51" t="n">
-        <v>9539</v>
+        <v>2619</v>
       </c>
       <c r="H51" t="n">
-        <v>167600</v>
+        <v>118759</v>
       </c>
       <c r="I51" t="n">
-        <v>193296</v>
+        <v>176384</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Jun 13 08:28 PM</t>
+          <t>Jun 14 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Prince Matthew</t>
+          <t>AFEYAN NOUBAR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CEO &amp; Chair of the Board</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2700,42 +2700,42 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>72.04000000000001</v>
+        <v>147.2</v>
       </c>
       <c r="G52" t="n">
-        <v>52384</v>
+        <v>15000</v>
       </c>
       <c r="H52" t="n">
-        <v>3773618</v>
+        <v>2208071</v>
       </c>
       <c r="I52" t="n">
-        <v>8742</v>
+        <v>2314015</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Jun 13 08:08 PM</t>
+          <t>Jun 14 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>MTUS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Prince Matthew</t>
+          <t>Raketich Kevin A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CEO &amp; Chair of the Board</t>
+          <t>EVP, Chief Commercial Officer</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2744,42 +2744,42 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>75.06999999999999</v>
+        <v>21.14</v>
       </c>
       <c r="G53" t="n">
-        <v>52384</v>
+        <v>1000</v>
       </c>
       <c r="H53" t="n">
-        <v>3932231</v>
+        <v>21140</v>
       </c>
       <c r="I53" t="n">
-        <v>8742</v>
+        <v>81551</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Jun 13 08:08 PM</t>
+          <t>Jun 14 07:00 PM</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NET</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Prince Matthew</t>
+          <t>Subaiya Thimaya K.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CEO &amp; Chair of the Board</t>
+          <t>EVP, Operations</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2788,42 +2788,42 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>74.45999999999999</v>
+        <v>45.32</v>
       </c>
       <c r="G54" t="n">
-        <v>52384</v>
+        <v>13896</v>
       </c>
       <c r="H54" t="n">
-        <v>3900705</v>
+        <v>629767</v>
       </c>
       <c r="I54" t="n">
-        <v>8742</v>
+        <v>150787</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Jun 13 08:08 PM</t>
+          <t>Jun 14 06:58 PM</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Boyce Sarah</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2832,37 +2832,37 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.06</v>
+        <v>40.08</v>
       </c>
       <c r="G55" t="n">
-        <v>772313</v>
+        <v>164233</v>
       </c>
       <c r="H55" t="n">
-        <v>43327</v>
+        <v>6581802</v>
       </c>
       <c r="I55" t="n">
-        <v>11078625</v>
+        <v>112117</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 14 06:58 PM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Boyce Sarah</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2876,42 +2876,42 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.08</v>
+        <v>35.73</v>
       </c>
       <c r="G56" t="n">
-        <v>366853</v>
+        <v>100000</v>
       </c>
       <c r="H56" t="n">
-        <v>29715</v>
+        <v>3573020</v>
       </c>
       <c r="I56" t="n">
-        <v>10711772</v>
+        <v>112117</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 14 06:58 PM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>RNA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Boyce Sarah</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>President and CEO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2920,42 +2920,42 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.07000000000000001</v>
+        <v>40.08</v>
       </c>
       <c r="G57" t="n">
-        <v>42287</v>
+        <v>35767</v>
       </c>
       <c r="H57" t="n">
-        <v>3024</v>
+        <v>1433484</v>
       </c>
       <c r="I57" t="n">
-        <v>10669485</v>
+        <v>112117</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 14 06:58 PM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RBT</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Wong Maria Victoria</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>SVP &amp; Chief Acctg Officer</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2964,42 +2964,42 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.06</v>
+        <v>45.42</v>
       </c>
       <c r="G58" t="n">
-        <v>772313</v>
+        <v>762</v>
       </c>
       <c r="H58" t="n">
-        <v>43327</v>
+        <v>34610</v>
       </c>
       <c r="I58" t="n">
-        <v>11078625</v>
+        <v>51788</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 14 06:56 PM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RBT</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Crehan Shane</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Chief Accounting Officer</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3008,42 +3008,42 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.08</v>
+        <v>60.25</v>
       </c>
       <c r="G59" t="n">
-        <v>366853</v>
+        <v>363</v>
       </c>
       <c r="H59" t="n">
-        <v>29715</v>
+        <v>21871</v>
       </c>
       <c r="I59" t="n">
-        <v>10711772</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 14 06:47 PM</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RBT</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Steckelberg Kelly</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10% Owner</t>
+          <t>Chief Financial Officer</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3052,42 +3052,42 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.07000000000000001</v>
+        <v>61.43</v>
       </c>
       <c r="G60" t="n">
-        <v>42287</v>
+        <v>5007</v>
       </c>
       <c r="H60" t="n">
-        <v>3024</v>
+        <v>307565</v>
       </c>
       <c r="I60" t="n">
-        <v>10669485</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Jun 13 08:01 PM</t>
+          <t>Jun 14 06:35 PM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>TTEK</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Taylor Ryan D.</t>
+          <t>SHOEMAKER LESLIE L</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>See Remarks</t>
+          <t>EVP, Chief Sustainability</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3096,42 +3096,42 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>23.09</v>
+        <v>211.83</v>
       </c>
       <c r="G61" t="n">
-        <v>593</v>
+        <v>11161</v>
       </c>
       <c r="H61" t="n">
-        <v>13692</v>
+        <v>2364257</v>
       </c>
       <c r="I61" t="n">
-        <v>264854</v>
+        <v>74887</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 14 06:32 PM</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TDW</t>
+          <t>GRND</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Kneen Quintin</t>
+          <t>Lu James Fu Bin</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3140,42 +3140,42 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>103.76</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="G62" t="n">
-        <v>166000</v>
+        <v>295263</v>
       </c>
       <c r="H62" t="n">
-        <v>17223496</v>
+        <v>2693507</v>
       </c>
       <c r="I62" t="n">
-        <v>335718</v>
+        <v>36186431</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 14 06:27 PM</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TDW</t>
+          <t>GRND</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kneen Quintin</t>
+          <t>Lu James Fu Bin</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIRECTOR, PRESIDENT &amp; CEO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3184,32 +3184,32 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>105.86</v>
+        <v>9.27</v>
       </c>
       <c r="G63" t="n">
-        <v>201094</v>
+        <v>409670</v>
       </c>
       <c r="H63" t="n">
-        <v>21288816</v>
+        <v>3796043</v>
       </c>
       <c r="I63" t="n">
-        <v>134624</v>
+        <v>35776761</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 14 06:27 PM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TDW</t>
+          <t>GRND</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Traub Kenneth</t>
+          <t>Lu James Fu Bin</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3228,37 +3228,37 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>106.38</v>
+        <v>9.02</v>
       </c>
       <c r="G64" t="n">
-        <v>20000</v>
+        <v>388000</v>
       </c>
       <c r="H64" t="n">
-        <v>2127606</v>
+        <v>3499760</v>
       </c>
       <c r="I64" t="n">
-        <v>68802</v>
+        <v>35388761</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 14 06:27 PM</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>ISPO</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Correia Richard</t>
+          <t>Institutional Venture Partners</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>President, CFO and Treasurer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -3272,42 +3272,42 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>90.40000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="G65" t="n">
-        <v>28675</v>
+        <v>11603</v>
       </c>
       <c r="H65" t="n">
-        <v>2592256</v>
+        <v>45252</v>
       </c>
       <c r="I65" t="n">
-        <v>232325</v>
+        <v>368626</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Jun 13 08:00 PM</t>
+          <t>Jun 14 06:26 PM</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>ISPO</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DELL MICHAEL S</t>
+          <t>Institutional Venture Partners</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3316,32 +3316,32 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>133.04</v>
+        <v>3.91</v>
       </c>
       <c r="G66" t="n">
-        <v>1001381</v>
+        <v>7639</v>
       </c>
       <c r="H66" t="n">
-        <v>133224349</v>
+        <v>29868</v>
       </c>
       <c r="I66" t="n">
-        <v>27930618</v>
+        <v>360987</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Jun 13 07:35 PM</t>
+          <t>Jun 14 06:26 PM</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>MLYS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DELL MICHAEL S</t>
+          <t>Congleton Jon</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3360,32 +3360,32 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>131.96</v>
+        <v>12.77</v>
       </c>
       <c r="G67" t="n">
-        <v>1205052</v>
+        <v>16607</v>
       </c>
       <c r="H67" t="n">
-        <v>159024464</v>
+        <v>212013</v>
       </c>
       <c r="I67" t="n">
-        <v>26725566</v>
+        <v>1032461</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Jun 13 07:35 PM</t>
+          <t>Jun 14 06:15 PM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>MLYS</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DELL MICHAEL S</t>
+          <t>Congleton Jon</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3404,42 +3404,42 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>134.97</v>
+        <v>12.74</v>
       </c>
       <c r="G68" t="n">
-        <v>3475496</v>
+        <v>39961</v>
       </c>
       <c r="H68" t="n">
-        <v>469096968</v>
+        <v>509027</v>
       </c>
       <c r="I68" t="n">
-        <v>23250070</v>
+        <v>992500</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Jun 13 07:35 PM</t>
+          <t>Jun 14 06:15 PM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>APPF</t>
+          <t>MLYS</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BLISS TIMOTHY K</t>
+          <t>Congleton Jon</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Executive Officer</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3448,37 +3448,37 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>233.41</v>
+        <v>12.52</v>
       </c>
       <c r="G69" t="n">
-        <v>26100</v>
+        <v>16229</v>
       </c>
       <c r="H69" t="n">
-        <v>6091979</v>
+        <v>203163</v>
       </c>
       <c r="I69" t="n">
-        <v>12170</v>
+        <v>976271</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Jun 13 07:27 PM</t>
+          <t>Jun 14 06:15 PM</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>APPF</t>
+          <t>FLL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BLISS TIMOTHY K</t>
+          <t>Ferrucci John</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF OPERATING OFFICER</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3492,32 +3492,32 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>241.31</v>
+        <v>5.06</v>
       </c>
       <c r="G70" t="n">
-        <v>12170</v>
+        <v>1501</v>
       </c>
       <c r="H70" t="n">
-        <v>2936800</v>
+        <v>7600</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>28328</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Jun 13 07:27 PM</t>
+          <t>Jun 14 06:15 PM</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>UDMY</t>
+          <t>PRIM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bali Eren</t>
+          <t>MASHINSKI CARLA S</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3536,42 +3536,42 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>9</v>
+        <v>53.92</v>
       </c>
       <c r="G71" t="n">
-        <v>400</v>
+        <v>3883</v>
       </c>
       <c r="H71" t="n">
-        <v>3600</v>
+        <v>209371</v>
       </c>
       <c r="I71" t="n">
-        <v>1669077</v>
+        <v>20454</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Jun 13 07:10 PM</t>
+          <t>Jun 14 06:15 PM</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>UDMY</t>
+          <t>MNR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Bali Eren</t>
+          <t>WHITE KEVIN R.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>See Remarks</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3580,42 +3580,42 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>9.06</v>
+        <v>18.5</v>
       </c>
       <c r="G72" t="n">
-        <v>14600</v>
+        <v>300000</v>
       </c>
       <c r="H72" t="n">
-        <v>132276</v>
+        <v>5550000</v>
       </c>
       <c r="I72" t="n">
-        <v>1654477</v>
+        <v>467054</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Jun 13 07:10 PM</t>
+          <t>Jun 14 06:07 PM</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>NKTR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Codispoti Edward H</t>
+          <t>CHESS ROBERT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CFO</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3624,42 +3624,42 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>91.45999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="G73" t="n">
-        <v>760</v>
+        <v>19500</v>
       </c>
       <c r="H73" t="n">
-        <v>69510</v>
+        <v>23400</v>
       </c>
       <c r="I73" t="n">
-        <v>16929</v>
+        <v>255273</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Jun 13 07:07 PM</t>
+          <t>Jun 14 06:02 PM</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NVEE</t>
+          <t>MGNI</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tong Richard</t>
+          <t>Saltz Aaron</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Exec VP and General Counsel</t>
+          <t>CHIEF LEGAL OFFICER</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3668,32 +3668,32 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>94</v>
+        <v>13.65</v>
       </c>
       <c r="G74" t="n">
-        <v>3119</v>
+        <v>4778</v>
       </c>
       <c r="H74" t="n">
-        <v>293186</v>
+        <v>65220</v>
       </c>
       <c r="I74" t="n">
-        <v>16288</v>
+        <v>317010</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Jun 13 07:02 PM</t>
+          <t>Jun 14 06:02 PM</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SNAP</t>
+          <t>KYMR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Coles Joanna</t>
+          <t>Booth Bruce</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3712,42 +3712,42 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>15.17</v>
+        <v>35.45</v>
       </c>
       <c r="G75" t="n">
-        <v>3950</v>
+        <v>16740</v>
       </c>
       <c r="H75" t="n">
-        <v>59922</v>
+        <v>593378</v>
       </c>
       <c r="I75" t="n">
-        <v>46492</v>
+        <v>803792</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Jun 13 07:00 PM</t>
+          <t>Jun 14 06:01 PM</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>KYMR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Richison Chad R.</t>
+          <t>Booth Bruce</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CEO, President and Chairman</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3756,42 +3756,42 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>145.55</v>
+        <v>34.98</v>
       </c>
       <c r="G76" t="n">
-        <v>1950</v>
+        <v>10200</v>
       </c>
       <c r="H76" t="n">
-        <v>283819</v>
+        <v>356796</v>
       </c>
       <c r="I76" t="n">
-        <v>3058808</v>
+        <v>802022</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Jun 13 07:00 PM</t>
+          <t>Jun 14 06:01 PM</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>AVTE</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Richison Chad R.</t>
+          <t>Eldridge George A</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CEO, President and Chairman</t>
+          <t>SEE REMARKS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3800,42 +3800,42 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>145.55</v>
+        <v>25.03</v>
       </c>
       <c r="G77" t="n">
-        <v>1950</v>
+        <v>15000</v>
       </c>
       <c r="H77" t="n">
-        <v>283819</v>
+        <v>375450</v>
       </c>
       <c r="I77" t="n">
-        <v>3635899</v>
+        <v>5022</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Jun 13 07:00 PM</t>
+          <t>Jun 14 06:00 PM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FIBK</t>
+          <t>AVTE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Scott Jonathan R</t>
+          <t>Verwijs Marinus</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF TECHNICAL OFFICER</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3844,42 +3844,42 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>25.29</v>
+        <v>25</v>
       </c>
       <c r="G78" t="n">
-        <v>29499</v>
+        <v>10600</v>
       </c>
       <c r="H78" t="n">
-        <v>746030</v>
+        <v>265000</v>
       </c>
       <c r="I78" t="n">
-        <v>1021663</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Jun 13 06:46 PM</t>
+          <t>Jun 14 06:00 PM</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FIBK</t>
+          <t>AVTE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Scott Jonathan R</t>
+          <t>Gillies Hunter</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>CHIEF MEDICAL OFFICER</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3888,42 +3888,42 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>26.14</v>
+        <v>24.5</v>
       </c>
       <c r="G79" t="n">
-        <v>14403</v>
+        <v>6000</v>
       </c>
       <c r="H79" t="n">
-        <v>376494</v>
+        <v>147000</v>
       </c>
       <c r="I79" t="n">
-        <v>1007260</v>
+        <v>5602</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Jun 13 06:46 PM</t>
+          <t>Jun 14 06:00 PM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>CACI</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Barkidjija John</t>
+          <t>Johnson Gregory G</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>HEAD OF CRE &amp; SPECIALTY FIN</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3932,42 +3932,42 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>22.64</v>
+        <v>428.19</v>
       </c>
       <c r="G80" t="n">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="H80" t="n">
-        <v>226420</v>
+        <v>85639</v>
       </c>
       <c r="I80" t="n">
-        <v>30691</v>
+        <v>6078</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Jun 13 06:44 PM</t>
+          <t>Jun 14 05:59 PM</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NRIX</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ring Christine</t>
+          <t>Clark Jason D.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Chief Legal Officer</t>
+          <t>Chief Administrative Officer</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3976,42 +3976,42 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>17.02</v>
+        <v>143.61</v>
       </c>
       <c r="G81" t="n">
-        <v>1864</v>
+        <v>906</v>
       </c>
       <c r="H81" t="n">
-        <v>31721</v>
+        <v>130111</v>
       </c>
       <c r="I81" t="n">
-        <v>19838</v>
+        <v>43367</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Jun 13 06:39 PM</t>
+          <t>Jun 14 05:58 PM</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NXST</t>
+          <t>ALHC</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>McMillen Charles Thomas</t>
+          <t>Maroney Dawn Christine</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>President, Markets</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4020,42 +4020,42 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>154.99</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>1475</v>
+        <v>20000</v>
       </c>
       <c r="H82" t="n">
-        <v>228610</v>
+        <v>164200</v>
       </c>
       <c r="I82" t="n">
-        <v>8975</v>
+        <v>1956097</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Jun 13 06:38 PM</t>
+          <t>Jun 14 05:49 PM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GTLB</t>
+          <t>SMAR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ROBINS BRIAN G</t>
+          <t>Godbole Pete</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>CFO &amp; Treasurer</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4064,37 +4064,37 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>45.46</v>
+        <v>43.54</v>
       </c>
       <c r="G83" t="n">
-        <v>11667</v>
+        <v>7500</v>
       </c>
       <c r="H83" t="n">
-        <v>530382</v>
+        <v>326550</v>
       </c>
       <c r="I83" t="n">
-        <v>293508</v>
+        <v>36846</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Jun 13 06:36 PM</t>
+          <t>Jun 14 05:47 PM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>SITM</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Storm Adam</t>
+          <t>Sevalia Piyush B</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Pres. &amp; Chief Product Off.</t>
+          <t>EVP, Marketing</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -4108,42 +4108,42 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.51</v>
+        <v>130</v>
       </c>
       <c r="G84" t="n">
-        <v>7803</v>
+        <v>827</v>
       </c>
       <c r="H84" t="n">
-        <v>11783</v>
+        <v>107510</v>
       </c>
       <c r="I84" t="n">
-        <v>1340214</v>
+        <v>89624</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Jun 13 06:35 PM</t>
+          <t>Jun 14 05:45 PM</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>ITI</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Storm Adam</t>
+          <t>Kreter Todd</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Pres. &amp; Chief Product Off.</t>
+          <t>Sr. Vice President</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 10</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4152,42 +4152,42 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.51</v>
+        <v>4.3</v>
       </c>
       <c r="G85" t="n">
-        <v>3134</v>
+        <v>2585</v>
       </c>
       <c r="H85" t="n">
-        <v>4732</v>
+        <v>11126</v>
       </c>
       <c r="I85" t="n">
-        <v>1337080</v>
+        <v>96645</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Jun 13 06:35 PM</t>
+          <t>Jun 14 05:45 PM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>AKAM</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Newstead Jennifer</t>
+          <t>Blumofe Robert</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Chief Legal Officer</t>
+          <t>Chief Technology Officer</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4196,32 +4196,32 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>500</v>
+        <v>88.34</v>
       </c>
       <c r="G86" t="n">
-        <v>905</v>
+        <v>3000</v>
       </c>
       <c r="H86" t="n">
-        <v>452500</v>
+        <v>265020</v>
       </c>
       <c r="I86" t="n">
-        <v>40560</v>
+        <v>24729</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Jun 13 06:33 PM</t>
+          <t>Jun 14 05:37 PM</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CLF</t>
+          <t>REAL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Taylor Douglas C</t>
+          <t>KROLIK ROBERT J</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4240,37 +4240,37 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>14.87</v>
+        <v>3.67</v>
       </c>
       <c r="G87" t="n">
-        <v>36000</v>
+        <v>29737</v>
       </c>
       <c r="H87" t="n">
-        <v>535223</v>
+        <v>109135</v>
       </c>
       <c r="I87" t="n">
-        <v>100536</v>
+        <v>139407</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Jun 13 06:16 PM</t>
+          <t>Jun 14 05:37 PM</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>REAL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RIKER LAUREN</t>
+          <t>MELTON CAROL A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Senior Vice President, Finance</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -4284,42 +4284,42 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>28.72</v>
+        <v>3.66</v>
       </c>
       <c r="G88" t="n">
-        <v>3970</v>
+        <v>28000</v>
       </c>
       <c r="H88" t="n">
-        <v>114018</v>
+        <v>102480</v>
       </c>
       <c r="I88" t="n">
-        <v>38075</v>
+        <v>157187</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Jun 13 06:15 PM</t>
+          <t>Jun 14 05:37 PM</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>REAL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SLONIN JONATHAN</t>
+          <t>Leondakis Niki</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Chief Medical Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4328,42 +4328,42 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>28.57</v>
+        <v>3.62</v>
       </c>
       <c r="G89" t="n">
-        <v>5012</v>
+        <v>59474</v>
       </c>
       <c r="H89" t="n">
-        <v>143193</v>
+        <v>215296</v>
       </c>
       <c r="I89" t="n">
-        <v>44569</v>
+        <v>125713</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Jun 13 06:15 PM</t>
+          <t>Jun 14 05:36 PM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>HOV</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Young Jonathan</t>
+          <t>Sellers Robin Stone</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4372,37 +4372,37 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>22.64</v>
+        <v>154.2</v>
       </c>
       <c r="G90" t="n">
-        <v>2516</v>
+        <v>1459</v>
       </c>
       <c r="H90" t="n">
-        <v>56965</v>
+        <v>224978</v>
       </c>
       <c r="I90" t="n">
-        <v>250790</v>
+        <v>22716</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 14 05:33 PM</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>WLDN</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GAUGLER DARYL</t>
+          <t>BIEBER MICHAEL A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Chief Operating Officer</t>
+          <t>PRESIDENT AND CEO</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4416,42 +4416,42 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>28.38</v>
+        <v>30.32</v>
       </c>
       <c r="G91" t="n">
-        <v>1000</v>
+        <v>4460</v>
       </c>
       <c r="H91" t="n">
-        <v>28380</v>
+        <v>135227</v>
       </c>
       <c r="I91" t="n">
-        <v>116040</v>
+        <v>169043</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 14 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WLDN</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BIEBER MICHAEL A</t>
+          <t>Richison Chad R.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PRESIDENT AND CEO</t>
+          <t>CEO, President and Chairman</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4460,42 +4460,42 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>30.25</v>
+        <v>141.7</v>
       </c>
       <c r="G92" t="n">
-        <v>4464</v>
+        <v>1950</v>
       </c>
       <c r="H92" t="n">
-        <v>135036</v>
+        <v>276312</v>
       </c>
       <c r="I92" t="n">
-        <v>165897</v>
+        <v>3056858</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 14 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WLDN</t>
+          <t>PAYC</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BIEBER MICHAEL A</t>
+          <t>Richison Chad R.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PRESIDENT AND CEO</t>
+          <t>CEO, President and Chairman</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4504,37 +4504,37 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>30.98</v>
+        <v>141.7</v>
       </c>
       <c r="G93" t="n">
-        <v>4394</v>
+        <v>1950</v>
       </c>
       <c r="H93" t="n">
-        <v>136126</v>
+        <v>276312</v>
       </c>
       <c r="I93" t="n">
-        <v>167503</v>
+        <v>3633949</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 14 05:31 PM</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>SNEX</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HASTINGS PAUL J</t>
+          <t>Rotsztain Diego</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>Chief Governance/Legal Officer</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4548,37 +4548,37 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>28.38</v>
+        <v>70.63</v>
       </c>
       <c r="G94" t="n">
-        <v>880</v>
+        <v>5382</v>
       </c>
       <c r="H94" t="n">
-        <v>24974</v>
+        <v>380130</v>
       </c>
       <c r="I94" t="n">
-        <v>12724</v>
+        <v>23078</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Jun 13 06:13 PM</t>
+          <t>Jun 14 05:25 PM</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PCRX</t>
+          <t>VRRM</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>WILLIAMS KRISTEN</t>
+          <t>Baldwin Jonathan</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Chief Administrative Officer</t>
+          <t>EVP-Government Solutions</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4592,42 +4592,42 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>28.38</v>
+        <v>26.14</v>
       </c>
       <c r="G95" t="n">
-        <v>7452</v>
+        <v>9758</v>
       </c>
       <c r="H95" t="n">
-        <v>211488</v>
+        <v>255093</v>
       </c>
       <c r="I95" t="n">
-        <v>102912</v>
+        <v>7673</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Jun 13 06:12 PM</t>
+          <t>Jun 14 05:24 PM</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>ANIP</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Smallwood Garrett</t>
+          <t>Cook Meredith</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>SR. VP, GENERAL COUNSEL &amp; SEC.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jun 12</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4636,42 +4636,42 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.51</v>
+        <v>63.8</v>
       </c>
       <c r="G96" t="n">
-        <v>7832</v>
+        <v>250</v>
       </c>
       <c r="H96" t="n">
-        <v>11826</v>
+        <v>15950</v>
       </c>
       <c r="I96" t="n">
-        <v>1168213</v>
+        <v>59231</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Jun 13 06:11 PM</t>
+          <t>Jun 14 05:23 PM</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>LPSN</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Smallwood Garrett</t>
+          <t>Kroman Alex</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Chief Executive Officer</t>
+          <t>EVP, Product and Technology</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Jun 13</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4680,42 +4680,42 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.51</v>
+        <v>0.64</v>
       </c>
       <c r="G97" t="n">
-        <v>3121</v>
+        <v>120047</v>
       </c>
       <c r="H97" t="n">
-        <v>4713</v>
+        <v>76830</v>
       </c>
       <c r="I97" t="n">
-        <v>1165092</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Jun 13 06:11 PM</t>
+          <t>Jun 14 05:23 PM</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>VRRM</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Yale Catriona</t>
+          <t>REXFORD JOHN H</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Chief Development Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 12</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4724,42 +4724,42 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>22.64</v>
+        <v>26.37</v>
       </c>
       <c r="G98" t="n">
-        <v>2825</v>
+        <v>9005</v>
       </c>
       <c r="H98" t="n">
-        <v>63961</v>
+        <v>237438</v>
       </c>
       <c r="I98" t="n">
-        <v>74867</v>
+        <v>41275</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Jun 13 06:11 PM</t>
+          <t>Jun 14 05:22 PM</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>QS</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>White William Richard</t>
+          <t>Singh Jagdeep</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Chief Financial Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4768,42 +4768,42 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>22.64</v>
+        <v>5.35</v>
       </c>
       <c r="G99" t="n">
-        <v>2831</v>
+        <v>192270</v>
       </c>
       <c r="H99" t="n">
-        <v>64094</v>
+        <v>1029221</v>
       </c>
       <c r="I99" t="n">
-        <v>46799</v>
+        <v>2809253</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Jun 13 06:09 PM</t>
+          <t>Jun 14 05:21 PM</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>QS</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Rolph Timothy</t>
+          <t>Singh Jagdeep</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Chief Scientific Officer</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4812,32 +4812,32 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>22.64</v>
+        <v>5.35</v>
       </c>
       <c r="G100" t="n">
-        <v>2380</v>
+        <v>57690</v>
       </c>
       <c r="H100" t="n">
-        <v>53886</v>
+        <v>308815</v>
       </c>
       <c r="I100" t="n">
-        <v>180178</v>
+        <v>5946998</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Jun 13 06:06 PM</t>
+          <t>Jun 14 05:21 PM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GCT</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Lin Frank Hurst</t>
+          <t>ROCCA MICHAEL A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4856,37 +4856,37 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>33.16</v>
+        <v>149.52</v>
       </c>
       <c r="G101" t="n">
-        <v>175178</v>
+        <v>1189</v>
       </c>
       <c r="H101" t="n">
-        <v>5808750</v>
+        <v>177779</v>
       </c>
       <c r="I101" t="n">
-        <v>5069889</v>
+        <v>20219</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Jun 13 06:06 PM</t>
+          <t>Jun 14 05:18 PM</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GCT</t>
+          <t>CVNA</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Lin Frank Hurst</t>
+          <t>GARCIA ERNEST C. II</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Director</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4900,42 +4900,42 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>32.63</v>
+        <v>110.25</v>
       </c>
       <c r="G102" t="n">
-        <v>91781</v>
+        <v>60000</v>
       </c>
       <c r="H102" t="n">
-        <v>2994442</v>
+        <v>6614975</v>
       </c>
       <c r="I102" t="n">
-        <v>4978108</v>
+        <v>1357500</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Jun 13 06:06 PM</t>
+          <t>Jun 14 05:15 PM</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>CVNA</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Lamy Patrick</t>
+          <t>GARCIA ERNEST C. II</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Senior VP, Commercial Strategy</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4944,42 +4944,42 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>22.64</v>
+        <v>107.44</v>
       </c>
       <c r="G103" t="n">
-        <v>569</v>
+        <v>60000</v>
       </c>
       <c r="H103" t="n">
-        <v>12883</v>
+        <v>6446263</v>
       </c>
       <c r="I103" t="n">
-        <v>18562</v>
+        <v>1297500</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Jun 13 06:04 PM</t>
+          <t>Jun 14 05:15 PM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>OMF</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Hedlund Michael A</t>
+          <t>WALTON S ROBSON</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>pao, SVP and Group Controller</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 13</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4988,42 +4988,42 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>48.1</v>
+        <v>66.52</v>
       </c>
       <c r="G104" t="n">
-        <v>3000</v>
+        <v>750000</v>
       </c>
       <c r="H104" t="n">
-        <v>144300</v>
+        <v>49891800</v>
       </c>
       <c r="I104" t="n">
-        <v>28147</v>
+        <v>634762658</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Jun 13 06:02 PM</t>
+          <t>Jun 14 05:14 PM</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cheng Andrew</t>
+          <t>WALTON S ROBSON</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>President and CEO</t>
+          <t>10% Owner</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jun 11</t>
+          <t>Jun 14</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5032,1120 +5032,20 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>22.64</v>
+        <v>66.63</v>
       </c>
       <c r="G105" t="n">
-        <v>7894</v>
+        <v>1244347</v>
       </c>
       <c r="H105" t="n">
-        <v>178728</v>
+        <v>82910841</v>
       </c>
       <c r="I105" t="n">
-        <v>581553</v>
+        <v>633518311</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Jun 13 06:01 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>PET</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Allread Dylan</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Chief Operating Officer</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G106" t="n">
-        <v>564</v>
-      </c>
-      <c r="H106" t="n">
-        <v>891</v>
-      </c>
-      <c r="I106" t="n">
-        <v>650566</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Jun 13 05:57 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>AVDX</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Praeger Michael</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Chief Executive Officer</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="G107" t="n">
-        <v>29192</v>
-      </c>
-      <c r="H107" t="n">
-        <v>316675</v>
-      </c>
-      <c r="I107" t="n">
-        <v>10440510</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Jun 13 05:57 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>MU</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>MEHROTRA SANJAY</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>CEO and President</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>134.57</v>
-      </c>
-      <c r="G108" t="n">
-        <v>7000</v>
-      </c>
-      <c r="H108" t="n">
-        <v>941956</v>
-      </c>
-      <c r="I108" t="n">
-        <v>719049</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Jun 13 05:54 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>MU</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>MEHROTRA SANJAY</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>CEO and President</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>140</v>
-      </c>
-      <c r="G109" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H109" t="n">
-        <v>4200000</v>
-      </c>
-      <c r="I109" t="n">
-        <v>719049</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Jun 13 05:54 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>IONQ</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Kramer Thomas G.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>CHIEF FINANCIAL OFFICER</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="G110" t="n">
-        <v>4610</v>
-      </c>
-      <c r="H110" t="n">
-        <v>36357</v>
-      </c>
-      <c r="I110" t="n">
-        <v>949614</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Jun 13 05:53 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>IONQ</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Kramer Thomas G.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>CHIEF FINANCIAL OFFICER</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="G111" t="n">
-        <v>4967</v>
-      </c>
-      <c r="H111" t="n">
-        <v>40391</v>
-      </c>
-      <c r="I111" t="n">
-        <v>944647</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Jun 13 05:53 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>FROG</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Landman Yoav</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>CHIEF TECHNOLOGY OFFICER</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>35.28</v>
-      </c>
-      <c r="G112" t="n">
-        <v>2250</v>
-      </c>
-      <c r="H112" t="n">
-        <v>79380</v>
-      </c>
-      <c r="I112" t="n">
-        <v>6744892</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Jun 13 05:53 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>IONQ</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Chapman Peter Hume</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>PRESIDENT AND CEO</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="G113" t="n">
-        <v>5936</v>
-      </c>
-      <c r="H113" t="n">
-        <v>46814</v>
-      </c>
-      <c r="I113" t="n">
-        <v>445297</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Jun 13 05:52 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>IONQ</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Chapman Peter Hume</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>PRESIDENT AND CEO</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="G114" t="n">
-        <v>6394</v>
-      </c>
-      <c r="H114" t="n">
-        <v>51995</v>
-      </c>
-      <c r="I114" t="n">
-        <v>438903</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Jun 13 05:52 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>NVDA</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>STEVENS MARK A</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>120.42</v>
-      </c>
-      <c r="G115" t="n">
-        <v>150000</v>
-      </c>
-      <c r="H115" t="n">
-        <v>18063285</v>
-      </c>
-      <c r="I115" t="n">
-        <v>9846240</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Jun 13 05:52 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>NVDA</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>STEVENS MARK A</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>125.88</v>
-      </c>
-      <c r="G116" t="n">
-        <v>320000</v>
-      </c>
-      <c r="H116" t="n">
-        <v>40280736</v>
-      </c>
-      <c r="I116" t="n">
-        <v>9526240</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Jun 13 05:52 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>IONQ</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Alameddine Rima</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>CHIEF REVENUE OFFICER</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="G117" t="n">
-        <v>9807</v>
-      </c>
-      <c r="H117" t="n">
-        <v>77343</v>
-      </c>
-      <c r="I117" t="n">
-        <v>687840</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Jun 13 05:51 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>IONQ</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Alameddine Rima</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>CHIEF REVENUE OFFICER</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="G118" t="n">
-        <v>10565</v>
-      </c>
-      <c r="H118" t="n">
-        <v>85914</v>
-      </c>
-      <c r="I118" t="n">
-        <v>677275</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Jun 13 05:51 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Selleck Erin</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="G119" t="n">
-        <v>2677</v>
-      </c>
-      <c r="H119" t="n">
-        <v>23290</v>
-      </c>
-      <c r="I119" t="n">
-        <v>57248</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Jun 13 05:50 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>CSV</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>GRANMAYEH LANCE KIAN</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>EVP, CFO and Treasurer</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Jun 13</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>29.31</v>
-      </c>
-      <c r="G120" t="n">
-        <v>3282</v>
-      </c>
-      <c r="H120" t="n">
-        <v>96181</v>
-      </c>
-      <c r="I120" t="n">
-        <v>27880</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Jun 13 05:42 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>PRI</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Williams Glenn J.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Chief Executive Officer</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Jun 13</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>222.76</v>
-      </c>
-      <c r="G121" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H121" t="n">
-        <v>668270</v>
-      </c>
-      <c r="I121" t="n">
-        <v>48322</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Jun 13 05:38 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>RXRX</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Borgeson Blake</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="G122" t="n">
-        <v>11447</v>
-      </c>
-      <c r="H122" t="n">
-        <v>96763</v>
-      </c>
-      <c r="I122" t="n">
-        <v>7188563</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Jun 13 05:36 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>CI</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Granger Elder</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Director</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>338.08</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H123" t="n">
-        <v>338080</v>
-      </c>
-      <c r="I123" t="n">
-        <v>5471</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Jun 13 05:35 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>HBCP</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Kirkley David T.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>SEVP &amp; Chief Financial Officer</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Jun 13</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>36.73</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1180</v>
-      </c>
-      <c r="H124" t="n">
-        <v>43338</v>
-      </c>
-      <c r="I124" t="n">
-        <v>4631</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Jun 13 05:34 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>MLYS</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Levy Adam Scott</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>CFO and Secretary</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="G125" t="n">
-        <v>96815</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1252718</v>
-      </c>
-      <c r="I125" t="n">
-        <v>255462</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Jun 13 05:33 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>SGRY</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Burkhalter Danielle</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Chief Human Resources Officer</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>26.39</v>
-      </c>
-      <c r="G126" t="n">
-        <v>6000</v>
-      </c>
-      <c r="H126" t="n">
-        <v>158310</v>
-      </c>
-      <c r="I126" t="n">
-        <v>30354</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Jun 13 05:31 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>DFIN</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Johnson Eric J</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>President, GIC</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>58.34</v>
-      </c>
-      <c r="G127" t="n">
-        <v>16757</v>
-      </c>
-      <c r="H127" t="n">
-        <v>977630</v>
-      </c>
-      <c r="I127" t="n">
-        <v>138338</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Jun 13 05:31 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>DFIN</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Johnson Eric J</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>President, GIC</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>59.25</v>
-      </c>
-      <c r="G128" t="n">
-        <v>5329</v>
-      </c>
-      <c r="H128" t="n">
-        <v>315720</v>
-      </c>
-      <c r="I128" t="n">
-        <v>133009</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Jun 13 05:31 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>RDNT</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Forthuber Stephen M</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Pres &amp; COO-Eastern Operations</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Jun 12</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>62.33</v>
-      </c>
-      <c r="G129" t="n">
-        <v>40000</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2493200</v>
-      </c>
-      <c r="I129" t="n">
-        <v>523561</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Jun 13 05:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>RDNT</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Sorensen Alma Gregory</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>EVP, Chief Science Officer</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Jun 11</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>61.24</v>
-      </c>
-      <c r="G130" t="n">
-        <v>5000</v>
-      </c>
-      <c r="H130" t="n">
-        <v>306200</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1249205</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Jun 13 05:30 PM</t>
+          <t>Jun 14 05:14 PM</t>
         </is>
       </c>
     </row>

--- a/salidas/latest-insiders-trading-Sale.xlsx
+++ b/salidas/latest-insiders-trading-Sale.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5005,50 +5005,6 @@
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>WMT</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>WALTON S ROBSON</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>10% Owner</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Jun 14</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>66.63</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1244347</v>
-      </c>
-      <c r="H105" t="n">
-        <v>82910841</v>
-      </c>
-      <c r="I105" t="n">
-        <v>633518311</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Jun 14 05:14 PM</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/salidas/latest-insiders-trading-Sale.xlsx
+++ b/salidas/latest-insiders-trading-Sale.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4961,50 +4961,6 @@
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>WMT</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>WALTON S ROBSON</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>10% Owner</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Jun 13</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>66.52</v>
-      </c>
-      <c r="G104" t="n">
-        <v>750000</v>
-      </c>
-      <c r="H104" t="n">
-        <v>49891800</v>
-      </c>
-      <c r="I104" t="n">
-        <v>634762658</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Jun 14 05:14 PM</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
